--- a/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera B_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK101"/>
+  <dimension ref="A1:BK105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>0.29</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT4" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AT5" t="n">
         <v>1.43</v>
@@ -1918,7 +1918,7 @@
         <v>0.71</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>1.5</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT15" t="n">
         <v>1.5</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT16" t="n">
         <v>0.71</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT18" t="n">
         <v>1</v>
@@ -4354,7 +4354,7 @@
         <v>1.5</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AU19" t="n">
         <v>0.75</v>
@@ -4757,7 +4757,7 @@
         <v>1</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AT21" t="n">
         <v>1</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT25" t="n">
         <v>0.86</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AT26" t="n">
         <v>0.5</v>
@@ -6181,7 +6181,7 @@
         <v>1.57</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU28" t="n">
         <v>1.24</v>
@@ -6384,7 +6384,7 @@
         <v>1.5</v>
       </c>
       <c r="AT29" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU29" t="n">
         <v>1.64</v>
@@ -6790,7 +6790,7 @@
         <v>0.29</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU31" t="n">
         <v>1.7</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT32" t="n">
         <v>1</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT33" t="n">
         <v>1</v>
@@ -7399,7 +7399,7 @@
         <v>1.57</v>
       </c>
       <c r="AT34" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AU34" t="n">
         <v>1.17</v>
@@ -7599,7 +7599,7 @@
         <v>0.5</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT35" t="n">
         <v>1</v>
@@ -9223,10 +9223,10 @@
         <v>2</v>
       </c>
       <c r="AS43" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU43" t="n">
         <v>1.34</v>
@@ -9429,7 +9429,7 @@
         <v>1</v>
       </c>
       <c r="AT44" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AU44" t="n">
         <v>1</v>
@@ -9629,10 +9629,10 @@
         <v>1</v>
       </c>
       <c r="AS45" t="n">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU45" t="n">
         <v>1.41</v>
@@ -10038,7 +10038,7 @@
         <v>1.17</v>
       </c>
       <c r="AT47" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU47" t="n">
         <v>1.42</v>
@@ -10441,10 +10441,10 @@
         <v>1.67</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU49" t="n">
         <v>1.57</v>
@@ -11659,7 +11659,7 @@
         <v>0.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT55" t="n">
         <v>1.33</v>
@@ -12271,7 +12271,7 @@
         <v>1.5</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU58" t="n">
         <v>0.87</v>
@@ -12474,7 +12474,7 @@
         <v>1.5</v>
       </c>
       <c r="AT59" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AU59" t="n">
         <v>1.12</v>
@@ -12674,7 +12674,7 @@
         <v>1.33</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT60" t="n">
         <v>1.43</v>
@@ -13489,7 +13489,7 @@
         <v>0.71</v>
       </c>
       <c r="AT64" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU64" t="n">
         <v>1.31</v>
@@ -13689,7 +13689,7 @@
         <v>0.33</v>
       </c>
       <c r="AS65" t="n">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AT65" t="n">
         <v>0.86</v>
@@ -13892,7 +13892,7 @@
         <v>0.25</v>
       </c>
       <c r="AS66" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT66" t="n">
         <v>0.71</v>
@@ -14298,7 +14298,7 @@
         <v>1.25</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT68" t="n">
         <v>1.43</v>
@@ -14707,7 +14707,7 @@
         <v>1.57</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU70" t="n">
         <v>1.53</v>
@@ -15113,7 +15113,7 @@
         <v>0.29</v>
       </c>
       <c r="AT72" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU72" t="n">
         <v>1.4</v>
@@ -15316,7 +15316,7 @@
         <v>1.17</v>
       </c>
       <c r="AT73" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AU73" t="n">
         <v>1.68</v>
@@ -16125,7 +16125,7 @@
         <v>0.75</v>
       </c>
       <c r="AS77" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AT77" t="n">
         <v>1</v>
@@ -16331,7 +16331,7 @@
         <v>2.5</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU78" t="n">
         <v>1.31</v>
@@ -17346,7 +17346,7 @@
         <v>1.5</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AU83" t="n">
         <v>1.61</v>
@@ -17546,7 +17546,7 @@
         <v>0.25</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT84" t="n">
         <v>0.86</v>
@@ -17952,10 +17952,10 @@
         <v>1</v>
       </c>
       <c r="AS86" t="n">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AT86" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU86" t="n">
         <v>1.43</v>
@@ -18358,7 +18358,7 @@
         <v>0.4</v>
       </c>
       <c r="AS88" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AT88" t="n">
         <v>0.33</v>
@@ -20188,7 +20188,7 @@
         <v>2.67</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU97" t="n">
         <v>1.5</v>
@@ -21052,6 +21052,818 @@
       </c>
       <c r="BK101" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="n">
+        <v>5139178</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera B</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45035.83333333334</v>
+      </c>
+      <c r="F102" t="n">
+        <v>13</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Deportes Quindío</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Real Cartagena</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" t="n">
+        <v>2</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0</v>
+      </c>
+      <c r="N102" t="n">
+        <v>2</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>['72', '89']</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q102" t="n">
+        <v>8</v>
+      </c>
+      <c r="R102" t="n">
+        <v>3</v>
+      </c>
+      <c r="S102" t="n">
+        <v>11</v>
+      </c>
+      <c r="T102" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="U102" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V102" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="W102" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X102" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC102" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AD102" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE102" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AF102" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG102" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH102" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI102" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ102" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK102" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL102" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM102" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AN102" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO102" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP102" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ102" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AR102" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AS102" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AT102" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AU102" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV102" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AW102" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AX102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF102" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG102" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH102" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI102" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ102" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK102" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="n">
+        <v>5139174</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera B</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45035.85416666666</v>
+      </c>
+      <c r="F103" t="n">
+        <v>13</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Cortuluá</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Universitario Popayán</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="n">
+        <v>2</v>
+      </c>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" t="n">
+        <v>3</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>['24', '90']</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="Q103" t="n">
+        <v>4</v>
+      </c>
+      <c r="R103" t="n">
+        <v>10</v>
+      </c>
+      <c r="S103" t="n">
+        <v>14</v>
+      </c>
+      <c r="T103" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U103" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V103" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W103" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X103" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB103" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC103" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AD103" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE103" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="AF103" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG103" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AH103" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI103" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ103" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK103" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AL103" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AM103" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN103" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO103" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP103" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AQ103" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR103" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS103" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT103" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AU103" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV103" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AW103" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AX103" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AY103" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ103" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BA103" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BB103" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BC103" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BD103" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BE103" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BF103" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG103" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH103" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI103" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ103" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="n">
+        <v>5139175</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera B</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>45036.83333333334</v>
+      </c>
+      <c r="F104" t="n">
+        <v>13</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Fortaleza CEIF</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Valledupar</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>2</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="n">
+        <v>2</v>
+      </c>
+      <c r="L104" t="n">
+        <v>5</v>
+      </c>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" t="n">
+        <v>6</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>['9', '17', '51', '78', '88']</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>['66']</t>
+        </is>
+      </c>
+      <c r="Q104" t="n">
+        <v>5</v>
+      </c>
+      <c r="R104" t="n">
+        <v>2</v>
+      </c>
+      <c r="S104" t="n">
+        <v>7</v>
+      </c>
+      <c r="T104" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U104" t="n">
+        <v>2</v>
+      </c>
+      <c r="V104" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W104" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X104" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB104" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC104" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AD104" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE104" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AF104" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG104" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH104" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI104" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AJ104" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK104" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL104" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AM104" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AN104" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO104" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP104" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AQ104" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR104" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS104" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT104" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AU104" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV104" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW104" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AX104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA104" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BB104" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BC104" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BD104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF104" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG104" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH104" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI104" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ104" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK104" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="n">
+        <v>5139179</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera B</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>45036.92013888889</v>
+      </c>
+      <c r="F105" t="n">
+        <v>13</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Patriotas Boyacá</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Cúcuta Deportivo</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q105" t="n">
+        <v>4</v>
+      </c>
+      <c r="R105" t="n">
+        <v>2</v>
+      </c>
+      <c r="S105" t="n">
+        <v>6</v>
+      </c>
+      <c r="T105" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U105" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="V105" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="W105" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X105" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z105" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA105" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB105" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC105" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AD105" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE105" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF105" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG105" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH105" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI105" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AJ105" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK105" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL105" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM105" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN105" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO105" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP105" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AQ105" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AR105" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS105" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AT105" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AU105" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV105" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW105" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AX105" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AY105" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AZ105" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BA105" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BB105" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BC105" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BD105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF105" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG105" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH105" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI105" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ105" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK105" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera B_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK105"/>
+  <dimension ref="A1:BK112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT3" t="n">
         <v>0.71</v>
@@ -1715,7 +1715,7 @@
         <v>1</v>
       </c>
       <c r="AT6" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT10" t="n">
         <v>1.14</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>1.5</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT13" t="n">
         <v>1</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>2.29</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT16" t="n">
         <v>0.71</v>
@@ -3948,7 +3948,7 @@
         <v>1.57</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>2</v>
       </c>
       <c r="AT18" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU18" t="n">
         <v>0.96</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT20" t="n">
         <v>1</v>
@@ -4760,7 +4760,7 @@
         <v>2.43</v>
       </c>
       <c r="AT21" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU21" t="n">
         <v>1.37</v>
@@ -5166,7 +5166,7 @@
         <v>1.57</v>
       </c>
       <c r="AT23" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU23" t="n">
         <v>1.34</v>
@@ -5366,10 +5366,10 @@
         <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AU24" t="n">
         <v>1.43</v>
@@ -5775,7 +5775,7 @@
         <v>2.43</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU26" t="n">
         <v>1.4</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT27" t="n">
         <v>0.71</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT29" t="n">
         <v>0.86</v>
@@ -6587,7 +6587,7 @@
         <v>1</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU30" t="n">
         <v>1</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT32" t="n">
         <v>1</v>
@@ -7602,7 +7602,7 @@
         <v>2</v>
       </c>
       <c r="AT35" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU35" t="n">
         <v>1.32</v>
@@ -7802,10 +7802,10 @@
         <v>0.5</v>
       </c>
       <c r="AS36" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU36" t="n">
         <v>1.09</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT37" t="n">
         <v>1</v>
@@ -8208,7 +8208,7 @@
         <v>1.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT38" t="n">
         <v>1.43</v>
@@ -8414,7 +8414,7 @@
         <v>0.71</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU39" t="n">
         <v>1.25</v>
@@ -8614,10 +8614,10 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU40" t="n">
         <v>1.9</v>
@@ -8820,7 +8820,7 @@
         <v>1.57</v>
       </c>
       <c r="AT41" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU41" t="n">
         <v>1.75</v>
@@ -9023,7 +9023,7 @@
         <v>0.29</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AU42" t="n">
         <v>1.66</v>
@@ -9223,7 +9223,7 @@
         <v>2</v>
       </c>
       <c r="AS43" t="n">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT43" t="n">
         <v>1.14</v>
@@ -9832,10 +9832,10 @@
         <v>1.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU46" t="n">
         <v>1.06</v>
@@ -10035,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT47" t="n">
         <v>0.86</v>
@@ -10644,10 +10644,10 @@
         <v>0.33</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT50" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU50" t="n">
         <v>1.3</v>
@@ -11050,7 +11050,7 @@
         <v>0</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT52" t="n">
         <v>1</v>
@@ -11253,10 +11253,10 @@
         <v>0.33</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU53" t="n">
         <v>0.67</v>
@@ -11662,7 +11662,7 @@
         <v>2.29</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU55" t="n">
         <v>1.73</v>
@@ -11862,10 +11862,10 @@
         <v>1</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU56" t="n">
         <v>1.63</v>
@@ -12068,7 +12068,7 @@
         <v>1.57</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU57" t="n">
         <v>1.6</v>
@@ -12268,7 +12268,7 @@
         <v>0.67</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT58" t="n">
         <v>0.29</v>
@@ -12471,7 +12471,7 @@
         <v>1.75</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT59" t="n">
         <v>1.86</v>
@@ -12674,7 +12674,7 @@
         <v>1.33</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT60" t="n">
         <v>1.43</v>
@@ -12880,7 +12880,7 @@
         <v>0.29</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU61" t="n">
         <v>1.62</v>
@@ -13080,10 +13080,10 @@
         <v>1.33</v>
       </c>
       <c r="AS62" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT62" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU62" t="n">
         <v>1.26</v>
@@ -13286,7 +13286,7 @@
         <v>1</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AU63" t="n">
         <v>1.38</v>
@@ -14501,7 +14501,7 @@
         <v>0</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT69" t="n">
         <v>1</v>
@@ -14910,7 +14910,7 @@
         <v>1.5</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU71" t="n">
         <v>1.16</v>
@@ -15313,7 +15313,7 @@
         <v>2</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT73" t="n">
         <v>1.86</v>
@@ -15516,10 +15516,10 @@
         <v>1.75</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AU74" t="n">
         <v>1.25</v>
@@ -15722,7 +15722,7 @@
         <v>0.71</v>
       </c>
       <c r="AT75" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU75" t="n">
         <v>1.37</v>
@@ -15922,10 +15922,10 @@
         <v>1.25</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT76" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU76" t="n">
         <v>1.13</v>
@@ -16125,7 +16125,7 @@
         <v>0.75</v>
       </c>
       <c r="AS77" t="n">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT77" t="n">
         <v>1</v>
@@ -16328,7 +16328,7 @@
         <v>0.5</v>
       </c>
       <c r="AS78" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT78" t="n">
         <v>0.29</v>
@@ -16531,10 +16531,10 @@
         <v>0</v>
       </c>
       <c r="AS79" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU79" t="n">
         <v>1.51</v>
@@ -16737,7 +16737,7 @@
         <v>1</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU80" t="n">
         <v>1.51</v>
@@ -17343,7 +17343,7 @@
         <v>1.2</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT83" t="n">
         <v>1.14</v>
@@ -17752,7 +17752,7 @@
         <v>1.57</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU85" t="n">
         <v>1.4</v>
@@ -18361,7 +18361,7 @@
         <v>2.29</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AU88" t="n">
         <v>1.68</v>
@@ -18764,10 +18764,10 @@
         <v>0.6</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT90" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU90" t="n">
         <v>1.56</v>
@@ -18967,10 +18967,10 @@
         <v>1.2</v>
       </c>
       <c r="AS91" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AT91" t="n">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU91" t="n">
         <v>1.41</v>
@@ -19170,10 +19170,10 @@
         <v>1</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AU92" t="n">
         <v>1.33</v>
@@ -19376,7 +19376,7 @@
         <v>0.71</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AU93" t="n">
         <v>1.47</v>
@@ -19576,10 +19576,10 @@
         <v>0</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AU94" t="n">
         <v>1.24</v>
@@ -19982,7 +19982,7 @@
         <v>0.83</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AT96" t="n">
         <v>0.86</v>
@@ -20185,7 +20185,7 @@
         <v>0.4</v>
       </c>
       <c r="AS97" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AT97" t="n">
         <v>0.29</v>
@@ -20797,7 +20797,7 @@
         <v>0.29</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU100" t="n">
         <v>1.24</v>
@@ -21606,7 +21606,7 @@
         <v>1</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AT104" t="n">
         <v>0.86</v>
@@ -21864,6 +21864,1427 @@
       </c>
       <c r="BK105" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="n">
+        <v>5139185</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera B</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>45039.66666666666</v>
+      </c>
+      <c r="F106" t="n">
+        <v>14</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Fortaleza CEIF</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Patriotas Boyacá</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>1</v>
+      </c>
+      <c r="J106" t="n">
+        <v>1</v>
+      </c>
+      <c r="K106" t="n">
+        <v>2</v>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" t="n">
+        <v>2</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>['34']</t>
+        </is>
+      </c>
+      <c r="Q106" t="n">
+        <v>2</v>
+      </c>
+      <c r="R106" t="n">
+        <v>7</v>
+      </c>
+      <c r="S106" t="n">
+        <v>9</v>
+      </c>
+      <c r="T106" t="n">
+        <v>3</v>
+      </c>
+      <c r="U106" t="n">
+        <v>2</v>
+      </c>
+      <c r="V106" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W106" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X106" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB106" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC106" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AD106" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE106" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AF106" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG106" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH106" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI106" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ106" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK106" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AL106" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM106" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN106" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO106" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP106" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ106" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR106" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS106" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AT106" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AU106" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV106" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW106" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AX106" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AY106" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AZ106" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="BA106" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BB106" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC106" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD106" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF106" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG106" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH106" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI106" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ106" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK106" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="n">
+        <v>5139188</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera B</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>45039.70833333334</v>
+      </c>
+      <c r="F107" t="n">
+        <v>14</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Valledupar</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Leones</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>3</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>3</v>
+      </c>
+      <c r="L107" t="n">
+        <v>5</v>
+      </c>
+      <c r="M107" t="n">
+        <v>3</v>
+      </c>
+      <c r="N107" t="n">
+        <v>8</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>['6', '13', '18', '51', '55']</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>['58', '77', '90+6']</t>
+        </is>
+      </c>
+      <c r="Q107" t="n">
+        <v>6</v>
+      </c>
+      <c r="R107" t="n">
+        <v>8</v>
+      </c>
+      <c r="S107" t="n">
+        <v>14</v>
+      </c>
+      <c r="T107" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U107" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V107" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W107" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X107" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC107" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD107" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AE107" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF107" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG107" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH107" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI107" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ107" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK107" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL107" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AM107" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AN107" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO107" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AP107" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ107" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR107" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS107" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AT107" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AU107" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV107" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AW107" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AX107" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AY107" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="AZ107" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BA107" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB107" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BC107" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BD107" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BE107" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BF107" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG107" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH107" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI107" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ107" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK107" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="n">
+        <v>5139184</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera B</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>45039.75</v>
+      </c>
+      <c r="F108" t="n">
+        <v>14</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Cúcuta Deportivo</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Real Santander</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>2</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="n">
+        <v>2</v>
+      </c>
+      <c r="L108" t="n">
+        <v>2</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0</v>
+      </c>
+      <c r="N108" t="n">
+        <v>2</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>['38', '45']</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q108" t="n">
+        <v>4</v>
+      </c>
+      <c r="R108" t="n">
+        <v>0</v>
+      </c>
+      <c r="S108" t="n">
+        <v>4</v>
+      </c>
+      <c r="T108" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U108" t="n">
+        <v>2</v>
+      </c>
+      <c r="V108" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W108" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X108" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA108" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB108" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC108" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD108" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE108" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AF108" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG108" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH108" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI108" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AJ108" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK108" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL108" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM108" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AN108" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO108" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP108" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ108" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AR108" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS108" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AT108" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AU108" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV108" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AW108" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AX108" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AY108" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AZ108" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BA108" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BB108" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BC108" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BD108" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BE108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF108" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG108" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH108" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI108" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ108" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK108" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="n">
+        <v>5139182</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera B</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>45040.66666666666</v>
+      </c>
+      <c r="F109" t="n">
+        <v>14</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Tigres</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q109" t="n">
+        <v>3</v>
+      </c>
+      <c r="R109" t="n">
+        <v>10</v>
+      </c>
+      <c r="S109" t="n">
+        <v>13</v>
+      </c>
+      <c r="T109" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U109" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V109" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="W109" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X109" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB109" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC109" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD109" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE109" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AF109" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG109" t="n">
+        <v>7.95</v>
+      </c>
+      <c r="AH109" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI109" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ109" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK109" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL109" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM109" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN109" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO109" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP109" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ109" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR109" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS109" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT109" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AU109" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV109" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AW109" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AX109" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AY109" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ109" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="BA109" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BB109" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BC109" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BD109" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BE109" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BF109" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG109" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH109" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI109" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ109" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK109" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="n">
+        <v>5139181</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera B</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>45040.72916666666</v>
+      </c>
+      <c r="F110" t="n">
+        <v>14</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Orsomarso</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Deportes Quindío</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0</v>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0</v>
+      </c>
+      <c r="N110" t="n">
+        <v>1</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>['71']</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q110" t="n">
+        <v>4</v>
+      </c>
+      <c r="R110" t="n">
+        <v>8</v>
+      </c>
+      <c r="S110" t="n">
+        <v>12</v>
+      </c>
+      <c r="T110" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U110" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V110" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W110" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X110" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA110" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AB110" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC110" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AD110" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AE110" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AF110" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG110" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH110" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI110" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ110" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK110" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL110" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM110" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN110" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO110" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP110" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AQ110" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR110" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS110" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AT110" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AU110" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AV110" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW110" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AX110" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AY110" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AZ110" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BA110" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BB110" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BC110" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BD110" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BE110" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BF110" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG110" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH110" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI110" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ110" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK110" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="n">
+        <v>5139187</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera B</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>45040.75</v>
+      </c>
+      <c r="F111" t="n">
+        <v>14</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Llaneros</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Atlético</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>3</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="n">
+        <v>3</v>
+      </c>
+      <c r="L111" t="n">
+        <v>3</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0</v>
+      </c>
+      <c r="N111" t="n">
+        <v>3</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>['8', '28', '43']</t>
+        </is>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q111" t="n">
+        <v>7</v>
+      </c>
+      <c r="R111" t="n">
+        <v>0</v>
+      </c>
+      <c r="S111" t="n">
+        <v>7</v>
+      </c>
+      <c r="T111" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="U111" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="V111" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="W111" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X111" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA111" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AB111" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC111" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD111" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE111" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF111" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG111" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH111" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI111" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AJ111" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK111" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL111" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AM111" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN111" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO111" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP111" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AQ111" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR111" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS111" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AT111" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AU111" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV111" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW111" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AX111" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AY111" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AZ111" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA111" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB111" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BC111" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD111" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BE111" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BF111" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ111" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK111" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="n">
+        <v>5139186</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera B</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>45040.83333333334</v>
+      </c>
+      <c r="F112" t="n">
+        <v>14</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Real Cartagena</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Cortuluá</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="n">
+        <v>2</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0</v>
+      </c>
+      <c r="N112" t="n">
+        <v>2</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>['27', '84']</t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q112" t="n">
+        <v>5</v>
+      </c>
+      <c r="R112" t="n">
+        <v>4</v>
+      </c>
+      <c r="S112" t="n">
+        <v>9</v>
+      </c>
+      <c r="T112" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="U112" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V112" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="W112" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X112" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AB112" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC112" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AD112" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE112" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AF112" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG112" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AH112" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI112" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AJ112" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK112" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL112" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AM112" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN112" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO112" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP112" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AQ112" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR112" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AS112" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AT112" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AU112" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AV112" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AW112" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AX112" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AY112" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ112" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BA112" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB112" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BC112" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BD112" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE112" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BF112" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG112" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH112" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI112" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ112" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK112" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera B_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK112"/>
+  <dimension ref="A1:BK113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT12" t="n">
         <v>0.57</v>
@@ -3136,7 +3136,7 @@
         <v>1.14</v>
       </c>
       <c r="AT13" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>1</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT19" t="n">
         <v>1.86</v>
@@ -7196,7 +7196,7 @@
         <v>2.29</v>
       </c>
       <c r="AT33" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU33" t="n">
         <v>1.87</v>
@@ -10241,7 +10241,7 @@
         <v>1.57</v>
       </c>
       <c r="AT48" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU48" t="n">
         <v>1.18</v>
@@ -11456,7 +11456,7 @@
         <v>0</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT54" t="n">
         <v>0.71</v>
@@ -14504,7 +14504,7 @@
         <v>1.71</v>
       </c>
       <c r="AT69" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU69" t="n">
         <v>1.17</v>
@@ -14907,7 +14907,7 @@
         <v>0.25</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT71" t="n">
         <v>0.29</v>
@@ -16128,7 +16128,7 @@
         <v>2.14</v>
       </c>
       <c r="AT77" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU77" t="n">
         <v>1.42</v>
@@ -16937,7 +16937,7 @@
         <v>0.6</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT81" t="n">
         <v>1</v>
@@ -18561,7 +18561,7 @@
         <v>0.8</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT89" t="n">
         <v>0.86</v>
@@ -19782,7 +19782,7 @@
         <v>1</v>
       </c>
       <c r="AT95" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AU95" t="n">
         <v>1.52</v>
@@ -23285,6 +23285,209 @@
       </c>
       <c r="BK112" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="n">
+        <v>5139183</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera B</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>45041.75</v>
+      </c>
+      <c r="F113" t="n">
+        <v>14</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Universitario Popayán</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Barranquilla</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>1</v>
+      </c>
+      <c r="J113" t="n">
+        <v>2</v>
+      </c>
+      <c r="K113" t="n">
+        <v>3</v>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="n">
+        <v>2</v>
+      </c>
+      <c r="N113" t="n">
+        <v>3</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>['14']</t>
+        </is>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>['30', '34']</t>
+        </is>
+      </c>
+      <c r="Q113" t="n">
+        <v>9</v>
+      </c>
+      <c r="R113" t="n">
+        <v>0</v>
+      </c>
+      <c r="S113" t="n">
+        <v>9</v>
+      </c>
+      <c r="T113" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U113" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V113" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="W113" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X113" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AB113" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC113" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AD113" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE113" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF113" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG113" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AH113" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI113" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ113" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK113" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL113" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM113" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN113" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO113" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP113" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ113" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR113" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS113" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT113" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AU113" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AV113" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AW113" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AX113" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AY113" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ113" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="BA113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB113" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BC113" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BD113" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BE113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF113" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG113" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH113" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI113" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ113" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK113" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera B_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK113"/>
+  <dimension ref="A1:BK115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT7" t="n">
         <v>0.29</v>
@@ -2527,7 +2527,7 @@
         <v>1.71</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT15" t="n">
         <v>1.29</v>
@@ -4557,7 +4557,7 @@
         <v>2.71</v>
       </c>
       <c r="AT20" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU20" t="n">
         <v>0.68</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT22" t="n">
         <v>1.43</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT25" t="n">
         <v>0.86</v>
@@ -6790,7 +6790,7 @@
         <v>0.29</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU31" t="n">
         <v>1.7</v>
@@ -6993,7 +6993,7 @@
         <v>2.14</v>
       </c>
       <c r="AT32" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU32" t="n">
         <v>1.62</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT33" t="n">
         <v>1.29</v>
@@ -8008,7 +8008,7 @@
         <v>1.71</v>
       </c>
       <c r="AT37" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU37" t="n">
         <v>1.07</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT39" t="n">
         <v>1.29</v>
@@ -9226,7 +9226,7 @@
         <v>2.14</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU43" t="n">
         <v>1.34</v>
@@ -10444,7 +10444,7 @@
         <v>2</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU49" t="n">
         <v>1.57</v>
@@ -10847,7 +10847,7 @@
         <v>0</v>
       </c>
       <c r="AS51" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT51" t="n">
         <v>0.86</v>
@@ -11053,7 +11053,7 @@
         <v>2.57</v>
       </c>
       <c r="AT52" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU52" t="n">
         <v>1.6</v>
@@ -11659,7 +11659,7 @@
         <v>0.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT55" t="n">
         <v>1.29</v>
@@ -13486,7 +13486,7 @@
         <v>0.33</v>
       </c>
       <c r="AS64" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT64" t="n">
         <v>0.86</v>
@@ -13892,7 +13892,7 @@
         <v>0.25</v>
       </c>
       <c r="AS66" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT66" t="n">
         <v>0.71</v>
@@ -14098,7 +14098,7 @@
         <v>1.57</v>
       </c>
       <c r="AT67" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU67" t="n">
         <v>1.4</v>
@@ -14707,7 +14707,7 @@
         <v>1.57</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU70" t="n">
         <v>1.53</v>
@@ -15719,7 +15719,7 @@
         <v>0.5</v>
       </c>
       <c r="AS75" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT75" t="n">
         <v>0.86</v>
@@ -16940,7 +16940,7 @@
         <v>1.29</v>
       </c>
       <c r="AT81" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU81" t="n">
         <v>1.15</v>
@@ -17346,7 +17346,7 @@
         <v>1.71</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU83" t="n">
         <v>1.61</v>
@@ -18358,7 +18358,7 @@
         <v>0.4</v>
       </c>
       <c r="AS88" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT88" t="n">
         <v>0.29</v>
@@ -19373,7 +19373,7 @@
         <v>2</v>
       </c>
       <c r="AS93" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT93" t="n">
         <v>1.57</v>
@@ -21000,7 +21000,7 @@
         <v>1</v>
       </c>
       <c r="AT101" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU101" t="n">
         <v>1.63</v>
@@ -21200,7 +21200,7 @@
         <v>2.17</v>
       </c>
       <c r="AS102" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT102" t="n">
         <v>1.86</v>
@@ -21812,7 +21812,7 @@
         <v>2.43</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU105" t="n">
         <v>1.44</v>
@@ -23488,6 +23488,412 @@
       </c>
       <c r="BK113" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="n">
+        <v>5139193</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera B</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>45044.83333333334</v>
+      </c>
+      <c r="F114" t="n">
+        <v>15</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Deportes Quindío</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Tigres</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0</v>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0</v>
+      </c>
+      <c r="N114" t="n">
+        <v>1</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q114" t="n">
+        <v>10</v>
+      </c>
+      <c r="R114" t="n">
+        <v>1</v>
+      </c>
+      <c r="S114" t="n">
+        <v>11</v>
+      </c>
+      <c r="T114" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U114" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V114" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W114" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X114" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB114" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC114" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD114" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE114" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="AF114" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG114" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH114" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI114" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ114" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK114" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AL114" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM114" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN114" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO114" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP114" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ114" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AR114" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS114" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AT114" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU114" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV114" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW114" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AX114" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AY114" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AZ114" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BA114" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BB114" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BC114" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BD114" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BE114" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BF114" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG114" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH114" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI114" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ114" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK114" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="n">
+        <v>5139190</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera B</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>45044.92013888889</v>
+      </c>
+      <c r="F115" t="n">
+        <v>15</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Leones</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Cúcuta Deportivo</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>1</v>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="n">
+        <v>2</v>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="n">
+        <v>3</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>['48', '63']</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>['26']</t>
+        </is>
+      </c>
+      <c r="Q115" t="n">
+        <v>4</v>
+      </c>
+      <c r="R115" t="n">
+        <v>3</v>
+      </c>
+      <c r="S115" t="n">
+        <v>7</v>
+      </c>
+      <c r="T115" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="U115" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="V115" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="W115" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X115" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AB115" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC115" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AD115" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AE115" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF115" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG115" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AH115" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AI115" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ115" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AK115" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AL115" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM115" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN115" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO115" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP115" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ115" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AR115" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS115" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT115" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU115" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV115" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW115" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AX115" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AY115" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AZ115" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BA115" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BB115" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BC115" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BD115" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF115" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG115" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH115" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI115" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ115" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK115" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera B_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK115"/>
+  <dimension ref="A1:BK117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AT2" t="n">
         <v>1.86</v>
@@ -1715,7 +1715,7 @@
         <v>1</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>1.57</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT17" t="n">
         <v>0.29</v>
@@ -4760,7 +4760,7 @@
         <v>2.43</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU21" t="n">
         <v>1.37</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT23" t="n">
         <v>0.86</v>
@@ -5572,7 +5572,7 @@
         <v>2.38</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU25" t="n">
         <v>2.14</v>
@@ -6787,7 +6787,7 @@
         <v>1</v>
       </c>
       <c r="AS31" t="n">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AT31" t="n">
         <v>1</v>
@@ -7396,7 +7396,7 @@
         <v>0.5</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT34" t="n">
         <v>1.86</v>
@@ -7602,7 +7602,7 @@
         <v>2</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU35" t="n">
         <v>1.32</v>
@@ -9020,7 +9020,7 @@
         <v>1.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AT42" t="n">
         <v>1.57</v>
@@ -10238,7 +10238,7 @@
         <v>0</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT48" t="n">
         <v>1.29</v>
@@ -10647,7 +10647,7 @@
         <v>1.71</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU50" t="n">
         <v>1.3</v>
@@ -10850,7 +10850,7 @@
         <v>1</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU51" t="n">
         <v>1.29</v>
@@ -12877,7 +12877,7 @@
         <v>0.33</v>
       </c>
       <c r="AS61" t="n">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AT61" t="n">
         <v>1.29</v>
@@ -13692,7 +13692,7 @@
         <v>2.43</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU65" t="n">
         <v>1.45</v>
@@ -14095,7 +14095,7 @@
         <v>0</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT67" t="n">
         <v>0.88</v>
@@ -15110,7 +15110,7 @@
         <v>1</v>
       </c>
       <c r="AS72" t="n">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AT72" t="n">
         <v>0.86</v>
@@ -15722,7 +15722,7 @@
         <v>1</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU75" t="n">
         <v>1.37</v>
@@ -17549,7 +17549,7 @@
         <v>2</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU84" t="n">
         <v>1.75</v>
@@ -17749,7 +17749,7 @@
         <v>1.5</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT85" t="n">
         <v>1.29</v>
@@ -18155,7 +18155,7 @@
         <v>1.2</v>
       </c>
       <c r="AS87" t="n">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AT87" t="n">
         <v>1.43</v>
@@ -18564,7 +18564,7 @@
         <v>1.29</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU89" t="n">
         <v>1.27</v>
@@ -18767,7 +18767,7 @@
         <v>1.14</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU90" t="n">
         <v>1.56</v>
@@ -19985,7 +19985,7 @@
         <v>1.71</v>
       </c>
       <c r="AT96" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AU96" t="n">
         <v>1.42</v>
@@ -20388,7 +20388,7 @@
         <v>0.83</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT98" t="n">
         <v>0.71</v>
@@ -20794,7 +20794,7 @@
         <v>1.2</v>
       </c>
       <c r="AS100" t="n">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AT100" t="n">
         <v>1.29</v>
@@ -22421,7 +22421,7 @@
         <v>2.71</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU108" t="n">
         <v>1.48</v>
@@ -23894,6 +23894,412 @@
       </c>
       <c r="BK115" t="n">
         <v>16</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="n">
+        <v>5139189</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera B</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>45045.66666666666</v>
+      </c>
+      <c r="F116" t="n">
+        <v>15</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Fortaleza CEIF</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q116" t="n">
+        <v>3</v>
+      </c>
+      <c r="R116" t="n">
+        <v>7</v>
+      </c>
+      <c r="S116" t="n">
+        <v>10</v>
+      </c>
+      <c r="T116" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U116" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V116" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W116" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X116" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA116" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB116" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC116" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD116" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE116" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AF116" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG116" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AH116" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI116" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ116" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK116" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL116" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM116" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AN116" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AO116" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP116" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AQ116" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR116" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AS116" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT116" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU116" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV116" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW116" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AX116" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AY116" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ116" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BA116" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BB116" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BC116" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BD116" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BE116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF116" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG116" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH116" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI116" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ116" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK116" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="n">
+        <v>5139192</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera B</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>45045.79166666666</v>
+      </c>
+      <c r="F117" t="n">
+        <v>15</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Barranquilla</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Real Santander</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0</v>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0</v>
+      </c>
+      <c r="N117" t="n">
+        <v>1</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q117" t="n">
+        <v>4</v>
+      </c>
+      <c r="R117" t="n">
+        <v>4</v>
+      </c>
+      <c r="S117" t="n">
+        <v>8</v>
+      </c>
+      <c r="T117" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="U117" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V117" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W117" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X117" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA117" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AB117" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC117" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AD117" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE117" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AF117" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG117" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH117" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI117" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ117" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AK117" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AL117" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AM117" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN117" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO117" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP117" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ117" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AR117" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AS117" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AT117" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU117" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AV117" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AW117" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AX117" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AY117" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ117" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BA117" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB117" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BC117" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD117" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE117" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BF117" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG117" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ117" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK117" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera B_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK117"/>
+  <dimension ref="A1:BK119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>0.63</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AT5" t="n">
         <v>1.43</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1.29</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU19" t="n">
         <v>0.75</v>
@@ -4757,7 +4757,7 @@
         <v>1</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AT21" t="n">
         <v>0.75</v>
@@ -5369,7 +5369,7 @@
         <v>1.14</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU24" t="n">
         <v>1.43</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AT26" t="n">
         <v>0.57</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT27" t="n">
         <v>0.71</v>
@@ -7399,7 +7399,7 @@
         <v>1.5</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU34" t="n">
         <v>1.17</v>
@@ -8614,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT40" t="n">
         <v>0.57</v>
@@ -9023,7 +9023,7 @@
         <v>0.63</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU42" t="n">
         <v>1.66</v>
@@ -9429,7 +9429,7 @@
         <v>1</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU44" t="n">
         <v>1</v>
@@ -9629,7 +9629,7 @@
         <v>1</v>
       </c>
       <c r="AS45" t="n">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AT45" t="n">
         <v>0.29</v>
@@ -11050,7 +11050,7 @@
         <v>0</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT52" t="n">
         <v>0.88</v>
@@ -12474,7 +12474,7 @@
         <v>1.71</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU59" t="n">
         <v>1.12</v>
@@ -13286,7 +13286,7 @@
         <v>1</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU63" t="n">
         <v>1.38</v>
@@ -13689,7 +13689,7 @@
         <v>0.33</v>
       </c>
       <c r="AS65" t="n">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AT65" t="n">
         <v>0.88</v>
@@ -15316,7 +15316,7 @@
         <v>1.14</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU73" t="n">
         <v>1.68</v>
@@ -15519,7 +15519,7 @@
         <v>1.71</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU74" t="n">
         <v>1.25</v>
@@ -16328,7 +16328,7 @@
         <v>0.5</v>
       </c>
       <c r="AS78" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT78" t="n">
         <v>0.29</v>
@@ -17952,7 +17952,7 @@
         <v>1</v>
       </c>
       <c r="AS86" t="n">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AT86" t="n">
         <v>0.86</v>
@@ -18967,7 +18967,7 @@
         <v>1.2</v>
       </c>
       <c r="AS91" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT91" t="n">
         <v>0.86</v>
@@ -19376,7 +19376,7 @@
         <v>1</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU93" t="n">
         <v>1.47</v>
@@ -21203,7 +21203,7 @@
         <v>2.38</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU102" t="n">
         <v>1.64</v>
@@ -21809,7 +21809,7 @@
         <v>1.17</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AT105" t="n">
         <v>1</v>
@@ -23027,7 +23027,7 @@
         <v>0.33</v>
       </c>
       <c r="AS111" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AT111" t="n">
         <v>0.29</v>
@@ -23233,7 +23233,7 @@
         <v>1.71</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AU112" t="n">
         <v>1.39</v>
@@ -24300,6 +24300,412 @@
       </c>
       <c r="BK117" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="n">
+        <v>5139191</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera B</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>45046.86111111111</v>
+      </c>
+      <c r="F118" t="n">
+        <v>15</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Llaneros</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Real Cartagena</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>2</v>
+      </c>
+      <c r="J118" t="n">
+        <v>1</v>
+      </c>
+      <c r="K118" t="n">
+        <v>3</v>
+      </c>
+      <c r="L118" t="n">
+        <v>2</v>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="n">
+        <v>3</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>['24', '39']</t>
+        </is>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>['44']</t>
+        </is>
+      </c>
+      <c r="Q118" t="n">
+        <v>4</v>
+      </c>
+      <c r="R118" t="n">
+        <v>2</v>
+      </c>
+      <c r="S118" t="n">
+        <v>6</v>
+      </c>
+      <c r="T118" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="U118" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="V118" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="W118" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X118" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA118" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB118" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC118" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AD118" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE118" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AF118" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG118" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AH118" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI118" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ118" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AK118" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL118" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM118" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN118" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO118" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP118" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ118" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AR118" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AS118" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AT118" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AU118" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV118" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AW118" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AX118" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AY118" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AZ118" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="BA118" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB118" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BC118" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BD118" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BE118" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF118" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG118" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH118" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI118" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ118" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK118" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="n">
+        <v>5139194</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera B</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>45047.89583333334</v>
+      </c>
+      <c r="F119" t="n">
+        <v>15</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Patriotas Boyacá</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Cortuluá</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="n">
+        <v>2</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>['45+4']</t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="Q119" t="n">
+        <v>9</v>
+      </c>
+      <c r="R119" t="n">
+        <v>2</v>
+      </c>
+      <c r="S119" t="n">
+        <v>11</v>
+      </c>
+      <c r="T119" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U119" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V119" t="n">
+        <v>5</v>
+      </c>
+      <c r="W119" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X119" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y119" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z119" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA119" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB119" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC119" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AD119" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE119" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF119" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG119" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH119" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI119" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ119" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AK119" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL119" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM119" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN119" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO119" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP119" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ119" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AR119" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS119" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AT119" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU119" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV119" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AW119" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AX119" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AY119" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ119" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="BA119" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BB119" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BC119" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BD119" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BE119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF119" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG119" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH119" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI119" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ119" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK119" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera B_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK119"/>
+  <dimension ref="A1:BK120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -6181,7 +6181,7 @@
         <v>1.57</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AU28" t="n">
         <v>1.24</v>
@@ -9632,7 +9632,7 @@
         <v>2.25</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AU45" t="n">
         <v>1.41</v>
@@ -12271,7 +12271,7 @@
         <v>1.71</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AU58" t="n">
         <v>0.87</v>
@@ -16331,7 +16331,7 @@
         <v>2.63</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AU78" t="n">
         <v>1.31</v>
@@ -20188,7 +20188,7 @@
         <v>2.71</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AU97" t="n">
         <v>1.5</v>
@@ -21406,7 +21406,7 @@
         <v>2</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="AU103" t="n">
         <v>1.62</v>
@@ -24706,6 +24706,209 @@
       </c>
       <c r="BK119" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="n">
+        <v>5139195</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera B</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>45048.70833333334</v>
+      </c>
+      <c r="F120" t="n">
+        <v>15</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Atlético</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Universitario Popayán</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>1</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="n">
+        <v>2</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>['45']</t>
+        </is>
+      </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="Q120" t="n">
+        <v>5</v>
+      </c>
+      <c r="R120" t="n">
+        <v>9</v>
+      </c>
+      <c r="S120" t="n">
+        <v>14</v>
+      </c>
+      <c r="T120" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U120" t="n">
+        <v>2</v>
+      </c>
+      <c r="V120" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W120" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X120" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y120" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z120" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA120" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB120" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC120" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD120" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE120" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AF120" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG120" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH120" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI120" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AJ120" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK120" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL120" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM120" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN120" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO120" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP120" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ120" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR120" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AS120" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT120" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AU120" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV120" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AW120" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AX120" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AY120" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ120" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BA120" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB120" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BC120" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BD120" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BE120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF120" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG120" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH120" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI120" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ120" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK120" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera B_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK120"/>
+  <dimension ref="A1:BK121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>2.71</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT10" t="n">
         <v>1</v>
@@ -3745,7 +3745,7 @@
         <v>2.14</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -5978,7 +5978,7 @@
         <v>2.63</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU27" t="n">
         <v>1.9</v>
@@ -8208,7 +8208,7 @@
         <v>1.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT38" t="n">
         <v>1.43</v>
@@ -11253,7 +11253,7 @@
         <v>0.33</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT53" t="n">
         <v>0.29</v>
@@ -11459,7 +11459,7 @@
         <v>1.29</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU54" t="n">
         <v>1.08</v>
@@ -12268,7 +12268,7 @@
         <v>0.67</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT58" t="n">
         <v>0.38</v>
@@ -13895,7 +13895,7 @@
         <v>2.38</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU66" t="n">
         <v>1.54</v>
@@ -15922,7 +15922,7 @@
         <v>1.25</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT76" t="n">
         <v>0.86</v>
@@ -17143,7 +17143,7 @@
         <v>1.57</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU82" t="n">
         <v>1.5</v>
@@ -19576,7 +19576,7 @@
         <v>0</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT94" t="n">
         <v>0.57</v>
@@ -20391,7 +20391,7 @@
         <v>1.5</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU98" t="n">
         <v>1.44</v>
@@ -22215,7 +22215,7 @@
         <v>1.5</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT107" t="n">
         <v>1.29</v>
@@ -24909,6 +24909,209 @@
       </c>
       <c r="BK120" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="n">
+        <v>5139196</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera B</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>45052.72916666666</v>
+      </c>
+      <c r="F121" t="n">
+        <v>15</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Valledupar</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Orsomarso</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>1</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="n">
+        <v>3</v>
+      </c>
+      <c r="M121" t="n">
+        <v>2</v>
+      </c>
+      <c r="N121" t="n">
+        <v>5</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>['44', '86', '88']</t>
+        </is>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>['48', '82']</t>
+        </is>
+      </c>
+      <c r="Q121" t="n">
+        <v>6</v>
+      </c>
+      <c r="R121" t="n">
+        <v>6</v>
+      </c>
+      <c r="S121" t="n">
+        <v>12</v>
+      </c>
+      <c r="T121" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="U121" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="V121" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="W121" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X121" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y121" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Z121" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA121" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AB121" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC121" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD121" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE121" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF121" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG121" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AH121" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AI121" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AJ121" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AK121" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AL121" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AM121" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN121" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO121" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP121" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AQ121" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR121" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AS121" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AT121" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AU121" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV121" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AW121" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AX121" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AY121" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ121" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BA121" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BB121" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BC121" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BD121" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BE121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF121" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG121" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH121" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI121" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ121" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK121" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera B_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK121"/>
+  <dimension ref="A1:BK122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT11" t="n">
         <v>0.29</v>
@@ -3136,7 +3136,7 @@
         <v>1.14</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -7196,7 +7196,7 @@
         <v>2.38</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU33" t="n">
         <v>1.87</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT37" t="n">
         <v>0.88</v>
@@ -9832,7 +9832,7 @@
         <v>1.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT46" t="n">
         <v>1.29</v>
@@ -10241,7 +10241,7 @@
         <v>1.5</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU48" t="n">
         <v>1.18</v>
@@ -12471,7 +12471,7 @@
         <v>1.75</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT59" t="n">
         <v>1.63</v>
@@ -14504,7 +14504,7 @@
         <v>1.71</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU69" t="n">
         <v>1.17</v>
@@ -15516,7 +15516,7 @@
         <v>1.75</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT74" t="n">
         <v>1.5</v>
@@ -16128,7 +16128,7 @@
         <v>2.14</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU77" t="n">
         <v>1.42</v>
@@ -19170,7 +19170,7 @@
         <v>1</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT92" t="n">
         <v>1.29</v>
@@ -19782,7 +19782,7 @@
         <v>1</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU95" t="n">
         <v>1.52</v>
@@ -22824,7 +22824,7 @@
         <v>1</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AT110" t="n">
         <v>0.86</v>
@@ -23436,7 +23436,7 @@
         <v>1.29</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU113" t="n">
         <v>1.27</v>
@@ -25112,6 +25112,209 @@
       </c>
       <c r="BK121" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="n">
+        <v>5139198</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera B</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>45058.72916666666</v>
+      </c>
+      <c r="F122" t="n">
+        <v>16</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Orsomarso</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Barranquilla</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="n">
+        <v>1</v>
+      </c>
+      <c r="K122" t="n">
+        <v>2</v>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="n">
+        <v>3</v>
+      </c>
+      <c r="N122" t="n">
+        <v>4</v>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>['14']</t>
+        </is>
+      </c>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>['21', '57', '79']</t>
+        </is>
+      </c>
+      <c r="Q122" t="n">
+        <v>1</v>
+      </c>
+      <c r="R122" t="n">
+        <v>4</v>
+      </c>
+      <c r="S122" t="n">
+        <v>5</v>
+      </c>
+      <c r="T122" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U122" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V122" t="n">
+        <v>4</v>
+      </c>
+      <c r="W122" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X122" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y122" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z122" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA122" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AB122" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC122" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD122" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE122" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF122" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG122" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH122" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AI122" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AJ122" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AK122" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL122" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM122" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN122" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO122" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP122" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ122" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR122" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS122" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT122" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU122" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AV122" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AW122" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AX122" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AY122" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ122" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BA122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB122" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BC122" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD122" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BE122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF122" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG122" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH122" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI122" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ122" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK122" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera B_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK122"/>
+  <dimension ref="A1:BK129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT3" t="n">
         <v>0.63</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>2.25</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT9" t="n">
         <v>0.88</v>
@@ -2730,7 +2730,7 @@
         <v>1.5</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT13" t="n">
         <v>1.5</v>
@@ -3542,7 +3542,7 @@
         <v>2.38</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT16" t="n">
         <v>0.63</v>
@@ -3948,7 +3948,7 @@
         <v>1.5</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4148,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU18" t="n">
         <v>0.96</v>
@@ -4351,7 +4351,7 @@
         <v>1</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT19" t="n">
         <v>1.63</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT20" t="n">
         <v>0.88</v>
@@ -4963,7 +4963,7 @@
         <v>1</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU22" t="n">
         <v>1.77</v>
@@ -5166,7 +5166,7 @@
         <v>1.5</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU23" t="n">
         <v>1.34</v>
@@ -5366,7 +5366,7 @@
         <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT24" t="n">
         <v>1.5</v>
@@ -5775,7 +5775,7 @@
         <v>2.25</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU26" t="n">
         <v>1.4</v>
@@ -6178,7 +6178,7 @@
         <v>1</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT28" t="n">
         <v>0.38</v>
@@ -6381,10 +6381,10 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU29" t="n">
         <v>1.64</v>
@@ -6587,7 +6587,7 @@
         <v>1</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU30" t="n">
         <v>1</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT32" t="n">
         <v>0.88</v>
@@ -7599,7 +7599,7 @@
         <v>0.5</v>
       </c>
       <c r="AS35" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT35" t="n">
         <v>0.75</v>
@@ -7802,10 +7802,10 @@
         <v>0.5</v>
       </c>
       <c r="AS36" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU36" t="n">
         <v>1.09</v>
@@ -8211,7 +8211,7 @@
         <v>1.88</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU38" t="n">
         <v>0.32</v>
@@ -8414,7 +8414,7 @@
         <v>1</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU39" t="n">
         <v>1.25</v>
@@ -8617,7 +8617,7 @@
         <v>2.63</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU40" t="n">
         <v>1.9</v>
@@ -8817,10 +8817,10 @@
         <v>0.5</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU41" t="n">
         <v>1.75</v>
@@ -9223,7 +9223,7 @@
         <v>2</v>
       </c>
       <c r="AS43" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT43" t="n">
         <v>1</v>
@@ -9835,7 +9835,7 @@
         <v>1.5</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU46" t="n">
         <v>1.06</v>
@@ -10035,10 +10035,10 @@
         <v>0</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU47" t="n">
         <v>1.42</v>
@@ -10441,7 +10441,7 @@
         <v>1.67</v>
       </c>
       <c r="AS49" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT49" t="n">
         <v>1</v>
@@ -10644,7 +10644,7 @@
         <v>0.33</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT50" t="n">
         <v>0.75</v>
@@ -11256,7 +11256,7 @@
         <v>1.88</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU53" t="n">
         <v>0.67</v>
@@ -11456,7 +11456,7 @@
         <v>0</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT54" t="n">
         <v>0.63</v>
@@ -11662,7 +11662,7 @@
         <v>2.38</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU55" t="n">
         <v>1.73</v>
@@ -11862,10 +11862,10 @@
         <v>1</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU56" t="n">
         <v>1.63</v>
@@ -12065,10 +12065,10 @@
         <v>0</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU57" t="n">
         <v>1.6</v>
@@ -12674,10 +12674,10 @@
         <v>1.33</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU60" t="n">
         <v>1.49</v>
@@ -12880,7 +12880,7 @@
         <v>0.63</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU61" t="n">
         <v>1.62</v>
@@ -13080,10 +13080,10 @@
         <v>1.33</v>
       </c>
       <c r="AS62" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU62" t="n">
         <v>1.26</v>
@@ -13489,7 +13489,7 @@
         <v>1</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU64" t="n">
         <v>1.31</v>
@@ -14298,10 +14298,10 @@
         <v>1.25</v>
       </c>
       <c r="AS68" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU68" t="n">
         <v>1.76</v>
@@ -14501,7 +14501,7 @@
         <v>0</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT69" t="n">
         <v>1.5</v>
@@ -14704,7 +14704,7 @@
         <v>1.5</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT70" t="n">
         <v>1</v>
@@ -14907,10 +14907,10 @@
         <v>0.25</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU71" t="n">
         <v>1.16</v>
@@ -15113,7 +15113,7 @@
         <v>0.63</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU72" t="n">
         <v>1.4</v>
@@ -15313,7 +15313,7 @@
         <v>2</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT73" t="n">
         <v>1.63</v>
@@ -15925,7 +15925,7 @@
         <v>1.88</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU76" t="n">
         <v>1.13</v>
@@ -16125,7 +16125,7 @@
         <v>0.75</v>
       </c>
       <c r="AS77" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT77" t="n">
         <v>1.5</v>
@@ -16531,10 +16531,10 @@
         <v>0</v>
       </c>
       <c r="AS79" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU79" t="n">
         <v>1.51</v>
@@ -16737,7 +16737,7 @@
         <v>1</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU80" t="n">
         <v>1.51</v>
@@ -16937,7 +16937,7 @@
         <v>0.6</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT81" t="n">
         <v>0.88</v>
@@ -17140,7 +17140,7 @@
         <v>0.4</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT82" t="n">
         <v>0.63</v>
@@ -17343,7 +17343,7 @@
         <v>1.2</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT83" t="n">
         <v>1</v>
@@ -17546,7 +17546,7 @@
         <v>0.25</v>
       </c>
       <c r="AS84" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT84" t="n">
         <v>0.88</v>
@@ -17752,7 +17752,7 @@
         <v>1.5</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU85" t="n">
         <v>1.4</v>
@@ -17955,7 +17955,7 @@
         <v>2.25</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU86" t="n">
         <v>1.43</v>
@@ -18158,7 +18158,7 @@
         <v>0.63</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU87" t="n">
         <v>1.27</v>
@@ -18361,7 +18361,7 @@
         <v>2.38</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU88" t="n">
         <v>1.68</v>
@@ -18561,7 +18561,7 @@
         <v>0.8</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT89" t="n">
         <v>0.88</v>
@@ -18764,7 +18764,7 @@
         <v>0.6</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT90" t="n">
         <v>0.75</v>
@@ -18970,7 +18970,7 @@
         <v>2.63</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU91" t="n">
         <v>1.41</v>
@@ -19173,7 +19173,7 @@
         <v>1.5</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU92" t="n">
         <v>1.33</v>
@@ -19579,7 +19579,7 @@
         <v>1.88</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU94" t="n">
         <v>1.24</v>
@@ -19982,7 +19982,7 @@
         <v>0.83</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT96" t="n">
         <v>0.88</v>
@@ -20185,7 +20185,7 @@
         <v>0.4</v>
       </c>
       <c r="AS97" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT97" t="n">
         <v>0.38</v>
@@ -20591,10 +20591,10 @@
         <v>1.5</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU99" t="n">
         <v>1.73</v>
@@ -20797,7 +20797,7 @@
         <v>0.63</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU100" t="n">
         <v>1.24</v>
@@ -21403,7 +21403,7 @@
         <v>0.33</v>
       </c>
       <c r="AS103" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AT103" t="n">
         <v>0.38</v>
@@ -21606,10 +21606,10 @@
         <v>1</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU104" t="n">
         <v>1.43</v>
@@ -22012,10 +22012,10 @@
         <v>1.33</v>
       </c>
       <c r="AS106" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU106" t="n">
         <v>1.6</v>
@@ -22218,7 +22218,7 @@
         <v>1.88</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AU107" t="n">
         <v>1.41</v>
@@ -22418,7 +22418,7 @@
         <v>1</v>
       </c>
       <c r="AS108" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AT108" t="n">
         <v>0.75</v>
@@ -22621,10 +22621,10 @@
         <v>0.5</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AU109" t="n">
         <v>1.51</v>
@@ -22827,7 +22827,7 @@
         <v>1.5</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU110" t="n">
         <v>1.3</v>
@@ -23030,7 +23030,7 @@
         <v>2.63</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AU111" t="n">
         <v>1.42</v>
@@ -23230,7 +23230,7 @@
         <v>1.83</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AT112" t="n">
         <v>1.5</v>
@@ -23433,7 +23433,7 @@
         <v>1</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT113" t="n">
         <v>1.5</v>
@@ -25315,6 +25315,1427 @@
       </c>
       <c r="BK122" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="n">
+        <v>5139202</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera B</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>45059.75</v>
+      </c>
+      <c r="F123" t="n">
+        <v>16</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Fortaleza CEIF</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Atlético</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="n">
+        <v>2</v>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="n">
+        <v>3</v>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>['23', '90']</t>
+        </is>
+      </c>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="Q123" t="n">
+        <v>4</v>
+      </c>
+      <c r="R123" t="n">
+        <v>1</v>
+      </c>
+      <c r="S123" t="n">
+        <v>5</v>
+      </c>
+      <c r="T123" t="n">
+        <v>2</v>
+      </c>
+      <c r="U123" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V123" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="W123" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X123" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y123" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z123" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA123" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB123" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC123" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AD123" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE123" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF123" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG123" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH123" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI123" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="AJ123" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AK123" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL123" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM123" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN123" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO123" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP123" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ123" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AR123" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AS123" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AT123" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AU123" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV123" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AW123" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AX123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA123" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB123" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC123" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD123" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BE123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF123" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG123" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH123" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI123" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ123" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK123" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="n">
+        <v>5139201</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera B</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>45059.75</v>
+      </c>
+      <c r="F124" t="n">
+        <v>16</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Cúcuta Deportivo</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Llaneros</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" t="n">
+        <v>1</v>
+      </c>
+      <c r="K124" t="n">
+        <v>2</v>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="n">
+        <v>2</v>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>['36']</t>
+        </is>
+      </c>
+      <c r="P124" t="inlineStr">
+        <is>
+          <t>['12']</t>
+        </is>
+      </c>
+      <c r="Q124" t="n">
+        <v>4</v>
+      </c>
+      <c r="R124" t="n">
+        <v>2</v>
+      </c>
+      <c r="S124" t="n">
+        <v>6</v>
+      </c>
+      <c r="T124" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U124" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V124" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="W124" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X124" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y124" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z124" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA124" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB124" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC124" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AD124" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE124" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF124" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG124" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH124" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI124" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ124" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK124" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL124" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM124" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN124" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO124" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP124" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AQ124" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AR124" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS124" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT124" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AU124" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV124" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AW124" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AX124" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY124" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA124" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BB124" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BC124" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BD124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF124" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG124" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH124" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI124" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ124" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK124" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="n">
+        <v>5139203</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera B</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>45059.75</v>
+      </c>
+      <c r="F125" t="n">
+        <v>16</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Real Cartagena</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Leones</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>2</v>
+      </c>
+      <c r="K125" t="n">
+        <v>2</v>
+      </c>
+      <c r="L125" t="n">
+        <v>2</v>
+      </c>
+      <c r="M125" t="n">
+        <v>2</v>
+      </c>
+      <c r="N125" t="n">
+        <v>4</v>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>['74', '78']</t>
+        </is>
+      </c>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>['12', '42']</t>
+        </is>
+      </c>
+      <c r="Q125" t="n">
+        <v>9</v>
+      </c>
+      <c r="R125" t="n">
+        <v>4</v>
+      </c>
+      <c r="S125" t="n">
+        <v>13</v>
+      </c>
+      <c r="T125" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U125" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V125" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W125" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X125" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Y125" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z125" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA125" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AB125" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC125" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD125" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE125" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF125" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG125" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="AH125" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI125" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ125" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AK125" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL125" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM125" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN125" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO125" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP125" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ125" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR125" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS125" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT125" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU125" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AV125" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AW125" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AX125" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AY125" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ125" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BA125" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB125" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BC125" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BD125" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BE125" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF125" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG125" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH125" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI125" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ125" t="n">
+        <v>25</v>
+      </c>
+      <c r="BK125" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="n">
+        <v>5139199</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera B</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>45059.75</v>
+      </c>
+      <c r="F126" t="n">
+        <v>16</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Tigres</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Patriotas Boyacá</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>1</v>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M126" t="n">
+        <v>2</v>
+      </c>
+      <c r="N126" t="n">
+        <v>2</v>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>['38', '48']</t>
+        </is>
+      </c>
+      <c r="Q126" t="n">
+        <v>2</v>
+      </c>
+      <c r="R126" t="n">
+        <v>2</v>
+      </c>
+      <c r="S126" t="n">
+        <v>4</v>
+      </c>
+      <c r="T126" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="U126" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V126" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W126" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="X126" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Y126" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Z126" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA126" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB126" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC126" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AD126" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AE126" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AF126" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AG126" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AH126" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI126" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ126" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AK126" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AL126" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM126" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN126" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AO126" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AP126" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ126" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR126" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS126" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT126" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU126" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV126" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW126" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AX126" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AY126" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ126" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BA126" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB126" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BC126" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BD126" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BE126" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF126" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG126" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH126" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI126" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ126" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK126" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="n">
+        <v>5139197</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera B</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>45059.75</v>
+      </c>
+      <c r="F127" t="n">
+        <v>16</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Cortuluá</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0</v>
+      </c>
+      <c r="N127" t="n">
+        <v>0</v>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q127" t="n">
+        <v>5</v>
+      </c>
+      <c r="R127" t="n">
+        <v>4</v>
+      </c>
+      <c r="S127" t="n">
+        <v>9</v>
+      </c>
+      <c r="T127" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="U127" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="V127" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="W127" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X127" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="Y127" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Z127" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA127" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB127" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC127" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AD127" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE127" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AF127" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG127" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH127" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AI127" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ127" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AK127" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL127" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AM127" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN127" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO127" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP127" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AQ127" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR127" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AS127" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AT127" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AU127" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV127" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW127" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AX127" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AY127" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ127" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BA127" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BB127" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BC127" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BD127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF127" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG127" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH127" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI127" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ127" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK127" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="n">
+        <v>5139200</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera B</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>45059.75</v>
+      </c>
+      <c r="F128" t="n">
+        <v>16</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Universitario Popayán</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Deportes Quindío</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="n">
+        <v>1</v>
+      </c>
+      <c r="K128" t="n">
+        <v>2</v>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="n">
+        <v>2</v>
+      </c>
+      <c r="N128" t="n">
+        <v>3</v>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>['24']</t>
+        </is>
+      </c>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>['44', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q128" t="n">
+        <v>2</v>
+      </c>
+      <c r="R128" t="n">
+        <v>7</v>
+      </c>
+      <c r="S128" t="n">
+        <v>9</v>
+      </c>
+      <c r="T128" t="n">
+        <v>4</v>
+      </c>
+      <c r="U128" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V128" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W128" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X128" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y128" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z128" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA128" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AB128" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC128" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="AD128" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AE128" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AF128" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG128" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AH128" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AI128" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ128" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AK128" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL128" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AM128" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN128" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AO128" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP128" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ128" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR128" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AS128" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT128" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AU128" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AV128" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AW128" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AX128" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AY128" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA128" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB128" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC128" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD128" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE128" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BF128" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG128" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH128" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI128" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ128" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK128" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="n">
+        <v>5139204</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera B</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>45059.75</v>
+      </c>
+      <c r="F129" t="n">
+        <v>16</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Real Santander</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Valledupar</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>1</v>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="n">
+        <v>3</v>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="n">
+        <v>4</v>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>['70', '72', '79']</t>
+        </is>
+      </c>
+      <c r="P129" t="inlineStr">
+        <is>
+          <t>['34']</t>
+        </is>
+      </c>
+      <c r="Q129" t="n">
+        <v>10</v>
+      </c>
+      <c r="R129" t="n">
+        <v>2</v>
+      </c>
+      <c r="S129" t="n">
+        <v>12</v>
+      </c>
+      <c r="T129" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="U129" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="V129" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="W129" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X129" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Y129" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="Z129" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA129" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB129" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC129" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AD129" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE129" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AF129" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG129" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AH129" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI129" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ129" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AK129" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AL129" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AM129" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AN129" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO129" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP129" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AQ129" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR129" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AS129" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT129" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU129" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AV129" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW129" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AX129" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AY129" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ129" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BA129" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB129" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BC129" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD129" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE129" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF129" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG129" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH129" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI129" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ129" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK129" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera B_2023.xlsx
@@ -3804,7 +3804,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>5139093</v>
+        <v>5139094</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -3824,182 +3824,182 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Bogotá</t>
+          <t>Cortuluá</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Atlético</t>
+          <t>Deportes Quindío</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>['45+2']</t>
+          <t>['16', '32']</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>['32']</t>
+          <t>['20']</t>
         </is>
       </c>
       <c r="Q17" t="n">
         <v>5</v>
       </c>
       <c r="R17" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="S17" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="T17" t="n">
-        <v>2.29</v>
+        <v>2.63</v>
       </c>
       <c r="U17" t="n">
-        <v>2.23</v>
+        <v>1.95</v>
       </c>
       <c r="V17" t="n">
-        <v>5.59</v>
+        <v>4.5</v>
       </c>
       <c r="W17" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="X17" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="Y17" t="n">
         <v>2.85</v>
       </c>
-      <c r="Y17" t="n">
-        <v>3.11</v>
-      </c>
       <c r="Z17" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="AA17" t="n">
-        <v>7.3</v>
+        <v>6.8</v>
       </c>
       <c r="AB17" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AC17" t="n">
-        <v>1.62</v>
+        <v>1.95</v>
       </c>
       <c r="AD17" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="AE17" t="n">
-        <v>4.6</v>
+        <v>3.8</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="AG17" t="n">
-        <v>10.25</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AH17" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AI17" t="n">
-        <v>3.07</v>
+        <v>3.18</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="AK17" t="n">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="AL17" t="n">
-        <v>1.98</v>
+        <v>1.78</v>
       </c>
       <c r="AM17" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AN17" t="n">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="AO17" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="AP17" t="n">
-        <v>2.33</v>
+        <v>1.77</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.5</v>
+        <v>1.88</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.25</v>
+        <v>1.13</v>
       </c>
       <c r="AU17" t="n">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="AV17" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AW17" t="n">
-        <v>1.2</v>
+        <v>0.96</v>
       </c>
       <c r="AX17" t="n">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="AY17" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="AZ17" t="n">
-        <v>3.22</v>
+        <v>2.78</v>
       </c>
       <c r="BA17" t="n">
-        <v>1.51</v>
+        <v>1.65</v>
       </c>
       <c r="BB17" t="n">
-        <v>1.87</v>
+        <v>2.09</v>
       </c>
       <c r="BC17" t="n">
-        <v>2.34</v>
+        <v>3.3</v>
       </c>
       <c r="BD17" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="BE17" t="n">
         <v>0</v>
       </c>
       <c r="BF17" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH17" t="n">
         <v>4</v>
       </c>
-      <c r="BG17" t="n">
-        <v>4</v>
-      </c>
-      <c r="BH17" t="n">
-        <v>5</v>
-      </c>
       <c r="BI17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BJ17" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BK17" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18">
@@ -4007,7 +4007,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>5139094</v>
+        <v>5139093</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -4027,182 +4027,182 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Cortuluá</t>
+          <t>Bogotá</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Deportes Quindío</t>
+          <t>Atlético</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
         <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>['16', '32']</t>
+          <t>['45+2']</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>['20']</t>
+          <t>['32']</t>
         </is>
       </c>
       <c r="Q18" t="n">
         <v>5</v>
       </c>
       <c r="R18" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="S18" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="T18" t="n">
-        <v>2.63</v>
+        <v>2.29</v>
       </c>
       <c r="U18" t="n">
-        <v>1.95</v>
+        <v>2.23</v>
       </c>
       <c r="V18" t="n">
-        <v>4.5</v>
+        <v>5.59</v>
       </c>
       <c r="W18" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="X18" t="n">
-        <v>2.77</v>
+        <v>2.85</v>
       </c>
       <c r="Y18" t="n">
-        <v>2.85</v>
+        <v>3.11</v>
       </c>
       <c r="Z18" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="AA18" t="n">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="AB18" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AC18" t="n">
-        <v>1.95</v>
+        <v>1.62</v>
       </c>
       <c r="AD18" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="AE18" t="n">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="AG18" t="n">
-        <v>8.800000000000001</v>
+        <v>10.25</v>
       </c>
       <c r="AH18" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AI18" t="n">
-        <v>3.18</v>
+        <v>3.07</v>
       </c>
       <c r="AJ18" t="n">
-        <v>2.2</v>
+        <v>1.98</v>
       </c>
       <c r="AK18" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AL18" t="n">
-        <v>1.78</v>
+        <v>1.98</v>
       </c>
       <c r="AM18" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="AN18" t="n">
-        <v>1.24</v>
+        <v>1.15</v>
       </c>
       <c r="AO18" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.77</v>
+        <v>2.33</v>
       </c>
       <c r="AQ18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.88</v>
+        <v>1.5</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.13</v>
+        <v>0.25</v>
       </c>
       <c r="AU18" t="n">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="AV18" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AW18" t="n">
-        <v>0.96</v>
+        <v>1.2</v>
       </c>
       <c r="AX18" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AY18" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="AZ18" t="n">
-        <v>2.78</v>
+        <v>3.22</v>
       </c>
       <c r="BA18" t="n">
-        <v>1.65</v>
+        <v>1.51</v>
       </c>
       <c r="BB18" t="n">
-        <v>2.09</v>
+        <v>1.87</v>
       </c>
       <c r="BC18" t="n">
-        <v>3.3</v>
+        <v>2.34</v>
       </c>
       <c r="BD18" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="BE18" t="n">
         <v>0</v>
       </c>
       <c r="BF18" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK18" t="n">
         <v>8</v>
-      </c>
-      <c r="BG18" t="n">
-        <v>8</v>
-      </c>
-      <c r="BH18" t="n">
-        <v>4</v>
-      </c>
-      <c r="BI18" t="n">
-        <v>6</v>
-      </c>
-      <c r="BJ18" t="n">
-        <v>12</v>
-      </c>
-      <c r="BK18" t="n">
-        <v>14</v>
       </c>
     </row>
     <row r="19">
@@ -7458,7 +7458,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>5139110</v>
+        <v>5139113</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -7478,119 +7478,119 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Cortuluá</t>
+          <t>Cúcuta Deportivo</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Real Santander</t>
+          <t>Atlético</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>['90+12']</t>
+          <t>['27', '32']</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['42']</t>
         </is>
       </c>
       <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1</v>
+      </c>
+      <c r="S35" t="n">
         <v>5</v>
-      </c>
-      <c r="R35" t="n">
-        <v>2</v>
-      </c>
-      <c r="S35" t="n">
-        <v>7</v>
       </c>
       <c r="T35" t="n">
         <v>2.5</v>
       </c>
       <c r="U35" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="V35" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="W35" t="n">
-        <v>1.39</v>
+        <v>1.49</v>
       </c>
       <c r="X35" t="n">
-        <v>2.77</v>
+        <v>2.44</v>
       </c>
       <c r="Y35" t="n">
-        <v>2.85</v>
+        <v>3.32</v>
       </c>
       <c r="Z35" t="n">
-        <v>1.37</v>
+        <v>1.29</v>
       </c>
       <c r="AA35" t="n">
-        <v>6.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AB35" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="AC35" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AD35" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AE35" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="AF35" t="n">
         <v>1.05</v>
       </c>
       <c r="AG35" t="n">
-        <v>10.75</v>
+        <v>7.1</v>
       </c>
       <c r="AH35" t="n">
-        <v>1.29</v>
+        <v>1.41</v>
       </c>
       <c r="AI35" t="n">
-        <v>3.45</v>
+        <v>2.6</v>
       </c>
       <c r="AJ35" t="n">
-        <v>2.15</v>
+        <v>1.96</v>
       </c>
       <c r="AK35" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AL35" t="n">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="AM35" t="n">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="AN35" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AO35" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="AQ35" t="n">
         <v>3</v>
@@ -7599,40 +7599,40 @@
         <v>0.5</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.88</v>
+        <v>2.5</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="AU35" t="n">
-        <v>1.32</v>
+        <v>1.09</v>
       </c>
       <c r="AV35" t="n">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AW35" t="n">
-        <v>2.37</v>
+        <v>2.23</v>
       </c>
       <c r="AX35" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AY35" t="n">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="AZ35" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="BA35" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="BB35" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="BC35" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="BD35" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="BE35" t="n">
         <v>0</v>
@@ -7644,16 +7644,16 @@
         <v>5</v>
       </c>
       <c r="BH35" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI35" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ35" t="n">
         <v>12</v>
       </c>
-      <c r="BI35" t="n">
-        <v>4</v>
-      </c>
-      <c r="BJ35" t="n">
-        <v>18</v>
-      </c>
       <c r="BK35" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36">
@@ -7661,7 +7661,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>5139113</v>
+        <v>5139110</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -7681,119 +7681,119 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Cúcuta Deportivo</t>
+          <t>Cortuluá</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Atlético</t>
+          <t>Real Santander</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>['27', '32']</t>
+          <t>['90+12']</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>['42']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S36" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T36" t="n">
         <v>2.5</v>
       </c>
       <c r="U36" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="V36" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="W36" t="n">
-        <v>1.49</v>
+        <v>1.39</v>
       </c>
       <c r="X36" t="n">
-        <v>2.44</v>
+        <v>2.77</v>
       </c>
       <c r="Y36" t="n">
-        <v>3.32</v>
+        <v>2.85</v>
       </c>
       <c r="Z36" t="n">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="AA36" t="n">
-        <v>8.699999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="AB36" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="AC36" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AD36" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AE36" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AF36" t="n">
         <v>1.05</v>
       </c>
       <c r="AG36" t="n">
-        <v>7.1</v>
+        <v>10.75</v>
       </c>
       <c r="AH36" t="n">
-        <v>1.41</v>
+        <v>1.29</v>
       </c>
       <c r="AI36" t="n">
-        <v>2.6</v>
+        <v>3.45</v>
       </c>
       <c r="AJ36" t="n">
-        <v>1.96</v>
+        <v>2.15</v>
       </c>
       <c r="AK36" t="n">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="AL36" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="AM36" t="n">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="AN36" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="AO36" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="AQ36" t="n">
         <v>3</v>
@@ -7802,40 +7802,40 @@
         <v>0.5</v>
       </c>
       <c r="AS36" t="n">
-        <v>2.5</v>
+        <v>1.88</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="AU36" t="n">
-        <v>1.09</v>
+        <v>1.32</v>
       </c>
       <c r="AV36" t="n">
-        <v>1.14</v>
+        <v>1.05</v>
       </c>
       <c r="AW36" t="n">
-        <v>2.23</v>
+        <v>2.37</v>
       </c>
       <c r="AX36" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="AY36" t="n">
-        <v>7.9</v>
+        <v>0</v>
       </c>
       <c r="AZ36" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="BA36" t="n">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="BB36" t="n">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="BC36" t="n">
-        <v>2.46</v>
+        <v>0</v>
       </c>
       <c r="BD36" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="BE36" t="n">
         <v>0</v>
@@ -7847,16 +7847,16 @@
         <v>5</v>
       </c>
       <c r="BH36" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BI36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BJ36" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="BK36" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37">
@@ -8473,7 +8473,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>5139121</v>
+        <v>5139120</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -8493,182 +8493,182 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Llaneros</t>
+          <t>Real Santander</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Bogotá</t>
+          <t>Deportes Quindío</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>['44', '89']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['58']</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S40" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="T40" t="n">
-        <v>2.31</v>
+        <v>3.58</v>
       </c>
       <c r="U40" t="n">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="V40" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X40" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA40" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BE40" t="n">
         <v>5.3</v>
       </c>
-      <c r="W40" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="X40" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AO40" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AP40" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AQ40" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AR40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS40" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AT40" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="AU40" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AV40" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AW40" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AX40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ40" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA40" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="BB40" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="BC40" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="BD40" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="BE40" t="n">
-        <v>5.1</v>
-      </c>
       <c r="BF40" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG40" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH40" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI40" t="n">
         <v>6</v>
-      </c>
-      <c r="BG40" t="n">
-        <v>4</v>
-      </c>
-      <c r="BH40" t="n">
-        <v>4</v>
-      </c>
-      <c r="BI40" t="n">
-        <v>5</v>
       </c>
       <c r="BJ40" t="n">
         <v>10</v>
       </c>
       <c r="BK40" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41">
@@ -8676,7 +8676,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>5139120</v>
+        <v>5139121</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -8696,182 +8696,182 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Real Santander</t>
+          <t>Llaneros</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Deportes Quindío</t>
+          <t>Bogotá</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
+          <t>['44', '89']</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>['58']</t>
-        </is>
-      </c>
       <c r="Q41" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="U41" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V41" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X41" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AX41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA41" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BE41" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BF41" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG41" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH41" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI41" t="n">
         <v>5</v>
-      </c>
-      <c r="S41" t="n">
-        <v>15</v>
-      </c>
-      <c r="T41" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="U41" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="V41" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="W41" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="X41" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>6.65</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AO41" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AP41" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AQ41" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR41" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AS41" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AT41" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AU41" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AV41" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AW41" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AX41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA41" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="BB41" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="BC41" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="BD41" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="BE41" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="BF41" t="n">
-        <v>2</v>
-      </c>
-      <c r="BG41" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH41" t="n">
-        <v>8</v>
-      </c>
-      <c r="BI41" t="n">
-        <v>6</v>
       </c>
       <c r="BJ41" t="n">
         <v>10</v>
       </c>
       <c r="BK41" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42">
@@ -10503,7 +10503,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>5139128</v>
+        <v>5139132</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -10523,179 +10523,179 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Real Cartagena</t>
+          <t>Valledupar</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Real Santander</t>
+          <t>Atlético</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
       <c r="N50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>['47']</t>
+          <t>['31', '45', '88']</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>['81']</t>
+          <t>['21']</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="R50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S50" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T50" t="n">
-        <v>3.31</v>
+        <v>3.25</v>
       </c>
       <c r="U50" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V50" t="n">
-        <v>3.67</v>
+        <v>3.5</v>
       </c>
       <c r="W50" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="X50" t="n">
-        <v>2.6</v>
+        <v>2.35</v>
       </c>
       <c r="Y50" t="n">
-        <v>3.22</v>
+        <v>3.3</v>
       </c>
       <c r="Z50" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AA50" t="n">
-        <v>8.699999999999999</v>
+        <v>7.75</v>
       </c>
       <c r="AB50" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AC50" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AD50" t="n">
         <v>3</v>
       </c>
       <c r="AE50" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="AF50" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AG50" t="n">
-        <v>8.699999999999999</v>
+        <v>8</v>
       </c>
       <c r="AH50" t="n">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="AI50" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="AJ50" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="AK50" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AL50" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AM50" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AN50" t="n">
-        <v>1.4</v>
+        <v>1.28</v>
       </c>
       <c r="AO50" t="n">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AQ50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AR50" t="n">
         <v>0.33</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.63</v>
+        <v>1.88</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="AU50" t="n">
-        <v>1.3</v>
+        <v>0.67</v>
       </c>
       <c r="AV50" t="n">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="AW50" t="n">
-        <v>2.41</v>
+        <v>1.84</v>
       </c>
       <c r="AX50" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="AY50" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="AZ50" t="n">
-        <v>2.86</v>
+        <v>2.81</v>
       </c>
       <c r="BA50" t="n">
-        <v>1.38</v>
+        <v>1.57</v>
       </c>
       <c r="BB50" t="n">
-        <v>1.71</v>
+        <v>1.97</v>
       </c>
       <c r="BC50" t="n">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="BD50" t="n">
-        <v>3.1</v>
+        <v>3.95</v>
       </c>
       <c r="BE50" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="BF50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BH50" t="n">
         <v>3</v>
       </c>
       <c r="BI50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BJ50" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BK50" t="n">
         <v>4</v>
@@ -11112,7 +11112,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>5139132</v>
+        <v>5139128</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -11132,179 +11132,179 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Valledupar</t>
+          <t>Real Cartagena</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Atlético</t>
+          <t>Real Santander</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
       <c r="N53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>['31', '45', '88']</t>
+          <t>['47']</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>['21']</t>
+          <t>['81']</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S53" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T53" t="n">
-        <v>3.25</v>
+        <v>3.31</v>
       </c>
       <c r="U53" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V53" t="n">
-        <v>3.5</v>
+        <v>3.67</v>
       </c>
       <c r="W53" t="n">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="X53" t="n">
-        <v>2.35</v>
+        <v>2.6</v>
       </c>
       <c r="Y53" t="n">
-        <v>3.3</v>
+        <v>3.22</v>
       </c>
       <c r="Z53" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AA53" t="n">
-        <v>7.75</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AB53" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AC53" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AD53" t="n">
         <v>3</v>
       </c>
       <c r="AE53" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="AF53" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AG53" t="n">
-        <v>8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AH53" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP53" t="n">
         <v>1.5</v>
       </c>
-      <c r="AI53" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AJ53" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="AK53" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AL53" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AM53" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AN53" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AO53" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AP53" t="n">
-        <v>1.64</v>
-      </c>
       <c r="AQ53" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AR53" t="n">
         <v>0.33</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.88</v>
+        <v>1.63</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="AU53" t="n">
-        <v>0.67</v>
+        <v>1.3</v>
       </c>
       <c r="AV53" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AW53" t="n">
-        <v>1.84</v>
+        <v>2.41</v>
       </c>
       <c r="AX53" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AY53" t="n">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="AZ53" t="n">
-        <v>2.81</v>
+        <v>2.86</v>
       </c>
       <c r="BA53" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="BB53" t="n">
-        <v>1.97</v>
+        <v>1.71</v>
       </c>
       <c r="BC53" t="n">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="BD53" t="n">
-        <v>3.95</v>
+        <v>3.1</v>
       </c>
       <c r="BE53" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="BF53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BG53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BH53" t="n">
         <v>3</v>
       </c>
       <c r="BI53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BJ53" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BK53" t="n">
         <v>4</v>
@@ -11721,7 +11721,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>5139134</v>
+        <v>5139140</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -11741,12 +11741,12 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Tigres</t>
+          <t>Valledupar</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Leones</t>
+          <t>Universitario Popayán</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -11759,164 +11759,164 @@
         <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N56" t="n">
         <v>1</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
+          <t>['66']</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P56" t="inlineStr">
-        <is>
-          <t>['56']</t>
-        </is>
-      </c>
       <c r="Q56" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="R56" t="n">
         <v>3</v>
       </c>
       <c r="S56" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="T56" t="n">
-        <v>2.9</v>
+        <v>2.68</v>
       </c>
       <c r="U56" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="V56" t="n">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="W56" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X56" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="AH56" t="n">
         <v>1.52</v>
       </c>
-      <c r="X56" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="Y56" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Z56" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AA56" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB56" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AC56" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AD56" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AE56" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AF56" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AG56" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="AH56" t="n">
-        <v>1.44</v>
-      </c>
       <c r="AI56" t="n">
-        <v>2.61</v>
+        <v>2.42</v>
       </c>
       <c r="AJ56" t="n">
-        <v>2.14</v>
+        <v>2.52</v>
       </c>
       <c r="AK56" t="n">
-        <v>1.58</v>
+        <v>1.48</v>
       </c>
       <c r="AL56" t="n">
-        <v>2.05</v>
+        <v>2.19</v>
       </c>
       <c r="AM56" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AN56" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AO56" t="n">
         <v>1.32</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="AQ56" t="n">
-        <v>2.33</v>
+        <v>1.67</v>
       </c>
       <c r="AR56" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AS56" t="n">
-        <v>1</v>
+        <v>1.88</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.25</v>
+        <v>0.38</v>
       </c>
       <c r="AU56" t="n">
-        <v>1.63</v>
+        <v>0.87</v>
       </c>
       <c r="AV56" t="n">
-        <v>1.47</v>
+        <v>1.07</v>
       </c>
       <c r="AW56" t="n">
-        <v>3.1</v>
+        <v>1.94</v>
       </c>
       <c r="AX56" t="n">
-        <v>1.78</v>
+        <v>1.61</v>
       </c>
       <c r="AY56" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AZ56" t="n">
-        <v>2.48</v>
+        <v>2.91</v>
       </c>
       <c r="BA56" t="n">
-        <v>1.36</v>
+        <v>1.7</v>
       </c>
       <c r="BB56" t="n">
-        <v>1.54</v>
+        <v>2.17</v>
       </c>
       <c r="BC56" t="n">
-        <v>1.98</v>
+        <v>2.9</v>
       </c>
       <c r="BD56" t="n">
-        <v>2.36</v>
+        <v>4.2</v>
       </c>
       <c r="BE56" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="BF56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG56" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BH56" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BI56" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BJ56" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BK56" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
@@ -11924,7 +11924,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>5139137</v>
+        <v>5139134</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -11944,182 +11944,182 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Real Santander</t>
+          <t>Tigres</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Bogotá</t>
+          <t>Leones</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>['37', '82']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['56']</t>
         </is>
       </c>
       <c r="Q57" t="n">
+        <v>8</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>11</v>
+      </c>
+      <c r="T57" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U57" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V57" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="W57" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X57" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT57" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU57" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV57" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW57" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AX57" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AY57" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AZ57" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BA57" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB57" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BC57" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD57" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BE57" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BF57" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG57" t="n">
         <v>5</v>
       </c>
-      <c r="R57" t="n">
-        <v>2</v>
-      </c>
-      <c r="S57" t="n">
-        <v>7</v>
-      </c>
-      <c r="T57" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U57" t="n">
-        <v>2</v>
-      </c>
-      <c r="V57" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="W57" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="X57" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="Y57" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="Z57" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AA57" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AB57" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AC57" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AD57" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AE57" t="n">
-        <v>4</v>
-      </c>
-      <c r="AF57" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AG57" t="n">
-        <v>8.65</v>
-      </c>
-      <c r="AH57" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AI57" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="AJ57" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="AK57" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AL57" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM57" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AN57" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AO57" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AP57" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AQ57" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AR57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS57" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AT57" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="AU57" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AV57" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AW57" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AX57" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AY57" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AZ57" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="BA57" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="BB57" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="BC57" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="BD57" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="BE57" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="BF57" t="n">
-        <v>5</v>
-      </c>
-      <c r="BG57" t="n">
-        <v>0</v>
-      </c>
       <c r="BH57" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BI57" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BJ57" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BK57" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58">
@@ -12127,7 +12127,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>5139140</v>
+        <v>5139137</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -12147,35 +12147,35 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Valledupar</t>
+          <t>Real Santander</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Universitario Popayán</t>
+          <t>Bogotá</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M58" t="n">
         <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>['66']</t>
+          <t>['37', '82']</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
@@ -12184,145 +12184,145 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="R58" t="n">
+        <v>2</v>
+      </c>
+      <c r="S58" t="n">
+        <v>7</v>
+      </c>
+      <c r="T58" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U58" t="n">
+        <v>2</v>
+      </c>
+      <c r="V58" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="W58" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X58" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>8.65</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV58" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AW58" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AX58" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AY58" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ58" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="BA58" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BB58" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BC58" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BD58" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BE58" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BF58" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH58" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI58" t="n">
         <v>3</v>
       </c>
-      <c r="S58" t="n">
-        <v>15</v>
-      </c>
-      <c r="T58" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="U58" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="V58" t="n">
-        <v>5</v>
-      </c>
-      <c r="W58" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="X58" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="Y58" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="Z58" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AA58" t="n">
+      <c r="BJ58" t="n">
         <v>10</v>
       </c>
-      <c r="AB58" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AC58" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AD58" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="AE58" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="AF58" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AG58" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="AH58" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AI58" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="AJ58" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="AK58" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AL58" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="AM58" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AN58" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AO58" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AP58" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AQ58" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AR58" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AS58" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AT58" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AU58" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="AV58" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AW58" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="AX58" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="AY58" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AZ58" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="BA58" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="BB58" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="BC58" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="BD58" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="BE58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF58" t="n">
-        <v>4</v>
-      </c>
-      <c r="BG58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH58" t="n">
-        <v>11</v>
-      </c>
-      <c r="BI58" t="n">
-        <v>2</v>
-      </c>
-      <c r="BJ58" t="n">
-        <v>15</v>
-      </c>
       <c r="BK58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59">
@@ -14360,7 +14360,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>5139144</v>
+        <v>5139145</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -14380,104 +14380,104 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Real Cartagena</t>
+          <t>Real Santander</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Barranquilla</t>
+          <t>Cúcuta Deportivo</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>1</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>['38']</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q69" t="n">
+        <v>1</v>
+      </c>
+      <c r="R69" t="n">
+        <v>2</v>
+      </c>
+      <c r="S69" t="n">
         <v>3</v>
       </c>
-      <c r="N69" t="n">
-        <v>3</v>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P69" t="inlineStr">
-        <is>
-          <t>['22', '25', '90']</t>
-        </is>
-      </c>
-      <c r="Q69" t="n">
-        <v>12</v>
-      </c>
-      <c r="R69" t="n">
-        <v>1</v>
-      </c>
-      <c r="S69" t="n">
-        <v>13</v>
-      </c>
       <c r="T69" t="n">
-        <v>2.06</v>
+        <v>3.22</v>
       </c>
       <c r="U69" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="V69" t="n">
-        <v>5.75</v>
+        <v>3.99</v>
       </c>
       <c r="W69" t="n">
-        <v>1.39</v>
+        <v>1.53</v>
       </c>
       <c r="X69" t="n">
-        <v>2.77</v>
+        <v>2.47</v>
       </c>
       <c r="Y69" t="n">
-        <v>2.81</v>
+        <v>3.42</v>
       </c>
       <c r="Z69" t="n">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="AA69" t="n">
-        <v>6.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AB69" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="AC69" t="n">
-        <v>1.48</v>
+        <v>2.27</v>
       </c>
       <c r="AD69" t="n">
-        <v>3.85</v>
+        <v>2.95</v>
       </c>
       <c r="AE69" t="n">
-        <v>5.3</v>
+        <v>2.94</v>
       </c>
       <c r="AF69" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="AG69" t="n">
-        <v>8.800000000000001</v>
+        <v>6.5</v>
       </c>
       <c r="AH69" t="n">
-        <v>1.28</v>
+        <v>1.43</v>
       </c>
       <c r="AI69" t="n">
-        <v>3.2</v>
+        <v>2.54</v>
       </c>
       <c r="AJ69" t="n">
-        <v>1.98</v>
+        <v>2.48</v>
       </c>
       <c r="AK69" t="n">
-        <v>1.82</v>
+        <v>1.5</v>
       </c>
       <c r="AL69" t="n">
         <v>1.98</v>
@@ -14486,76 +14486,76 @@
         <v>1.7</v>
       </c>
       <c r="AN69" t="n">
-        <v>1.09</v>
+        <v>1.31</v>
       </c>
       <c r="AO69" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AP69" t="n">
-        <v>2.38</v>
+        <v>1.54</v>
       </c>
       <c r="AQ69" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR69" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.63</v>
+        <v>1.75</v>
       </c>
       <c r="AT69" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU69" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV69" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW69" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AX69" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY69" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="AZ69" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BA69" t="n">
         <v>1.5</v>
       </c>
-      <c r="AU69" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AV69" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="AW69" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="AX69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ69" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA69" t="n">
-        <v>0</v>
-      </c>
       <c r="BB69" t="n">
-        <v>1.58</v>
+        <v>1.87</v>
       </c>
       <c r="BC69" t="n">
-        <v>1.93</v>
+        <v>2.51</v>
       </c>
       <c r="BD69" t="n">
-        <v>2.44</v>
+        <v>0</v>
       </c>
       <c r="BE69" t="n">
         <v>0</v>
       </c>
       <c r="BF69" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH69" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI69" t="n">
         <v>8</v>
       </c>
-      <c r="BG69" t="n">
-        <v>5</v>
-      </c>
-      <c r="BH69" t="n">
-        <v>22</v>
-      </c>
-      <c r="BI69" t="n">
-        <v>9</v>
-      </c>
       <c r="BJ69" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="BK69" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70">
@@ -14563,7 +14563,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>5139145</v>
+        <v>5139144</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -14583,104 +14583,104 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Real Santander</t>
+          <t>Real Cartagena</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Cúcuta Deportivo</t>
+          <t>Barranquilla</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M70" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N70" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>['38']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['22', '25', '90']</t>
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="R70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S70" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="T70" t="n">
-        <v>3.22</v>
+        <v>2.06</v>
       </c>
       <c r="U70" t="n">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="V70" t="n">
-        <v>3.99</v>
+        <v>5.75</v>
       </c>
       <c r="W70" t="n">
-        <v>1.53</v>
+        <v>1.39</v>
       </c>
       <c r="X70" t="n">
-        <v>2.47</v>
+        <v>2.77</v>
       </c>
       <c r="Y70" t="n">
-        <v>3.42</v>
+        <v>2.81</v>
       </c>
       <c r="Z70" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AA70" t="n">
-        <v>9.199999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="AB70" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="AC70" t="n">
-        <v>2.27</v>
+        <v>1.48</v>
       </c>
       <c r="AD70" t="n">
-        <v>2.95</v>
+        <v>3.85</v>
       </c>
       <c r="AE70" t="n">
-        <v>2.94</v>
+        <v>5.3</v>
       </c>
       <c r="AF70" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="AG70" t="n">
-        <v>6.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AH70" t="n">
-        <v>1.43</v>
+        <v>1.28</v>
       </c>
       <c r="AI70" t="n">
-        <v>2.54</v>
+        <v>3.2</v>
       </c>
       <c r="AJ70" t="n">
-        <v>2.48</v>
+        <v>1.98</v>
       </c>
       <c r="AK70" t="n">
-        <v>1.5</v>
+        <v>1.82</v>
       </c>
       <c r="AL70" t="n">
         <v>1.98</v>
@@ -14689,76 +14689,76 @@
         <v>1.7</v>
       </c>
       <c r="AN70" t="n">
-        <v>1.31</v>
+        <v>1.09</v>
       </c>
       <c r="AO70" t="n">
-        <v>1.33</v>
+        <v>1.21</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.54</v>
+        <v>2.38</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.75</v>
+        <v>2.33</v>
       </c>
       <c r="AR70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS70" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT70" t="n">
         <v>1.5</v>
       </c>
-      <c r="AS70" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AT70" t="n">
-        <v>1</v>
-      </c>
       <c r="AU70" t="n">
-        <v>1.53</v>
+        <v>1.17</v>
       </c>
       <c r="AV70" t="n">
-        <v>1.32</v>
+        <v>0.77</v>
       </c>
       <c r="AW70" t="n">
-        <v>2.85</v>
+        <v>1.94</v>
       </c>
       <c r="AX70" t="n">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="AY70" t="n">
-        <v>6.35</v>
+        <v>0</v>
       </c>
       <c r="AZ70" t="n">
-        <v>2.29</v>
+        <v>0</v>
       </c>
       <c r="BA70" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="BB70" t="n">
-        <v>1.87</v>
+        <v>1.58</v>
       </c>
       <c r="BC70" t="n">
-        <v>2.51</v>
+        <v>1.93</v>
       </c>
       <c r="BD70" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="BE70" t="n">
         <v>0</v>
       </c>
       <c r="BF70" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BG70" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BH70" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="BI70" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BJ70" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="BK70" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71">
@@ -25322,7 +25322,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="n">
-        <v>5139202</v>
+        <v>5139197</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -25342,182 +25342,182 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Fortaleza CEIF</t>
+          <t>Cortuluá</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Atlético</t>
+          <t>Bogotá</t>
         </is>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="n">
         <v>0</v>
       </c>
       <c r="K123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N123" t="n">
+        <v>0</v>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q123" t="n">
+        <v>5</v>
+      </c>
+      <c r="R123" t="n">
+        <v>4</v>
+      </c>
+      <c r="S123" t="n">
+        <v>9</v>
+      </c>
+      <c r="T123" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="U123" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="V123" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="W123" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X123" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="Y123" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Z123" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA123" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB123" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC123" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AD123" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE123" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AF123" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG123" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH123" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AI123" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ123" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AK123" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL123" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AM123" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN123" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO123" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP123" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AQ123" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR123" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AS123" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AT123" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AU123" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV123" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW123" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AX123" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AY123" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ123" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BA123" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BB123" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BC123" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BD123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF123" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG123" t="n">
         <v>3</v>
       </c>
-      <c r="O123" t="inlineStr">
-        <is>
-          <t>['23', '90']</t>
-        </is>
-      </c>
-      <c r="P123" t="inlineStr">
-        <is>
-          <t>['79']</t>
-        </is>
-      </c>
-      <c r="Q123" t="n">
-        <v>4</v>
-      </c>
-      <c r="R123" t="n">
-        <v>1</v>
-      </c>
-      <c r="S123" t="n">
-        <v>5</v>
-      </c>
-      <c r="T123" t="n">
-        <v>2</v>
-      </c>
-      <c r="U123" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V123" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="W123" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="X123" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="Y123" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="Z123" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AA123" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB123" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AC123" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AD123" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AE123" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AF123" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AG123" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH123" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AI123" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="AJ123" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="AK123" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AL123" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AM123" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AN123" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AO123" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AP123" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AQ123" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="AR123" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AS123" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AT123" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AU123" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="AV123" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AW123" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="AX123" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY123" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ123" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA123" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="BB123" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="BC123" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="BD123" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="BE123" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF123" t="n">
-        <v>3</v>
-      </c>
-      <c r="BG123" t="n">
-        <v>2</v>
-      </c>
       <c r="BH123" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BI123" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BJ123" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BK123" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="124">
@@ -25525,7 +25525,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="n">
-        <v>5139201</v>
+        <v>5139199</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -25545,179 +25545,179 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Cúcuta Deportivo</t>
+          <t>Tigres</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Llaneros</t>
+          <t>Patriotas Boyacá</t>
         </is>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="n">
         <v>1</v>
       </c>
       <c r="K124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N124" t="n">
         <v>2</v>
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>['36']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P124" t="inlineStr">
         <is>
-          <t>['12']</t>
+          <t>['38', '48']</t>
         </is>
       </c>
       <c r="Q124" t="n">
+        <v>2</v>
+      </c>
+      <c r="R124" t="n">
+        <v>2</v>
+      </c>
+      <c r="S124" t="n">
         <v>4</v>
       </c>
-      <c r="R124" t="n">
-        <v>2</v>
-      </c>
-      <c r="S124" t="n">
-        <v>6</v>
-      </c>
       <c r="T124" t="n">
-        <v>2.55</v>
+        <v>3.8</v>
       </c>
       <c r="U124" t="n">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="V124" t="n">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
       <c r="W124" t="n">
-        <v>1.45</v>
+        <v>1.66</v>
       </c>
       <c r="X124" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="Y124" t="n">
-        <v>2.95</v>
+        <v>4.1</v>
       </c>
       <c r="Z124" t="n">
-        <v>1.35</v>
+        <v>1.2</v>
       </c>
       <c r="AA124" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AB124" t="n">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="AC124" t="n">
-        <v>1.87</v>
+        <v>2.9</v>
       </c>
       <c r="AD124" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="AE124" t="n">
-        <v>4.2</v>
+        <v>2.63</v>
       </c>
       <c r="AF124" t="n">
-        <v>1.06</v>
+        <v>1.13</v>
       </c>
       <c r="AG124" t="n">
-        <v>9.5</v>
+        <v>5.25</v>
       </c>
       <c r="AH124" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI124" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ124" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AK124" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AL124" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM124" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN124" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AO124" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AP124" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ124" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR124" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS124" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT124" t="n">
         <v>1.5</v>
       </c>
-      <c r="AI124" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AJ124" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AK124" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AL124" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AM124" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AN124" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AO124" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AP124" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="AQ124" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="AR124" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AS124" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AT124" t="n">
-        <v>1.38</v>
-      </c>
       <c r="AU124" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AV124" t="n">
-        <v>0.97</v>
+        <v>1.26</v>
       </c>
       <c r="AW124" t="n">
-        <v>2.47</v>
+        <v>2.73</v>
       </c>
       <c r="AX124" t="n">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AY124" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AZ124" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="BA124" t="n">
-        <v>1.51</v>
+        <v>1.3</v>
       </c>
       <c r="BB124" t="n">
-        <v>1.85</v>
+        <v>1.68</v>
       </c>
       <c r="BC124" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BD124" t="n">
         <v>2.33</v>
       </c>
-      <c r="BD124" t="n">
-        <v>0</v>
-      </c>
       <c r="BE124" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="BF124" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BG124" t="n">
         <v>5</v>
       </c>
       <c r="BH124" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BI124" t="n">
         <v>2</v>
       </c>
       <c r="BJ124" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BK124" t="n">
         <v>7</v>
@@ -25728,7 +25728,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="n">
-        <v>5139203</v>
+        <v>5139200</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -25748,182 +25748,182 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Real Cartagena</t>
+          <t>Universitario Popayán</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Leones</t>
+          <t>Deportes Quindío</t>
         </is>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K125" t="n">
         <v>2</v>
       </c>
       <c r="L125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M125" t="n">
         <v>2</v>
       </c>
       <c r="N125" t="n">
+        <v>3</v>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>['24']</t>
+        </is>
+      </c>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>['44', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q125" t="n">
+        <v>2</v>
+      </c>
+      <c r="R125" t="n">
+        <v>7</v>
+      </c>
+      <c r="S125" t="n">
+        <v>9</v>
+      </c>
+      <c r="T125" t="n">
         <v>4</v>
       </c>
-      <c r="O125" t="inlineStr">
-        <is>
-          <t>['74', '78']</t>
-        </is>
-      </c>
-      <c r="P125" t="inlineStr">
-        <is>
-          <t>['12', '42']</t>
-        </is>
-      </c>
-      <c r="Q125" t="n">
+      <c r="U125" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V125" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W125" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X125" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y125" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z125" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA125" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AB125" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC125" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="AD125" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AE125" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AF125" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG125" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AH125" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AI125" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ125" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AK125" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL125" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AM125" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN125" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AO125" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP125" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ125" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR125" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AS125" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT125" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AU125" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AV125" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AW125" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AX125" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AY125" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AZ125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA125" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB125" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC125" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD125" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE125" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BF125" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG125" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH125" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI125" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ125" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK125" t="n">
         <v>9</v>
-      </c>
-      <c r="R125" t="n">
-        <v>4</v>
-      </c>
-      <c r="S125" t="n">
-        <v>13</v>
-      </c>
-      <c r="T125" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U125" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="V125" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="W125" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="X125" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="Y125" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="Z125" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AA125" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AB125" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AC125" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AD125" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AE125" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AF125" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AG125" t="n">
-        <v>14.75</v>
-      </c>
-      <c r="AH125" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AI125" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AJ125" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="AK125" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AL125" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="AM125" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN125" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AO125" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AP125" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AQ125" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AR125" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AS125" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AT125" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AU125" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AV125" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="AW125" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AX125" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AY125" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AZ125" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="BA125" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="BB125" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="BC125" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="BD125" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="BE125" t="n">
-        <v>3</v>
-      </c>
-      <c r="BF125" t="n">
-        <v>10</v>
-      </c>
-      <c r="BG125" t="n">
-        <v>8</v>
-      </c>
-      <c r="BH125" t="n">
-        <v>15</v>
-      </c>
-      <c r="BI125" t="n">
-        <v>3</v>
-      </c>
-      <c r="BJ125" t="n">
-        <v>25</v>
-      </c>
-      <c r="BK125" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="126">
@@ -25931,7 +25931,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="n">
-        <v>5139199</v>
+        <v>5139201</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -25951,179 +25951,179 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Tigres</t>
+          <t>Cúcuta Deportivo</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Patriotas Boyacá</t>
+          <t>Llaneros</t>
         </is>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="n">
         <v>1</v>
       </c>
       <c r="K126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N126" t="n">
         <v>2</v>
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['36']</t>
         </is>
       </c>
       <c r="P126" t="inlineStr">
         <is>
-          <t>['38', '48']</t>
+          <t>['12']</t>
         </is>
       </c>
       <c r="Q126" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R126" t="n">
         <v>2</v>
       </c>
       <c r="S126" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T126" t="n">
-        <v>3.8</v>
+        <v>2.55</v>
       </c>
       <c r="U126" t="n">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="V126" t="n">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="W126" t="n">
-        <v>1.66</v>
+        <v>1.45</v>
       </c>
       <c r="X126" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y126" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z126" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA126" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB126" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC126" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AD126" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE126" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF126" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG126" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH126" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI126" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ126" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK126" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL126" t="n">
         <v>2.1</v>
       </c>
-      <c r="Y126" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="Z126" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AA126" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB126" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AC126" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AD126" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AE126" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AF126" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AG126" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="AH126" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AI126" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AJ126" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AK126" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AL126" t="n">
-        <v>2.25</v>
-      </c>
       <c r="AM126" t="n">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="AN126" t="n">
-        <v>1.48</v>
+        <v>1.24</v>
       </c>
       <c r="AO126" t="n">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="AP126" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AQ126" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AR126" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS126" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT126" t="n">
         <v>1.38</v>
       </c>
-      <c r="AQ126" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AR126" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AS126" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT126" t="n">
+      <c r="AU126" t="n">
         <v>1.5</v>
       </c>
-      <c r="AU126" t="n">
-        <v>1.47</v>
-      </c>
       <c r="AV126" t="n">
-        <v>1.26</v>
+        <v>0.97</v>
       </c>
       <c r="AW126" t="n">
-        <v>2.73</v>
+        <v>2.47</v>
       </c>
       <c r="AX126" t="n">
-        <v>2.03</v>
+        <v>0</v>
       </c>
       <c r="AY126" t="n">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AZ126" t="n">
-        <v>1.99</v>
+        <v>0</v>
       </c>
       <c r="BA126" t="n">
-        <v>1.3</v>
+        <v>1.51</v>
       </c>
       <c r="BB126" t="n">
-        <v>1.68</v>
+        <v>1.85</v>
       </c>
       <c r="BC126" t="n">
-        <v>2.11</v>
+        <v>2.33</v>
       </c>
       <c r="BD126" t="n">
-        <v>2.33</v>
+        <v>0</v>
       </c>
       <c r="BE126" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="BF126" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG126" t="n">
         <v>5</v>
       </c>
       <c r="BH126" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BI126" t="n">
         <v>2</v>
       </c>
       <c r="BJ126" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BK126" t="n">
         <v>7</v>
@@ -26134,7 +26134,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="n">
-        <v>5139197</v>
+        <v>5139202</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -26154,182 +26154,182 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Cortuluá</t>
+          <t>Fortaleza CEIF</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Bogotá</t>
+          <t>Atlético</t>
         </is>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="n">
         <v>0</v>
       </c>
       <c r="K127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N127" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['23', '90']</t>
         </is>
       </c>
       <c r="P127" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['79']</t>
         </is>
       </c>
       <c r="Q127" t="n">
+        <v>4</v>
+      </c>
+      <c r="R127" t="n">
+        <v>1</v>
+      </c>
+      <c r="S127" t="n">
         <v>5</v>
       </c>
-      <c r="R127" t="n">
-        <v>4</v>
-      </c>
-      <c r="S127" t="n">
-        <v>9</v>
-      </c>
       <c r="T127" t="n">
-        <v>2.37</v>
+        <v>2</v>
       </c>
       <c r="U127" t="n">
-        <v>1.99</v>
+        <v>2.25</v>
       </c>
       <c r="V127" t="n">
-        <v>5.55</v>
+        <v>6.25</v>
       </c>
       <c r="W127" t="n">
-        <v>1.48</v>
+        <v>1.35</v>
       </c>
       <c r="X127" t="n">
-        <v>2.47</v>
+        <v>2.9</v>
       </c>
       <c r="Y127" t="n">
-        <v>3.28</v>
+        <v>2.65</v>
       </c>
       <c r="Z127" t="n">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="AA127" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="AB127" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC127" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AD127" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE127" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF127" t="n">
         <v>1.05</v>
       </c>
-      <c r="AC127" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AD127" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AE127" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AF127" t="n">
-        <v>1.08</v>
-      </c>
       <c r="AG127" t="n">
-        <v>6.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH127" t="n">
-        <v>1.41</v>
+        <v>1.26</v>
       </c>
       <c r="AI127" t="n">
-        <v>2.7</v>
+        <v>3.53</v>
       </c>
       <c r="AJ127" t="n">
-        <v>2.48</v>
+        <v>2.12</v>
       </c>
       <c r="AK127" t="n">
-        <v>1.5</v>
+        <v>1.68</v>
       </c>
       <c r="AL127" t="n">
-        <v>2.09</v>
+        <v>1.9</v>
       </c>
       <c r="AM127" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="AN127" t="n">
-        <v>1.15</v>
+        <v>1.11</v>
       </c>
       <c r="AO127" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AP127" t="n">
-        <v>1.96</v>
+        <v>2.5</v>
       </c>
       <c r="AQ127" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR127" t="n">
-        <v>0.57</v>
+        <v>0.29</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.88</v>
+        <v>2.25</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.63</v>
+        <v>0.25</v>
       </c>
       <c r="AU127" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="AV127" t="n">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="AW127" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="AX127" t="n">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="AY127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA127" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB127" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC127" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD127" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BE127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF127" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG127" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH127" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI127" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ127" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK127" t="n">
         <v>8</v>
-      </c>
-      <c r="AZ127" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="BA127" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="BB127" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="BC127" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="BD127" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE127" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF127" t="n">
-        <v>5</v>
-      </c>
-      <c r="BG127" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH127" t="n">
-        <v>7</v>
-      </c>
-      <c r="BI127" t="n">
-        <v>8</v>
-      </c>
-      <c r="BJ127" t="n">
-        <v>12</v>
-      </c>
-      <c r="BK127" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="128">
@@ -26337,7 +26337,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="n">
-        <v>5139200</v>
+        <v>5139203</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -26357,182 +26357,182 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Universitario Popayán</t>
+          <t>Real Cartagena</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Deportes Quindío</t>
+          <t>Leones</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K128" t="n">
         <v>2</v>
       </c>
       <c r="L128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M128" t="n">
         <v>2</v>
       </c>
       <c r="N128" t="n">
+        <v>4</v>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>['74', '78']</t>
+        </is>
+      </c>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>['12', '42']</t>
+        </is>
+      </c>
+      <c r="Q128" t="n">
+        <v>9</v>
+      </c>
+      <c r="R128" t="n">
+        <v>4</v>
+      </c>
+      <c r="S128" t="n">
+        <v>13</v>
+      </c>
+      <c r="T128" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U128" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V128" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W128" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X128" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Y128" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z128" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA128" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AB128" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC128" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD128" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE128" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF128" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG128" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="AH128" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI128" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ128" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AK128" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL128" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM128" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN128" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO128" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP128" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ128" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR128" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS128" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT128" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU128" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AV128" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AW128" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AX128" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AY128" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ128" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BA128" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB128" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BC128" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BD128" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BE128" t="n">
         <v>3</v>
       </c>
-      <c r="O128" t="inlineStr">
-        <is>
-          <t>['24']</t>
-        </is>
-      </c>
-      <c r="P128" t="inlineStr">
-        <is>
-          <t>['44', '90+3']</t>
-        </is>
-      </c>
-      <c r="Q128" t="n">
-        <v>2</v>
-      </c>
-      <c r="R128" t="n">
-        <v>7</v>
-      </c>
-      <c r="S128" t="n">
-        <v>9</v>
-      </c>
-      <c r="T128" t="n">
-        <v>4</v>
-      </c>
-      <c r="U128" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V128" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="W128" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="X128" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="Y128" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Z128" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AA128" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="AB128" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AC128" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="AD128" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="AE128" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AF128" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AG128" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="AH128" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AI128" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AJ128" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="AK128" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AL128" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AM128" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AN128" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AO128" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AP128" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AQ128" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AR128" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AS128" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AT128" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AU128" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AV128" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AW128" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="AX128" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AY128" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AZ128" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA128" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="BB128" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="BC128" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="BD128" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="BE128" t="n">
-        <v>2.46</v>
-      </c>
       <c r="BF128" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BG128" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BH128" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="BI128" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BJ128" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="BK128" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="129">
@@ -26720,22 +26720,22 @@
         <v>0</v>
       </c>
       <c r="BF129" t="n">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="BG129" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="BH129" t="n">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="BI129" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BJ129" t="n">
-        <v>19</v>
+        <v>-1</v>
       </c>
       <c r="BK129" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera B_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK129"/>
+  <dimension ref="A1:BK131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>0.63</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>2.25</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AT15" t="n">
         <v>1.25</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT16" t="n">
         <v>0.63</v>
@@ -3804,7 +3804,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>5139094</v>
+        <v>5139093</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -3824,182 +3824,182 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Cortuluá</t>
+          <t>Bogotá</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Deportes Quindío</t>
+          <t>Atlético</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>['16', '32']</t>
+          <t>['45+2']</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>['20']</t>
+          <t>['32']</t>
         </is>
       </c>
       <c r="Q17" t="n">
         <v>5</v>
       </c>
       <c r="R17" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="S17" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="T17" t="n">
-        <v>2.63</v>
+        <v>2.29</v>
       </c>
       <c r="U17" t="n">
-        <v>1.95</v>
+        <v>2.23</v>
       </c>
       <c r="V17" t="n">
-        <v>4.5</v>
+        <v>5.59</v>
       </c>
       <c r="W17" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="X17" t="n">
-        <v>2.77</v>
+        <v>2.85</v>
       </c>
       <c r="Y17" t="n">
-        <v>2.85</v>
+        <v>3.11</v>
       </c>
       <c r="Z17" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="AA17" t="n">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="AB17" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AC17" t="n">
-        <v>1.95</v>
+        <v>1.62</v>
       </c>
       <c r="AD17" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="AE17" t="n">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="AG17" t="n">
-        <v>8.800000000000001</v>
+        <v>10.25</v>
       </c>
       <c r="AH17" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AI17" t="n">
-        <v>3.18</v>
+        <v>3.07</v>
       </c>
       <c r="AJ17" t="n">
-        <v>2.2</v>
+        <v>1.98</v>
       </c>
       <c r="AK17" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AL17" t="n">
-        <v>1.78</v>
+        <v>1.98</v>
       </c>
       <c r="AM17" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="AN17" t="n">
-        <v>1.24</v>
+        <v>1.15</v>
       </c>
       <c r="AO17" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.77</v>
+        <v>2.33</v>
       </c>
       <c r="AQ17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.88</v>
+        <v>1.5</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.13</v>
+        <v>0.25</v>
       </c>
       <c r="AU17" t="n">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="AV17" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AW17" t="n">
-        <v>0.96</v>
+        <v>1.2</v>
       </c>
       <c r="AX17" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AY17" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="AZ17" t="n">
-        <v>2.78</v>
+        <v>3.22</v>
       </c>
       <c r="BA17" t="n">
-        <v>1.65</v>
+        <v>1.51</v>
       </c>
       <c r="BB17" t="n">
-        <v>2.09</v>
+        <v>1.87</v>
       </c>
       <c r="BC17" t="n">
-        <v>3.3</v>
+        <v>2.34</v>
       </c>
       <c r="BD17" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="BE17" t="n">
         <v>0</v>
       </c>
       <c r="BF17" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK17" t="n">
         <v>8</v>
-      </c>
-      <c r="BG17" t="n">
-        <v>8</v>
-      </c>
-      <c r="BH17" t="n">
-        <v>4</v>
-      </c>
-      <c r="BI17" t="n">
-        <v>6</v>
-      </c>
-      <c r="BJ17" t="n">
-        <v>12</v>
-      </c>
-      <c r="BK17" t="n">
-        <v>14</v>
       </c>
     </row>
     <row r="18">
@@ -4007,7 +4007,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>5139093</v>
+        <v>5139094</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -4027,182 +4027,182 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Bogotá</t>
+          <t>Cortuluá</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Atlético</t>
+          <t>Deportes Quindío</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
         <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>['45+2']</t>
+          <t>['16', '32']</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>['32']</t>
+          <t>['20']</t>
         </is>
       </c>
       <c r="Q18" t="n">
         <v>5</v>
       </c>
       <c r="R18" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="S18" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="T18" t="n">
-        <v>2.29</v>
+        <v>2.63</v>
       </c>
       <c r="U18" t="n">
-        <v>2.23</v>
+        <v>1.95</v>
       </c>
       <c r="V18" t="n">
-        <v>5.59</v>
+        <v>4.5</v>
       </c>
       <c r="W18" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="X18" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="Y18" t="n">
         <v>2.85</v>
       </c>
-      <c r="Y18" t="n">
-        <v>3.11</v>
-      </c>
       <c r="Z18" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="AA18" t="n">
-        <v>7.3</v>
+        <v>6.8</v>
       </c>
       <c r="AB18" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AC18" t="n">
-        <v>1.62</v>
+        <v>1.95</v>
       </c>
       <c r="AD18" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="AE18" t="n">
-        <v>4.6</v>
+        <v>3.8</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="AG18" t="n">
-        <v>10.25</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AH18" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AI18" t="n">
-        <v>3.07</v>
+        <v>3.18</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="AK18" t="n">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="AL18" t="n">
-        <v>1.98</v>
+        <v>1.78</v>
       </c>
       <c r="AM18" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AN18" t="n">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="AO18" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="AP18" t="n">
-        <v>2.33</v>
+        <v>1.77</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.5</v>
+        <v>1.88</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.25</v>
+        <v>1.13</v>
       </c>
       <c r="AU18" t="n">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="AV18" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AW18" t="n">
-        <v>1.2</v>
+        <v>0.96</v>
       </c>
       <c r="AX18" t="n">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="AY18" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="AZ18" t="n">
-        <v>3.22</v>
+        <v>2.78</v>
       </c>
       <c r="BA18" t="n">
-        <v>1.51</v>
+        <v>1.65</v>
       </c>
       <c r="BB18" t="n">
-        <v>1.87</v>
+        <v>2.09</v>
       </c>
       <c r="BC18" t="n">
-        <v>2.34</v>
+        <v>3.3</v>
       </c>
       <c r="BD18" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="BE18" t="n">
         <v>0</v>
       </c>
       <c r="BF18" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH18" t="n">
         <v>4</v>
       </c>
-      <c r="BG18" t="n">
-        <v>4</v>
-      </c>
-      <c r="BH18" t="n">
-        <v>5</v>
-      </c>
       <c r="BI18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BJ18" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BK18" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19">
@@ -4354,7 +4354,7 @@
         <v>1.13</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU19" t="n">
         <v>0.75</v>
@@ -4963,7 +4963,7 @@
         <v>1</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU22" t="n">
         <v>1.77</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AT25" t="n">
         <v>0.88</v>
@@ -5631,7 +5631,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>5139107</v>
+        <v>5139104</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -5651,182 +5651,182 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Patriotas Boyacá</t>
+          <t>Llaneros</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Bogotá</t>
+          <t>Orsomarso</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" t="n">
         <v>2</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>['74', '90+1']</t>
+          <t>['44', '90+1']</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['53']</t>
         </is>
       </c>
       <c r="Q26" t="n">
+        <v>7</v>
+      </c>
+      <c r="R26" t="n">
         <v>4</v>
       </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
       <c r="S26" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="T26" t="n">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="U26" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V26" t="n">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="W26" t="n">
         <v>1.45</v>
       </c>
       <c r="X26" t="n">
-        <v>2.56</v>
+        <v>2.48</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.1</v>
+        <v>3.27</v>
       </c>
       <c r="Z26" t="n">
-        <v>1.32</v>
+        <v>1.22</v>
       </c>
       <c r="AA26" t="n">
-        <v>7.3</v>
+        <v>8</v>
       </c>
       <c r="AB26" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AC26" t="n">
-        <v>2.73</v>
+        <v>1.53</v>
       </c>
       <c r="AD26" t="n">
-        <v>3.15</v>
+        <v>3.6</v>
       </c>
       <c r="AE26" t="n">
-        <v>2.34</v>
+        <v>6</v>
       </c>
       <c r="AF26" t="n">
         <v>1.04</v>
       </c>
       <c r="AG26" t="n">
-        <v>7.6</v>
+        <v>8.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AI26" t="n">
-        <v>2.78</v>
+        <v>3</v>
       </c>
       <c r="AJ26" t="n">
-        <v>2.13</v>
+        <v>2.15</v>
       </c>
       <c r="AK26" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="AL26" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="AM26" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="AN26" t="n">
-        <v>1.5</v>
+        <v>1.12</v>
       </c>
       <c r="AO26" t="n">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.36</v>
+        <v>2.4</v>
       </c>
       <c r="AQ26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AR26" t="n">
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="AT26" t="n">
         <v>0.63</v>
       </c>
       <c r="AU26" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="AV26" t="n">
-        <v>1.24</v>
+        <v>0.66</v>
       </c>
       <c r="AW26" t="n">
-        <v>2.64</v>
+        <v>2.56</v>
       </c>
       <c r="AX26" t="n">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="AY26" t="n">
-        <v>7.1</v>
+        <v>8.9</v>
       </c>
       <c r="AZ26" t="n">
-        <v>4.08</v>
+        <v>4.85</v>
       </c>
       <c r="BA26" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="BB26" t="n">
-        <v>1.65</v>
+        <v>1.82</v>
       </c>
       <c r="BC26" t="n">
-        <v>2.05</v>
+        <v>2.28</v>
       </c>
       <c r="BD26" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF26" t="n">
         <v>3</v>
       </c>
-      <c r="BE26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF26" t="n">
-        <v>4</v>
-      </c>
       <c r="BG26" t="n">
         <v>2</v>
       </c>
       <c r="BH26" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BI26" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BJ26" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="BK26" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -5834,7 +5834,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>5139104</v>
+        <v>5139107</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -5854,182 +5854,182 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Llaneros</t>
+          <t>Patriotas Boyacá</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Orsomarso</t>
+          <t>Bogotá</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>2</v>
       </c>
       <c r="M27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>['44', '90+1']</t>
+          <t>['74', '90+1']</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>['53']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
         <v>4</v>
       </c>
-      <c r="S27" t="n">
-        <v>11</v>
-      </c>
       <c r="T27" t="n">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="U27" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V27" t="n">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="W27" t="n">
         <v>1.45</v>
       </c>
       <c r="X27" t="n">
-        <v>2.48</v>
+        <v>2.56</v>
       </c>
       <c r="Y27" t="n">
-        <v>3.27</v>
+        <v>3.1</v>
       </c>
       <c r="Z27" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AA27" t="n">
-        <v>8</v>
+        <v>7.3</v>
       </c>
       <c r="AB27" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AC27" t="n">
-        <v>1.53</v>
+        <v>2.73</v>
       </c>
       <c r="AD27" t="n">
-        <v>3.6</v>
+        <v>3.15</v>
       </c>
       <c r="AE27" t="n">
-        <v>6</v>
+        <v>2.34</v>
       </c>
       <c r="AF27" t="n">
         <v>1.04</v>
       </c>
       <c r="AG27" t="n">
-        <v>8.5</v>
+        <v>7.6</v>
       </c>
       <c r="AH27" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="AI27" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ27" t="n">
         <v>3</v>
       </c>
-      <c r="AJ27" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>0</v>
-      </c>
       <c r="AR27" t="n">
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="AT27" t="n">
         <v>0.63</v>
       </c>
       <c r="AU27" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="AV27" t="n">
-        <v>0.66</v>
+        <v>1.24</v>
       </c>
       <c r="AW27" t="n">
-        <v>2.56</v>
+        <v>2.64</v>
       </c>
       <c r="AX27" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="AY27" t="n">
-        <v>8.9</v>
+        <v>7.1</v>
       </c>
       <c r="AZ27" t="n">
-        <v>4.85</v>
+        <v>4.08</v>
       </c>
       <c r="BA27" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="BB27" t="n">
-        <v>1.82</v>
+        <v>1.65</v>
       </c>
       <c r="BC27" t="n">
-        <v>2.28</v>
+        <v>2.05</v>
       </c>
       <c r="BD27" t="n">
-        <v>2.85</v>
+        <v>3</v>
       </c>
       <c r="BE27" t="n">
         <v>0</v>
       </c>
       <c r="BF27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG27" t="n">
         <v>2</v>
       </c>
       <c r="BH27" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BI27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BJ27" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BK27" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT32" t="n">
         <v>0.88</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AT33" t="n">
         <v>1.5</v>
@@ -7399,7 +7399,7 @@
         <v>1.5</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU34" t="n">
         <v>1.17</v>
@@ -7458,7 +7458,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>5139113</v>
+        <v>5139110</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -7478,119 +7478,119 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Cúcuta Deportivo</t>
+          <t>Cortuluá</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Atlético</t>
+          <t>Real Santander</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>['27', '32']</t>
+          <t>['90+12']</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>['42']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S35" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T35" t="n">
         <v>2.5</v>
       </c>
       <c r="U35" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="V35" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="W35" t="n">
-        <v>1.49</v>
+        <v>1.39</v>
       </c>
       <c r="X35" t="n">
-        <v>2.44</v>
+        <v>2.77</v>
       </c>
       <c r="Y35" t="n">
-        <v>3.32</v>
+        <v>2.85</v>
       </c>
       <c r="Z35" t="n">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="AA35" t="n">
-        <v>8.699999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="AB35" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="AC35" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AD35" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AE35" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AF35" t="n">
         <v>1.05</v>
       </c>
       <c r="AG35" t="n">
-        <v>7.1</v>
+        <v>10.75</v>
       </c>
       <c r="AH35" t="n">
-        <v>1.41</v>
+        <v>1.29</v>
       </c>
       <c r="AI35" t="n">
-        <v>2.6</v>
+        <v>3.45</v>
       </c>
       <c r="AJ35" t="n">
-        <v>1.96</v>
+        <v>2.15</v>
       </c>
       <c r="AK35" t="n">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="AL35" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="AM35" t="n">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="AN35" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="AO35" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="AQ35" t="n">
         <v>3</v>
@@ -7599,40 +7599,40 @@
         <v>0.5</v>
       </c>
       <c r="AS35" t="n">
-        <v>2.5</v>
+        <v>1.88</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="AU35" t="n">
-        <v>1.09</v>
+        <v>1.32</v>
       </c>
       <c r="AV35" t="n">
-        <v>1.14</v>
+        <v>1.05</v>
       </c>
       <c r="AW35" t="n">
-        <v>2.23</v>
+        <v>2.37</v>
       </c>
       <c r="AX35" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="AY35" t="n">
-        <v>7.9</v>
+        <v>0</v>
       </c>
       <c r="AZ35" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="BA35" t="n">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="BB35" t="n">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="BC35" t="n">
-        <v>2.46</v>
+        <v>0</v>
       </c>
       <c r="BD35" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="BE35" t="n">
         <v>0</v>
@@ -7644,16 +7644,16 @@
         <v>5</v>
       </c>
       <c r="BH35" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BI35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BJ35" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="BK35" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36">
@@ -7661,7 +7661,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>5139110</v>
+        <v>5139113</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -7681,119 +7681,119 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Cortuluá</t>
+          <t>Cúcuta Deportivo</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Real Santander</t>
+          <t>Atlético</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>['90+12']</t>
+          <t>['27', '32']</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['42']</t>
         </is>
       </c>
       <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1</v>
+      </c>
+      <c r="S36" t="n">
         <v>5</v>
-      </c>
-      <c r="R36" t="n">
-        <v>2</v>
-      </c>
-      <c r="S36" t="n">
-        <v>7</v>
       </c>
       <c r="T36" t="n">
         <v>2.5</v>
       </c>
       <c r="U36" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="V36" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="W36" t="n">
-        <v>1.39</v>
+        <v>1.49</v>
       </c>
       <c r="X36" t="n">
-        <v>2.77</v>
+        <v>2.44</v>
       </c>
       <c r="Y36" t="n">
-        <v>2.85</v>
+        <v>3.32</v>
       </c>
       <c r="Z36" t="n">
-        <v>1.37</v>
+        <v>1.29</v>
       </c>
       <c r="AA36" t="n">
-        <v>6.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AB36" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="AC36" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AD36" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AE36" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="AF36" t="n">
         <v>1.05</v>
       </c>
       <c r="AG36" t="n">
-        <v>10.75</v>
+        <v>7.1</v>
       </c>
       <c r="AH36" t="n">
-        <v>1.29</v>
+        <v>1.41</v>
       </c>
       <c r="AI36" t="n">
-        <v>3.45</v>
+        <v>2.6</v>
       </c>
       <c r="AJ36" t="n">
-        <v>2.15</v>
+        <v>1.96</v>
       </c>
       <c r="AK36" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AL36" t="n">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="AM36" t="n">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="AN36" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AO36" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="AQ36" t="n">
         <v>3</v>
@@ -7802,40 +7802,40 @@
         <v>0.5</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.88</v>
+        <v>2.5</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="AU36" t="n">
-        <v>1.32</v>
+        <v>1.09</v>
       </c>
       <c r="AV36" t="n">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="AW36" t="n">
-        <v>2.37</v>
+        <v>2.23</v>
       </c>
       <c r="AX36" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AY36" t="n">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="AZ36" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="BA36" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="BB36" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="BC36" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="BD36" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="BE36" t="n">
         <v>0</v>
@@ -7847,16 +7847,16 @@
         <v>5</v>
       </c>
       <c r="BH36" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI36" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ36" t="n">
         <v>12</v>
       </c>
-      <c r="BI36" t="n">
-        <v>4</v>
-      </c>
-      <c r="BJ36" t="n">
-        <v>18</v>
-      </c>
       <c r="BK36" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37">
@@ -8211,7 +8211,7 @@
         <v>1.88</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU38" t="n">
         <v>0.32</v>
@@ -8473,7 +8473,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>5139120</v>
+        <v>5139121</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -8493,182 +8493,182 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Real Santander</t>
+          <t>Llaneros</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Deportes Quindío</t>
+          <t>Bogotá</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
+          <t>['44', '89']</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>['58']</t>
-        </is>
-      </c>
       <c r="Q40" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="U40" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V40" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X40" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA40" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BE40" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BF40" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG40" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH40" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI40" t="n">
         <v>5</v>
-      </c>
-      <c r="S40" t="n">
-        <v>15</v>
-      </c>
-      <c r="T40" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="U40" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="V40" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="W40" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="X40" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>6.65</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AO40" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AP40" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AQ40" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR40" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AS40" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AT40" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AU40" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AV40" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AW40" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AX40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ40" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA40" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="BB40" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="BC40" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="BD40" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="BE40" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="BF40" t="n">
-        <v>2</v>
-      </c>
-      <c r="BG40" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH40" t="n">
-        <v>8</v>
-      </c>
-      <c r="BI40" t="n">
-        <v>6</v>
       </c>
       <c r="BJ40" t="n">
         <v>10</v>
       </c>
       <c r="BK40" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41">
@@ -8676,7 +8676,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>5139121</v>
+        <v>5139120</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -8696,182 +8696,182 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Llaneros</t>
+          <t>Real Santander</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Bogotá</t>
+          <t>Deportes Quindío</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>['44', '89']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['58']</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S41" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="T41" t="n">
-        <v>2.31</v>
+        <v>3.58</v>
       </c>
       <c r="U41" t="n">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="V41" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X41" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AX41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA41" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BE41" t="n">
         <v>5.3</v>
       </c>
-      <c r="W41" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="X41" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AO41" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AP41" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AQ41" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AR41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS41" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AT41" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="AU41" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AV41" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AW41" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AX41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA41" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="BB41" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="BC41" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="BD41" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="BE41" t="n">
-        <v>5.1</v>
-      </c>
       <c r="BF41" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG41" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH41" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI41" t="n">
         <v>6</v>
-      </c>
-      <c r="BG41" t="n">
-        <v>4</v>
-      </c>
-      <c r="BH41" t="n">
-        <v>4</v>
-      </c>
-      <c r="BI41" t="n">
-        <v>5</v>
       </c>
       <c r="BJ41" t="n">
         <v>10</v>
       </c>
       <c r="BK41" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42">
@@ -9223,7 +9223,7 @@
         <v>2</v>
       </c>
       <c r="AS43" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT43" t="n">
         <v>1</v>
@@ -9429,7 +9429,7 @@
         <v>1</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU44" t="n">
         <v>1</v>
@@ -10706,7 +10706,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>5139129</v>
+        <v>5139130</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -10726,182 +10726,182 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Leones</t>
+          <t>Llaneros</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Fortaleza CEIF</t>
+          <t>Tigres</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>['13', '30']</t>
+          <t>['45+3']</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>['27', '35']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S51" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="T51" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="U51" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V51" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="W51" t="n">
-        <v>1.48</v>
+        <v>1.56</v>
       </c>
       <c r="X51" t="n">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="Y51" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="Z51" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AA51" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AB51" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AC51" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI51" t="n">
         <v>2.45</v>
       </c>
-      <c r="AD51" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AE51" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="AF51" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AG51" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AH51" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AI51" t="n">
-        <v>2.85</v>
-      </c>
       <c r="AJ51" t="n">
-        <v>2.11</v>
+        <v>2.35</v>
       </c>
       <c r="AK51" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AL51" t="n">
-        <v>1.83</v>
+        <v>2.35</v>
       </c>
       <c r="AM51" t="n">
-        <v>1.87</v>
+        <v>1.57</v>
       </c>
       <c r="AN51" t="n">
-        <v>1.36</v>
+        <v>1.19</v>
       </c>
       <c r="AO51" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.44</v>
+        <v>1.98</v>
       </c>
       <c r="AQ51" t="n">
-        <v>0.67</v>
+        <v>2</v>
       </c>
       <c r="AR51" t="n">
         <v>0</v>
       </c>
       <c r="AS51" t="n">
-        <v>1</v>
+        <v>2.63</v>
       </c>
       <c r="AT51" t="n">
         <v>0.88</v>
       </c>
       <c r="AU51" t="n">
-        <v>1.29</v>
+        <v>1.6</v>
       </c>
       <c r="AV51" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="AW51" t="n">
-        <v>2.54</v>
+        <v>2.61</v>
       </c>
       <c r="AX51" t="n">
-        <v>1.94</v>
+        <v>1.4</v>
       </c>
       <c r="AY51" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="AZ51" t="n">
-        <v>2.16</v>
+        <v>3.6</v>
       </c>
       <c r="BA51" t="n">
-        <v>1.32</v>
+        <v>1.47</v>
       </c>
       <c r="BB51" t="n">
-        <v>1.59</v>
+        <v>1.81</v>
       </c>
       <c r="BC51" t="n">
-        <v>1.96</v>
+        <v>2.25</v>
       </c>
       <c r="BD51" t="n">
-        <v>2.47</v>
+        <v>3.5</v>
       </c>
       <c r="BE51" t="n">
-        <v>3.8</v>
+        <v>5.1</v>
       </c>
       <c r="BF51" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG51" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH51" t="n">
         <v>5</v>
       </c>
-      <c r="BG51" t="n">
-        <v>9</v>
-      </c>
-      <c r="BH51" t="n">
-        <v>3</v>
-      </c>
       <c r="BI51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BJ51" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK51" t="n">
         <v>8</v>
-      </c>
-      <c r="BK51" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="52">
@@ -10909,7 +10909,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>5139130</v>
+        <v>5139129</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -10929,182 +10929,182 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Llaneros</t>
+          <t>Leones</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Tigres</t>
+          <t>Fortaleza CEIF</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K52" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N52" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>['45+3']</t>
+          <t>['13', '30']</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['27', '35']</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S52" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="T52" t="n">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="U52" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V52" t="n">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="W52" t="n">
-        <v>1.56</v>
+        <v>1.48</v>
       </c>
       <c r="X52" t="n">
-        <v>2.41</v>
+        <v>2.5</v>
       </c>
       <c r="Y52" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Z52" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AA52" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AB52" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AF52" t="n">
         <v>1.04</v>
       </c>
-      <c r="AC52" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AD52" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AE52" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF52" t="n">
-        <v>1.07</v>
-      </c>
       <c r="AG52" t="n">
-        <v>6.5</v>
+        <v>7.8</v>
       </c>
       <c r="AH52" t="n">
-        <v>1.5</v>
+        <v>1.37</v>
       </c>
       <c r="AI52" t="n">
-        <v>2.45</v>
+        <v>2.85</v>
       </c>
       <c r="AJ52" t="n">
-        <v>2.35</v>
+        <v>2.11</v>
       </c>
       <c r="AK52" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AL52" t="n">
-        <v>2.35</v>
+        <v>1.83</v>
       </c>
       <c r="AM52" t="n">
-        <v>1.57</v>
+        <v>1.87</v>
       </c>
       <c r="AN52" t="n">
-        <v>1.19</v>
+        <v>1.36</v>
       </c>
       <c r="AO52" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.98</v>
+        <v>1.44</v>
       </c>
       <c r="AQ52" t="n">
-        <v>2</v>
+        <v>0.67</v>
       </c>
       <c r="AR52" t="n">
         <v>0</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.63</v>
+        <v>1</v>
       </c>
       <c r="AT52" t="n">
         <v>0.88</v>
       </c>
       <c r="AU52" t="n">
-        <v>1.6</v>
+        <v>1.29</v>
       </c>
       <c r="AV52" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="AW52" t="n">
-        <v>2.61</v>
+        <v>2.54</v>
       </c>
       <c r="AX52" t="n">
-        <v>1.4</v>
+        <v>1.94</v>
       </c>
       <c r="AY52" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AZ52" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BA52" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB52" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BC52" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BD52" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BE52" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BF52" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG52" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH52" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI52" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ52" t="n">
         <v>8</v>
       </c>
-      <c r="AZ52" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="BA52" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="BB52" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="BC52" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="BD52" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="BE52" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="BF52" t="n">
-        <v>2</v>
-      </c>
-      <c r="BG52" t="n">
-        <v>4</v>
-      </c>
-      <c r="BH52" t="n">
-        <v>5</v>
-      </c>
-      <c r="BI52" t="n">
-        <v>4</v>
-      </c>
-      <c r="BJ52" t="n">
-        <v>7</v>
-      </c>
       <c r="BK52" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53">
@@ -11659,7 +11659,7 @@
         <v>0.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AT55" t="n">
         <v>1.5</v>
@@ -11924,7 +11924,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>5139134</v>
+        <v>5139137</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -11944,182 +11944,182 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Tigres</t>
+          <t>Real Santander</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Leones</t>
+          <t>Bogotá</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
+          <t>['37', '82']</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="P57" t="inlineStr">
-        <is>
-          <t>['56']</t>
-        </is>
-      </c>
       <c r="Q57" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="R57" t="n">
+        <v>2</v>
+      </c>
+      <c r="S57" t="n">
+        <v>7</v>
+      </c>
+      <c r="T57" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U57" t="n">
+        <v>2</v>
+      </c>
+      <c r="V57" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="W57" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X57" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>8.65</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT57" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AU57" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV57" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AW57" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AX57" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AY57" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ57" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="BA57" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BB57" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BC57" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BD57" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BE57" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BF57" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH57" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI57" t="n">
         <v>3</v>
       </c>
-      <c r="S57" t="n">
-        <v>11</v>
-      </c>
-      <c r="T57" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="U57" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="V57" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="W57" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="X57" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="Y57" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Z57" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AA57" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB57" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AC57" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AD57" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AE57" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AF57" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AG57" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="AH57" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AI57" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="AJ57" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="AK57" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="AL57" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AM57" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AN57" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AO57" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AP57" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AQ57" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AR57" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS57" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT57" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AU57" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AV57" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AW57" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AX57" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AY57" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AZ57" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="BA57" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="BB57" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="BC57" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="BD57" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="BE57" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="BF57" t="n">
+      <c r="BJ57" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK57" t="n">
         <v>3</v>
-      </c>
-      <c r="BG57" t="n">
-        <v>5</v>
-      </c>
-      <c r="BH57" t="n">
-        <v>8</v>
-      </c>
-      <c r="BI57" t="n">
-        <v>8</v>
-      </c>
-      <c r="BJ57" t="n">
-        <v>11</v>
-      </c>
-      <c r="BK57" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="58">
@@ -12127,7 +12127,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>5139137</v>
+        <v>5139134</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -12147,182 +12147,182 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Real Santander</t>
+          <t>Tigres</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Bogotá</t>
+          <t>Leones</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>['37', '82']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['56']</t>
         </is>
       </c>
       <c r="Q58" t="n">
+        <v>8</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>11</v>
+      </c>
+      <c r="T58" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U58" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V58" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="W58" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X58" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV58" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW58" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AX58" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AY58" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AZ58" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BA58" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB58" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BC58" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD58" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BE58" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BF58" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG58" t="n">
         <v>5</v>
       </c>
-      <c r="R58" t="n">
-        <v>2</v>
-      </c>
-      <c r="S58" t="n">
-        <v>7</v>
-      </c>
-      <c r="T58" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U58" t="n">
-        <v>2</v>
-      </c>
-      <c r="V58" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="W58" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="X58" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="Y58" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="Z58" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AA58" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AB58" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AC58" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="AD58" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AE58" t="n">
-        <v>4</v>
-      </c>
-      <c r="AF58" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AG58" t="n">
-        <v>8.65</v>
-      </c>
-      <c r="AH58" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AI58" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="AJ58" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="AK58" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AL58" t="n">
-        <v>2</v>
-      </c>
-      <c r="AM58" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AN58" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AO58" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AP58" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AQ58" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AR58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS58" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AT58" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="AU58" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AV58" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="AW58" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AX58" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="AY58" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AZ58" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="BA58" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="BB58" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="BC58" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="BD58" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="BE58" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="BF58" t="n">
-        <v>5</v>
-      </c>
-      <c r="BG58" t="n">
-        <v>0</v>
-      </c>
       <c r="BH58" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BI58" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BJ58" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BK58" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59">
@@ -12474,7 +12474,7 @@
         <v>1.5</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU59" t="n">
         <v>1.12</v>
@@ -12674,10 +12674,10 @@
         <v>1.33</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU60" t="n">
         <v>1.49</v>
@@ -13892,7 +13892,7 @@
         <v>0.25</v>
       </c>
       <c r="AS66" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AT66" t="n">
         <v>0.63</v>
@@ -14301,7 +14301,7 @@
         <v>1.88</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU68" t="n">
         <v>1.76</v>
@@ -14360,7 +14360,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>5139145</v>
+        <v>5139144</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -14380,104 +14380,104 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Real Santander</t>
+          <t>Real Cartagena</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Cúcuta Deportivo</t>
+          <t>Barranquilla</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M69" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>['38']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['22', '25', '90']</t>
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="R69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S69" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="T69" t="n">
-        <v>3.22</v>
+        <v>2.06</v>
       </c>
       <c r="U69" t="n">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="V69" t="n">
-        <v>3.99</v>
+        <v>5.75</v>
       </c>
       <c r="W69" t="n">
-        <v>1.53</v>
+        <v>1.39</v>
       </c>
       <c r="X69" t="n">
-        <v>2.47</v>
+        <v>2.77</v>
       </c>
       <c r="Y69" t="n">
-        <v>3.42</v>
+        <v>2.81</v>
       </c>
       <c r="Z69" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AA69" t="n">
-        <v>9.199999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="AB69" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="AC69" t="n">
-        <v>2.27</v>
+        <v>1.48</v>
       </c>
       <c r="AD69" t="n">
-        <v>2.95</v>
+        <v>3.85</v>
       </c>
       <c r="AE69" t="n">
-        <v>2.94</v>
+        <v>5.3</v>
       </c>
       <c r="AF69" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="AG69" t="n">
-        <v>6.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AH69" t="n">
-        <v>1.43</v>
+        <v>1.28</v>
       </c>
       <c r="AI69" t="n">
-        <v>2.54</v>
+        <v>3.2</v>
       </c>
       <c r="AJ69" t="n">
-        <v>2.48</v>
+        <v>1.98</v>
       </c>
       <c r="AK69" t="n">
-        <v>1.5</v>
+        <v>1.82</v>
       </c>
       <c r="AL69" t="n">
         <v>1.98</v>
@@ -14486,76 +14486,76 @@
         <v>1.7</v>
       </c>
       <c r="AN69" t="n">
-        <v>1.31</v>
+        <v>1.09</v>
       </c>
       <c r="AO69" t="n">
-        <v>1.33</v>
+        <v>1.21</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.54</v>
+        <v>2.38</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1.75</v>
+        <v>2.33</v>
       </c>
       <c r="AR69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS69" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT69" t="n">
         <v>1.5</v>
       </c>
-      <c r="AS69" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AT69" t="n">
-        <v>1</v>
-      </c>
       <c r="AU69" t="n">
-        <v>1.53</v>
+        <v>1.17</v>
       </c>
       <c r="AV69" t="n">
-        <v>1.32</v>
+        <v>0.77</v>
       </c>
       <c r="AW69" t="n">
-        <v>2.85</v>
+        <v>1.94</v>
       </c>
       <c r="AX69" t="n">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="AY69" t="n">
-        <v>6.35</v>
+        <v>0</v>
       </c>
       <c r="AZ69" t="n">
-        <v>2.29</v>
+        <v>0</v>
       </c>
       <c r="BA69" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="BB69" t="n">
-        <v>1.87</v>
+        <v>1.58</v>
       </c>
       <c r="BC69" t="n">
-        <v>2.51</v>
+        <v>1.93</v>
       </c>
       <c r="BD69" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="BE69" t="n">
         <v>0</v>
       </c>
       <c r="BF69" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BG69" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BH69" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="BI69" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BJ69" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="BK69" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70">
@@ -14563,7 +14563,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>5139144</v>
+        <v>5139145</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -14583,104 +14583,104 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Real Cartagena</t>
+          <t>Real Santander</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Barranquilla</t>
+          <t>Cúcuta Deportivo</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>1</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>['38']</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R70" t="n">
+        <v>2</v>
+      </c>
+      <c r="S70" t="n">
         <v>3</v>
       </c>
-      <c r="N70" t="n">
-        <v>3</v>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="P70" t="inlineStr">
-        <is>
-          <t>['22', '25', '90']</t>
-        </is>
-      </c>
-      <c r="Q70" t="n">
-        <v>12</v>
-      </c>
-      <c r="R70" t="n">
-        <v>1</v>
-      </c>
-      <c r="S70" t="n">
-        <v>13</v>
-      </c>
       <c r="T70" t="n">
-        <v>2.06</v>
+        <v>3.22</v>
       </c>
       <c r="U70" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="V70" t="n">
-        <v>5.75</v>
+        <v>3.99</v>
       </c>
       <c r="W70" t="n">
-        <v>1.39</v>
+        <v>1.53</v>
       </c>
       <c r="X70" t="n">
-        <v>2.77</v>
+        <v>2.47</v>
       </c>
       <c r="Y70" t="n">
-        <v>2.81</v>
+        <v>3.42</v>
       </c>
       <c r="Z70" t="n">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="AA70" t="n">
-        <v>6.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AB70" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="AC70" t="n">
-        <v>1.48</v>
+        <v>2.27</v>
       </c>
       <c r="AD70" t="n">
-        <v>3.85</v>
+        <v>2.95</v>
       </c>
       <c r="AE70" t="n">
-        <v>5.3</v>
+        <v>2.94</v>
       </c>
       <c r="AF70" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="AG70" t="n">
-        <v>8.800000000000001</v>
+        <v>6.5</v>
       </c>
       <c r="AH70" t="n">
-        <v>1.28</v>
+        <v>1.43</v>
       </c>
       <c r="AI70" t="n">
-        <v>3.2</v>
+        <v>2.54</v>
       </c>
       <c r="AJ70" t="n">
-        <v>1.98</v>
+        <v>2.48</v>
       </c>
       <c r="AK70" t="n">
-        <v>1.82</v>
+        <v>1.5</v>
       </c>
       <c r="AL70" t="n">
         <v>1.98</v>
@@ -14689,76 +14689,76 @@
         <v>1.7</v>
       </c>
       <c r="AN70" t="n">
-        <v>1.09</v>
+        <v>1.31</v>
       </c>
       <c r="AO70" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AP70" t="n">
-        <v>2.38</v>
+        <v>1.54</v>
       </c>
       <c r="AQ70" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR70" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.63</v>
+        <v>1.75</v>
       </c>
       <c r="AT70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU70" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV70" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW70" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AX70" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY70" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="AZ70" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BA70" t="n">
         <v>1.5</v>
       </c>
-      <c r="AU70" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AV70" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="AW70" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="AX70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ70" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA70" t="n">
-        <v>0</v>
-      </c>
       <c r="BB70" t="n">
-        <v>1.58</v>
+        <v>1.87</v>
       </c>
       <c r="BC70" t="n">
-        <v>1.93</v>
+        <v>2.51</v>
       </c>
       <c r="BD70" t="n">
-        <v>2.44</v>
+        <v>0</v>
       </c>
       <c r="BE70" t="n">
         <v>0</v>
       </c>
       <c r="BF70" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG70" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH70" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI70" t="n">
         <v>8</v>
       </c>
-      <c r="BG70" t="n">
-        <v>5</v>
-      </c>
-      <c r="BH70" t="n">
-        <v>22</v>
-      </c>
-      <c r="BI70" t="n">
-        <v>9</v>
-      </c>
       <c r="BJ70" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="BK70" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71">
@@ -15316,7 +15316,7 @@
         <v>1</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU73" t="n">
         <v>1.68</v>
@@ -16125,7 +16125,7 @@
         <v>0.75</v>
       </c>
       <c r="AS77" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT77" t="n">
         <v>1.5</v>
@@ -18158,7 +18158,7 @@
         <v>0.63</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU87" t="n">
         <v>1.27</v>
@@ -18358,7 +18358,7 @@
         <v>0.4</v>
       </c>
       <c r="AS88" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AT88" t="n">
         <v>0.25</v>
@@ -20594,7 +20594,7 @@
         <v>1.75</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU99" t="n">
         <v>1.73</v>
@@ -21200,10 +21200,10 @@
         <v>2.17</v>
       </c>
       <c r="AS102" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU102" t="n">
         <v>1.64</v>
@@ -21606,7 +21606,7 @@
         <v>1</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT104" t="n">
         <v>0.75</v>
@@ -22012,7 +22012,7 @@
         <v>1.33</v>
       </c>
       <c r="AS106" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT106" t="n">
         <v>1.5</v>
@@ -23636,7 +23636,7 @@
         <v>1</v>
       </c>
       <c r="AS114" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AT114" t="n">
         <v>0.88</v>
@@ -24451,7 +24451,7 @@
         <v>2.63</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU118" t="n">
         <v>1.47</v>
@@ -26075,7 +26075,7 @@
         <v>2.5</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU126" t="n">
         <v>1.5</v>
@@ -26275,7 +26275,7 @@
         <v>0.29</v>
       </c>
       <c r="AS127" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT127" t="n">
         <v>0.25</v>
@@ -26736,6 +26736,412 @@
       </c>
       <c r="BK129" t="n">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="n">
+        <v>6151252</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera B</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>45065.83333333334</v>
+      </c>
+      <c r="F130" t="n">
+        <v>17</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Deportes Quindío</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Llaneros</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="n">
+        <v>1</v>
+      </c>
+      <c r="K130" t="n">
+        <v>2</v>
+      </c>
+      <c r="L130" t="n">
+        <v>2</v>
+      </c>
+      <c r="M130" t="n">
+        <v>2</v>
+      </c>
+      <c r="N130" t="n">
+        <v>4</v>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>['21', '59']</t>
+        </is>
+      </c>
+      <c r="P130" t="inlineStr">
+        <is>
+          <t>['8', '53']</t>
+        </is>
+      </c>
+      <c r="Q130" t="n">
+        <v>5</v>
+      </c>
+      <c r="R130" t="n">
+        <v>2</v>
+      </c>
+      <c r="S130" t="n">
+        <v>7</v>
+      </c>
+      <c r="T130" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="U130" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V130" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="W130" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X130" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="Y130" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="Z130" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA130" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AB130" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC130" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AD130" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE130" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AF130" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG130" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AH130" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI130" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AJ130" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AK130" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AL130" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM130" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN130" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO130" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AP130" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ130" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AR130" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS130" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AT130" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU130" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV130" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AW130" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AX130" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AY130" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AZ130" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BA130" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB130" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC130" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BD130" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BE130" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BF130" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG130" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH130" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI130" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ130" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK130" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="n">
+        <v>6151251</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera B</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>45065.92013888889</v>
+      </c>
+      <c r="F131" t="n">
+        <v>17</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Fortaleza CEIF</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Real Cartagena</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>2</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="n">
+        <v>2</v>
+      </c>
+      <c r="L131" t="n">
+        <v>4</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0</v>
+      </c>
+      <c r="N131" t="n">
+        <v>4</v>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>['2', '45+2', '59', '63']</t>
+        </is>
+      </c>
+      <c r="P131" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q131" t="n">
+        <v>3</v>
+      </c>
+      <c r="R131" t="n">
+        <v>3</v>
+      </c>
+      <c r="S131" t="n">
+        <v>6</v>
+      </c>
+      <c r="T131" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U131" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V131" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="W131" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X131" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y131" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Z131" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA131" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB131" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC131" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AD131" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AE131" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="AF131" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG131" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH131" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI131" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ131" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AK131" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AL131" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM131" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN131" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO131" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP131" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ131" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR131" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS131" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT131" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AU131" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV131" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AW131" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AX131" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AY131" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ131" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA131" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB131" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC131" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BD131" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BE131" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF131" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG131" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH131" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI131" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ131" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK131" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera B_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK131"/>
+  <dimension ref="A1:BK133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT4" t="n">
         <v>0.75</v>
@@ -2121,7 +2121,7 @@
         <v>1.63</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT10" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT18" t="n">
         <v>1.13</v>
@@ -6790,7 +6790,7 @@
         <v>0.63</v>
       </c>
       <c r="AT31" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU31" t="n">
         <v>1.7</v>
@@ -7599,7 +7599,7 @@
         <v>0.5</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT35" t="n">
         <v>0.75</v>
@@ -8208,7 +8208,7 @@
         <v>1.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT38" t="n">
         <v>1.33</v>
@@ -8414,7 +8414,7 @@
         <v>1</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU39" t="n">
         <v>1.25</v>
@@ -9226,7 +9226,7 @@
         <v>2.33</v>
       </c>
       <c r="AT43" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU43" t="n">
         <v>1.34</v>
@@ -10441,10 +10441,10 @@
         <v>1.67</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT49" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU49" t="n">
         <v>1.57</v>
@@ -10644,7 +10644,7 @@
         <v>0.33</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT50" t="n">
         <v>0.25</v>
@@ -11662,7 +11662,7 @@
         <v>2.22</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU55" t="n">
         <v>1.73</v>
@@ -11862,7 +11862,7 @@
         <v>0.67</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT56" t="n">
         <v>0.38</v>
@@ -12880,7 +12880,7 @@
         <v>0.63</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU61" t="n">
         <v>1.62</v>
@@ -14298,7 +14298,7 @@
         <v>1.25</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT68" t="n">
         <v>1.33</v>
@@ -14707,7 +14707,7 @@
         <v>1.75</v>
       </c>
       <c r="AT70" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU70" t="n">
         <v>1.53</v>
@@ -15922,7 +15922,7 @@
         <v>1.25</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT76" t="n">
         <v>1.13</v>
@@ -16737,7 +16737,7 @@
         <v>1</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU80" t="n">
         <v>1.51</v>
@@ -17346,7 +17346,7 @@
         <v>1.63</v>
       </c>
       <c r="AT83" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU83" t="n">
         <v>1.61</v>
@@ -17546,7 +17546,7 @@
         <v>0.25</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT84" t="n">
         <v>0.88</v>
@@ -19173,7 +19173,7 @@
         <v>1.5</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU92" t="n">
         <v>1.33</v>
@@ -19576,7 +19576,7 @@
         <v>0</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT94" t="n">
         <v>0.63</v>
@@ -21403,7 +21403,7 @@
         <v>0.33</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT103" t="n">
         <v>0.38</v>
@@ -21812,7 +21812,7 @@
         <v>2.25</v>
       </c>
       <c r="AT105" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU105" t="n">
         <v>1.44</v>
@@ -22015,7 +22015,7 @@
         <v>2.33</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU106" t="n">
         <v>1.6</v>
@@ -22215,7 +22215,7 @@
         <v>1.5</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT107" t="n">
         <v>1.25</v>
@@ -23842,7 +23842,7 @@
         <v>1</v>
       </c>
       <c r="AT115" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU115" t="n">
         <v>1.68</v>
@@ -25057,7 +25057,7 @@
         <v>0.71</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT121" t="n">
         <v>0.63</v>
@@ -25463,7 +25463,7 @@
         <v>0.57</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT123" t="n">
         <v>0.63</v>
@@ -25669,7 +25669,7 @@
         <v>1</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU124" t="n">
         <v>1.47</v>
@@ -27142,6 +27142,412 @@
       </c>
       <c r="BK131" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="n">
+        <v>6151253</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera B</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>45067.70833333334</v>
+      </c>
+      <c r="F132" t="n">
+        <v>17</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Cortuluá</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Cúcuta Deportivo</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="n">
+        <v>2</v>
+      </c>
+      <c r="K132" t="n">
+        <v>3</v>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="n">
+        <v>3</v>
+      </c>
+      <c r="N132" t="n">
+        <v>4</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>['27']</t>
+        </is>
+      </c>
+      <c r="P132" t="inlineStr">
+        <is>
+          <t>['3', '31', '76']</t>
+        </is>
+      </c>
+      <c r="Q132" t="n">
+        <v>7</v>
+      </c>
+      <c r="R132" t="n">
+        <v>1</v>
+      </c>
+      <c r="S132" t="n">
+        <v>8</v>
+      </c>
+      <c r="T132" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U132" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V132" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W132" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X132" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Y132" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z132" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA132" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB132" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC132" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD132" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AE132" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF132" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG132" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="AH132" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AI132" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AJ132" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AK132" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL132" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM132" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN132" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO132" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP132" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ132" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AR132" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS132" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT132" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AU132" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV132" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW132" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX132" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY132" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AZ132" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA132" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BB132" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC132" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BD132" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BE132" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF132" t="n">
+        <v>12</v>
+      </c>
+      <c r="BG132" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH132" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI132" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ132" t="n">
+        <v>24</v>
+      </c>
+      <c r="BK132" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="n">
+        <v>6151254</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera B</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>45067.72916666666</v>
+      </c>
+      <c r="F133" t="n">
+        <v>17</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Valledupar</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Patriotas Boyacá</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="n">
+        <v>1</v>
+      </c>
+      <c r="K133" t="n">
+        <v>2</v>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="n">
+        <v>2</v>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>['45+2']</t>
+        </is>
+      </c>
+      <c r="P133" t="inlineStr">
+        <is>
+          <t>['27']</t>
+        </is>
+      </c>
+      <c r="Q133" t="n">
+        <v>6</v>
+      </c>
+      <c r="R133" t="n">
+        <v>2</v>
+      </c>
+      <c r="S133" t="n">
+        <v>8</v>
+      </c>
+      <c r="T133" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="U133" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V133" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W133" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X133" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Y133" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z133" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA133" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB133" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC133" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AD133" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE133" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AF133" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG133" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AH133" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI133" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ133" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AK133" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL133" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM133" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN133" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AO133" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP133" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ133" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AR133" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS133" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AT133" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AU133" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV133" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW133" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AX133" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AY133" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ133" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BA133" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BB133" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BC133" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BD133" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BE133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF133" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG133" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH133" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI133" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ133" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK133" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera B_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK133"/>
+  <dimension ref="A1:BK135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT8" t="n">
         <v>1.44</v>
@@ -2324,7 +2324,7 @@
         <v>1.75</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT14" t="n">
         <v>1.5</v>
@@ -4151,7 +4151,7 @@
         <v>1.67</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU18" t="n">
         <v>0.96</v>
@@ -5166,7 +5166,7 @@
         <v>1.5</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU23" t="n">
         <v>1.34</v>
@@ -5572,7 +5572,7 @@
         <v>2.22</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU25" t="n">
         <v>2.14</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT26" t="n">
         <v>0.63</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT29" t="n">
         <v>0.75</v>
@@ -8614,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT40" t="n">
         <v>0.63</v>
@@ -8820,7 +8820,7 @@
         <v>1.75</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU41" t="n">
         <v>1.75</v>
@@ -10847,7 +10847,7 @@
         <v>0</v>
       </c>
       <c r="AS51" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT51" t="n">
         <v>0.88</v>
@@ -11053,7 +11053,7 @@
         <v>1</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU52" t="n">
         <v>1.29</v>
@@ -11253,7 +11253,7 @@
         <v>0.33</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT53" t="n">
         <v>0.75</v>
@@ -13083,7 +13083,7 @@
         <v>2.5</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU62" t="n">
         <v>1.26</v>
@@ -13692,7 +13692,7 @@
         <v>2.25</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU65" t="n">
         <v>1.45</v>
@@ -14501,7 +14501,7 @@
         <v>0</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT69" t="n">
         <v>1.5</v>
@@ -15925,7 +15925,7 @@
         <v>1.78</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU76" t="n">
         <v>1.13</v>
@@ -16328,7 +16328,7 @@
         <v>0.5</v>
       </c>
       <c r="AS78" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT78" t="n">
         <v>0.38</v>
@@ -17343,7 +17343,7 @@
         <v>1.2</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT83" t="n">
         <v>1.22</v>
@@ -17549,7 +17549,7 @@
         <v>1.67</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU84" t="n">
         <v>1.75</v>
@@ -18564,7 +18564,7 @@
         <v>1.13</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU89" t="n">
         <v>1.27</v>
@@ -18967,10 +18967,10 @@
         <v>1.2</v>
       </c>
       <c r="AS91" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU91" t="n">
         <v>1.41</v>
@@ -19982,10 +19982,10 @@
         <v>0.83</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT96" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU96" t="n">
         <v>1.42</v>
@@ -22827,7 +22827,7 @@
         <v>1.5</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU110" t="n">
         <v>1.3</v>
@@ -23027,7 +23027,7 @@
         <v>0.33</v>
       </c>
       <c r="AS111" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT111" t="n">
         <v>0.25</v>
@@ -23230,7 +23230,7 @@
         <v>1.83</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT112" t="n">
         <v>1.5</v>
@@ -24045,7 +24045,7 @@
         <v>1.5</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU116" t="n">
         <v>1.62</v>
@@ -24448,7 +24448,7 @@
         <v>1.86</v>
       </c>
       <c r="AS118" t="n">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AT118" t="n">
         <v>1.44</v>
@@ -25872,7 +25872,7 @@
         <v>1.13</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU125" t="n">
         <v>1.35</v>
@@ -26478,7 +26478,7 @@
         <v>1.29</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT128" t="n">
         <v>1.25</v>
@@ -27548,6 +27548,412 @@
       </c>
       <c r="BK133" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="n">
+        <v>6151256</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera B</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>45070.79166666666</v>
+      </c>
+      <c r="F134" t="n">
+        <v>18</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Llaneros</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Fortaleza CEIF</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>2</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="n">
+        <v>2</v>
+      </c>
+      <c r="L134" t="n">
+        <v>2</v>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="n">
+        <v>3</v>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>['16', '41']</t>
+        </is>
+      </c>
+      <c r="P134" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="Q134" t="n">
+        <v>1</v>
+      </c>
+      <c r="R134" t="n">
+        <v>7</v>
+      </c>
+      <c r="S134" t="n">
+        <v>8</v>
+      </c>
+      <c r="T134" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="U134" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="V134" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="W134" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X134" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y134" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z134" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA134" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AB134" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC134" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AD134" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE134" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AF134" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG134" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH134" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI134" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ134" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AK134" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL134" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AM134" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN134" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO134" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP134" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ134" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AR134" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS134" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AT134" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AU134" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV134" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW134" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AX134" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AY134" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ134" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BA134" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB134" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BC134" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BD134" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BE134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF134" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG134" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH134" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI134" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ134" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK134" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="n">
+        <v>6151255</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera B</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>45070.89583333334</v>
+      </c>
+      <c r="F135" t="n">
+        <v>18</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Real Cartagena</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Deportes Quindío</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="n">
+        <v>1</v>
+      </c>
+      <c r="K135" t="n">
+        <v>2</v>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="n">
+        <v>2</v>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>['4']</t>
+        </is>
+      </c>
+      <c r="P135" t="inlineStr">
+        <is>
+          <t>['33']</t>
+        </is>
+      </c>
+      <c r="Q135" t="n">
+        <v>6</v>
+      </c>
+      <c r="R135" t="n">
+        <v>8</v>
+      </c>
+      <c r="S135" t="n">
+        <v>14</v>
+      </c>
+      <c r="T135" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="U135" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V135" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="W135" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X135" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="Y135" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z135" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA135" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AB135" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC135" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD135" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AE135" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="AF135" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG135" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AH135" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI135" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AJ135" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK135" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL135" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM135" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN135" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO135" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP135" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ135" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR135" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS135" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AT135" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AU135" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV135" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW135" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AX135" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AY135" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ135" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BA135" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB135" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BC135" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BD135" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE135" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BF135" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG135" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH135" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI135" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ135" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK135" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera B_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK135"/>
+  <dimension ref="A1:BK140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT3" t="n">
         <v>0.63</v>
@@ -1309,7 +1309,7 @@
         <v>1.67</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>2.67</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT16" t="n">
         <v>0.63</v>
@@ -4151,7 +4151,7 @@
         <v>1.67</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU18" t="n">
         <v>0.96</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT20" t="n">
         <v>0.88</v>
@@ -4757,7 +4757,7 @@
         <v>1</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT21" t="n">
         <v>0.75</v>
@@ -4963,7 +4963,7 @@
         <v>1</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU22" t="n">
         <v>1.77</v>
@@ -5166,7 +5166,7 @@
         <v>1.5</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU23" t="n">
         <v>1.34</v>
@@ -5369,7 +5369,7 @@
         <v>1</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU24" t="n">
         <v>1.43</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT27" t="n">
         <v>0.63</v>
@@ -6381,10 +6381,10 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU29" t="n">
         <v>1.64</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT32" t="n">
         <v>0.88</v>
@@ -7802,7 +7802,7 @@
         <v>0.5</v>
       </c>
       <c r="AS36" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT36" t="n">
         <v>0.25</v>
@@ -8211,7 +8211,7 @@
         <v>1.78</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU38" t="n">
         <v>0.32</v>
@@ -8414,7 +8414,7 @@
         <v>1</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU39" t="n">
         <v>1.25</v>
@@ -8820,7 +8820,7 @@
         <v>1.75</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU41" t="n">
         <v>1.75</v>
@@ -9023,7 +9023,7 @@
         <v>0.63</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU42" t="n">
         <v>1.66</v>
@@ -9223,7 +9223,7 @@
         <v>2</v>
       </c>
       <c r="AS43" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT43" t="n">
         <v>1.22</v>
@@ -9629,7 +9629,7 @@
         <v>1</v>
       </c>
       <c r="AS45" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT45" t="n">
         <v>0.38</v>
@@ -10038,7 +10038,7 @@
         <v>1</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU47" t="n">
         <v>1.42</v>
@@ -11253,7 +11253,7 @@
         <v>0.33</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT53" t="n">
         <v>0.75</v>
@@ -11662,7 +11662,7 @@
         <v>2.22</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU55" t="n">
         <v>1.73</v>
@@ -12674,10 +12674,10 @@
         <v>1.33</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU60" t="n">
         <v>1.49</v>
@@ -12880,7 +12880,7 @@
         <v>0.63</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU61" t="n">
         <v>1.62</v>
@@ -13080,10 +13080,10 @@
         <v>1.33</v>
       </c>
       <c r="AS62" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU62" t="n">
         <v>1.26</v>
@@ -13286,7 +13286,7 @@
         <v>1</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU63" t="n">
         <v>1.38</v>
@@ -13489,7 +13489,7 @@
         <v>1</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU64" t="n">
         <v>1.31</v>
@@ -13689,7 +13689,7 @@
         <v>0.33</v>
       </c>
       <c r="AS65" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT65" t="n">
         <v>0.78</v>
@@ -14301,7 +14301,7 @@
         <v>1.67</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU68" t="n">
         <v>1.76</v>
@@ -14501,7 +14501,7 @@
         <v>0</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT69" t="n">
         <v>1.5</v>
@@ -15113,7 +15113,7 @@
         <v>0.63</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU72" t="n">
         <v>1.4</v>
@@ -15519,7 +15519,7 @@
         <v>1.5</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU74" t="n">
         <v>1.25</v>
@@ -15925,7 +15925,7 @@
         <v>1.78</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU76" t="n">
         <v>1.13</v>
@@ -16125,7 +16125,7 @@
         <v>0.75</v>
       </c>
       <c r="AS77" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT77" t="n">
         <v>1.5</v>
@@ -16531,7 +16531,7 @@
         <v>0</v>
       </c>
       <c r="AS79" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT79" t="n">
         <v>0.63</v>
@@ -16737,7 +16737,7 @@
         <v>1</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU80" t="n">
         <v>1.51</v>
@@ -17343,7 +17343,7 @@
         <v>1.2</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT83" t="n">
         <v>1.22</v>
@@ -17952,10 +17952,10 @@
         <v>1</v>
       </c>
       <c r="AS86" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU86" t="n">
         <v>1.43</v>
@@ -18158,7 +18158,7 @@
         <v>0.63</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU87" t="n">
         <v>1.27</v>
@@ -18970,7 +18970,7 @@
         <v>2.67</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU91" t="n">
         <v>1.41</v>
@@ -19173,7 +19173,7 @@
         <v>1.5</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU92" t="n">
         <v>1.33</v>
@@ -19376,7 +19376,7 @@
         <v>1</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU93" t="n">
         <v>1.47</v>
@@ -19982,7 +19982,7 @@
         <v>0.83</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT96" t="n">
         <v>0.78</v>
@@ -20185,7 +20185,7 @@
         <v>0.4</v>
       </c>
       <c r="AS97" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT97" t="n">
         <v>0.38</v>
@@ -20594,7 +20594,7 @@
         <v>1.75</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU99" t="n">
         <v>1.73</v>
@@ -21606,10 +21606,10 @@
         <v>1</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU104" t="n">
         <v>1.43</v>
@@ -21809,7 +21809,7 @@
         <v>1.17</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT105" t="n">
         <v>1.22</v>
@@ -22012,10 +22012,10 @@
         <v>1.33</v>
       </c>
       <c r="AS106" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU106" t="n">
         <v>1.6</v>
@@ -22418,7 +22418,7 @@
         <v>1</v>
       </c>
       <c r="AS108" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT108" t="n">
         <v>0.75</v>
@@ -22827,7 +22827,7 @@
         <v>1.5</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU110" t="n">
         <v>1.3</v>
@@ -23230,10 +23230,10 @@
         <v>1.83</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU112" t="n">
         <v>1.39</v>
@@ -24651,10 +24651,10 @@
         <v>1.57</v>
       </c>
       <c r="AS119" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU119" t="n">
         <v>1.4</v>
@@ -25669,7 +25669,7 @@
         <v>1</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU124" t="n">
         <v>1.47</v>
@@ -25872,7 +25872,7 @@
         <v>1.13</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU125" t="n">
         <v>1.35</v>
@@ -26072,10 +26072,10 @@
         <v>1.43</v>
       </c>
       <c r="AS126" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU126" t="n">
         <v>1.5</v>
@@ -26275,7 +26275,7 @@
         <v>0.29</v>
       </c>
       <c r="AS127" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT127" t="n">
         <v>0.25</v>
@@ -26478,7 +26478,7 @@
         <v>1.29</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT128" t="n">
         <v>1.25</v>
@@ -26684,7 +26684,7 @@
         <v>1.75</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU129" t="n">
         <v>1.73</v>
@@ -26887,7 +26887,7 @@
         <v>2.22</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU130" t="n">
         <v>1.58</v>
@@ -27087,7 +27087,7 @@
         <v>1.63</v>
       </c>
       <c r="AS131" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT131" t="n">
         <v>1.44</v>
@@ -27496,7 +27496,7 @@
         <v>1.78</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AU133" t="n">
         <v>1.55</v>
@@ -27899,10 +27899,10 @@
         <v>1.13</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU135" t="n">
         <v>1.48</v>
@@ -27954,6 +27954,1021 @@
       </c>
       <c r="BK135" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="n">
+        <v>6151257</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera B</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>45071.75</v>
+      </c>
+      <c r="F136" t="n">
+        <v>18</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Cúcuta Deportivo</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Valledupar</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="n">
+        <v>2</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>['22']</t>
+        </is>
+      </c>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>['76']</t>
+        </is>
+      </c>
+      <c r="Q136" t="n">
+        <v>4</v>
+      </c>
+      <c r="R136" t="n">
+        <v>3</v>
+      </c>
+      <c r="S136" t="n">
+        <v>7</v>
+      </c>
+      <c r="T136" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U136" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V136" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="W136" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X136" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y136" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z136" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA136" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB136" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC136" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AD136" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AE136" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AF136" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG136" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AH136" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI136" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ136" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AK136" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL136" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM136" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN136" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO136" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP136" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AQ136" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR136" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS136" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AT136" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AU136" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV136" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW136" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AX136" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AY136" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ136" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="BA136" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BB136" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BC136" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BD136" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="BE136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF136" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG136" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH136" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI136" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ136" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK136" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="n">
+        <v>6151258</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera B</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>45071.89583333334</v>
+      </c>
+      <c r="F137" t="n">
+        <v>18</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Patriotas Boyacá</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Cortuluá</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0</v>
+      </c>
+      <c r="L137" t="n">
+        <v>0</v>
+      </c>
+      <c r="M137" t="n">
+        <v>0</v>
+      </c>
+      <c r="N137" t="n">
+        <v>0</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q137" t="n">
+        <v>8</v>
+      </c>
+      <c r="R137" t="n">
+        <v>4</v>
+      </c>
+      <c r="S137" t="n">
+        <v>12</v>
+      </c>
+      <c r="T137" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U137" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V137" t="n">
+        <v>5</v>
+      </c>
+      <c r="W137" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X137" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z137" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA137" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB137" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC137" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AD137" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE137" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF137" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG137" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH137" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI137" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ137" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AK137" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL137" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM137" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AN137" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO137" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP137" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ137" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR137" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS137" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AT137" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AU137" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV137" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AW137" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AX137" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AY137" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ137" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="BA137" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BB137" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BC137" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BD137" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BE137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF137" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH137" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ137" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK137" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="n">
+        <v>6151259</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera B</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>45073.75</v>
+      </c>
+      <c r="F138" t="n">
+        <v>19</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Real Cartagena</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Llaneros</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="n">
+        <v>1</v>
+      </c>
+      <c r="K138" t="n">
+        <v>2</v>
+      </c>
+      <c r="L138" t="n">
+        <v>2</v>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="n">
+        <v>3</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>['45', '63']</t>
+        </is>
+      </c>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>['36']</t>
+        </is>
+      </c>
+      <c r="Q138" t="n">
+        <v>2</v>
+      </c>
+      <c r="R138" t="n">
+        <v>2</v>
+      </c>
+      <c r="S138" t="n">
+        <v>4</v>
+      </c>
+      <c r="T138" t="n">
+        <v>3</v>
+      </c>
+      <c r="U138" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V138" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W138" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X138" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y138" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z138" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA138" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB138" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC138" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AD138" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE138" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AF138" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG138" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AH138" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI138" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ138" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AK138" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AL138" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM138" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN138" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO138" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP138" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ138" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR138" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS138" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AT138" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU138" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV138" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AW138" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AX138" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AY138" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ138" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BA138" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB138" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC138" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD138" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BE138" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF138" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG138" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH138" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI138" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ138" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK138" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="n">
+        <v>6151260</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera B</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>45073.75</v>
+      </c>
+      <c r="F139" t="n">
+        <v>19</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Fortaleza CEIF</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Deportes Quindío</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>2</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="n">
+        <v>2</v>
+      </c>
+      <c r="L139" t="n">
+        <v>3</v>
+      </c>
+      <c r="M139" t="n">
+        <v>0</v>
+      </c>
+      <c r="N139" t="n">
+        <v>3</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>['24', '39', '56']</t>
+        </is>
+      </c>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q139" t="n">
+        <v>3</v>
+      </c>
+      <c r="R139" t="n">
+        <v>2</v>
+      </c>
+      <c r="S139" t="n">
+        <v>5</v>
+      </c>
+      <c r="T139" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U139" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V139" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="W139" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X139" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y139" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z139" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA139" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB139" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC139" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD139" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE139" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AF139" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG139" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="AH139" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AI139" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AJ139" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK139" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL139" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM139" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN139" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO139" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP139" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ139" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR139" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS139" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AT139" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU139" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV139" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW139" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AX139" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY139" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ139" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BA139" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB139" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC139" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BD139" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BE139" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BF139" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG139" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH139" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI139" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ139" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK139" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="n">
+        <v>6151261</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Colombia Categoria Primera B</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>45074.75</v>
+      </c>
+      <c r="F140" t="n">
+        <v>19</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Cúcuta Deportivo</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Patriotas Boyacá</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>1</v>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="n">
+        <v>2</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>['25']</t>
+        </is>
+      </c>
+      <c r="Q140" t="n">
+        <v>10</v>
+      </c>
+      <c r="R140" t="n">
+        <v>3</v>
+      </c>
+      <c r="S140" t="n">
+        <v>13</v>
+      </c>
+      <c r="T140" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="U140" t="n">
+        <v>2</v>
+      </c>
+      <c r="V140" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="W140" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X140" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="Y140" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Z140" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA140" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AB140" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC140" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD140" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AE140" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AF140" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG140" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH140" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI140" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ140" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AK140" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL140" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AM140" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN140" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO140" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AP140" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ140" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR140" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS140" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AT140" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU140" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AV140" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW140" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AX140" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AY140" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AZ140" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BA140" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BB140" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BC140" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BD140" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BE140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF140" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG140" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH140" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI140" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ140" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK140" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera B_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="239">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -547,6 +547,12 @@
     <t>['52']</t>
   </si>
   <si>
+    <t>['19', '74']</t>
+  </si>
+  <si>
+    <t>['16', '78']</t>
+  </si>
+  <si>
     <t>['47', '90+7']</t>
   </si>
   <si>
@@ -713,6 +719,18 @@
   </si>
   <si>
     <t>['56', '58']</t>
+  </si>
+  <si>
+    <t>['30', '90+2']</t>
+  </si>
+  <si>
+    <t>['70']</t>
+  </si>
+  <si>
+    <t>['21', '58']</t>
+  </si>
+  <si>
+    <t>['90+7']</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +1092,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK143"/>
+  <dimension ref="A1:BK147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1318,7 +1336,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1408,7 +1426,7 @@
         <v>0.63</v>
       </c>
       <c r="AT2">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1978,10 +1996,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT5">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2082,7 +2100,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2273,7 +2291,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2464,7 +2482,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -2846,7 +2864,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -2933,10 +2951,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT10">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3610,7 +3628,7 @@
         <v>93</v>
       </c>
       <c r="P14" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3700,7 +3718,7 @@
         <v>2.7</v>
       </c>
       <c r="AT14">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3801,7 +3819,7 @@
         <v>94</v>
       </c>
       <c r="P15" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q15">
         <v>9</v>
@@ -3888,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT15">
         <v>1.25</v>
@@ -4079,7 +4097,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AT16">
         <v>0.63</v>
@@ -4183,7 +4201,7 @@
         <v>96</v>
       </c>
       <c r="P17" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4374,7 +4392,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4655,7 +4673,7 @@
         <v>1.13</v>
       </c>
       <c r="AT19">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU19">
         <v>0.75</v>
@@ -5034,7 +5052,7 @@
         <v>1</v>
       </c>
       <c r="AS21">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT21">
         <v>0.75</v>
@@ -5228,7 +5246,7 @@
         <v>1</v>
       </c>
       <c r="AT22">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU22">
         <v>1.77</v>
@@ -5610,7 +5628,7 @@
         <v>1</v>
       </c>
       <c r="AT24">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU24">
         <v>1.43</v>
@@ -5798,7 +5816,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT25">
         <v>1</v>
@@ -5902,7 +5920,7 @@
         <v>103</v>
       </c>
       <c r="P26" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q26">
         <v>7</v>
@@ -6180,7 +6198,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT27">
         <v>0.63</v>
@@ -6284,7 +6302,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6666,7 +6684,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -6857,7 +6875,7 @@
         <v>94</v>
       </c>
       <c r="P31" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -6947,7 +6965,7 @@
         <v>0.63</v>
       </c>
       <c r="AT31">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU31">
         <v>1.7</v>
@@ -7135,7 +7153,7 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AT32">
         <v>0.88</v>
@@ -7326,7 +7344,7 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT33">
         <v>1.5</v>
@@ -7430,7 +7448,7 @@
         <v>94</v>
       </c>
       <c r="P34" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q34">
         <v>1</v>
@@ -7520,7 +7538,7 @@
         <v>1.5</v>
       </c>
       <c r="AT34">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU34">
         <v>1.17</v>
@@ -7812,7 +7830,7 @@
         <v>111</v>
       </c>
       <c r="P36" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8281,10 +8299,10 @@
         <v>1.5</v>
       </c>
       <c r="AS38">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT38">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU38">
         <v>0.32</v>
@@ -8767,7 +8785,7 @@
         <v>94</v>
       </c>
       <c r="P41" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q41">
         <v>10</v>
@@ -8958,7 +8976,7 @@
         <v>94</v>
       </c>
       <c r="P42" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q42">
         <v>7</v>
@@ -9048,7 +9066,7 @@
         <v>0.63</v>
       </c>
       <c r="AT42">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU42">
         <v>1.66</v>
@@ -9149,7 +9167,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9236,10 +9254,10 @@
         <v>2</v>
       </c>
       <c r="AS43">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AT43">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU43">
         <v>1.34</v>
@@ -9340,7 +9358,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q44">
         <v>7</v>
@@ -9430,7 +9448,7 @@
         <v>1</v>
       </c>
       <c r="AT44">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU44">
         <v>1</v>
@@ -9618,7 +9636,7 @@
         <v>1</v>
       </c>
       <c r="AS45">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT45">
         <v>0.38</v>
@@ -10295,7 +10313,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10385,7 +10403,7 @@
         <v>1.5</v>
       </c>
       <c r="AT49">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU49">
         <v>1.57</v>
@@ -10573,7 +10591,7 @@
         <v>0.33</v>
       </c>
       <c r="AS50">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT50">
         <v>0.25</v>
@@ -10868,7 +10886,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11528,7 +11546,7 @@
         <v>0.5</v>
       </c>
       <c r="AS55">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT55">
         <v>1.4</v>
@@ -11719,7 +11737,7 @@
         <v>0.67</v>
       </c>
       <c r="AS56">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT56">
         <v>0.38</v>
@@ -12205,7 +12223,7 @@
         <v>94</v>
       </c>
       <c r="P59" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -12295,7 +12313,7 @@
         <v>1.5</v>
       </c>
       <c r="AT59">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU59">
         <v>1.12</v>
@@ -12483,10 +12501,10 @@
         <v>1.33</v>
       </c>
       <c r="AS60">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AT60">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU60">
         <v>1.49</v>
@@ -12587,7 +12605,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q61">
         <v>2</v>
@@ -12969,7 +12987,7 @@
         <v>129</v>
       </c>
       <c r="P63" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q63">
         <v>6</v>
@@ -13059,7 +13077,7 @@
         <v>1</v>
       </c>
       <c r="AT63">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU63">
         <v>1.38</v>
@@ -13160,7 +13178,7 @@
         <v>94</v>
       </c>
       <c r="P64" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -13438,7 +13456,7 @@
         <v>0.33</v>
       </c>
       <c r="AS65">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT65">
         <v>1</v>
@@ -13542,7 +13560,7 @@
         <v>131</v>
       </c>
       <c r="P66" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q66">
         <v>9</v>
@@ -13629,7 +13647,7 @@
         <v>0.25</v>
       </c>
       <c r="AS66">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT66">
         <v>0.63</v>
@@ -13924,7 +13942,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -14014,7 +14032,7 @@
         <v>1.5</v>
       </c>
       <c r="AT68">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU68">
         <v>1.76</v>
@@ -14115,7 +14133,7 @@
         <v>94</v>
       </c>
       <c r="P69" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q69">
         <v>12</v>
@@ -14396,7 +14414,7 @@
         <v>1.75</v>
       </c>
       <c r="AT70">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU70">
         <v>1.53</v>
@@ -14497,7 +14515,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q71">
         <v>1</v>
@@ -14879,7 +14897,7 @@
         <v>94</v>
       </c>
       <c r="P73" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q73">
         <v>8</v>
@@ -14969,7 +14987,7 @@
         <v>1</v>
       </c>
       <c r="AT73">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU73">
         <v>1.68</v>
@@ -15070,7 +15088,7 @@
         <v>94</v>
       </c>
       <c r="P74" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q74">
         <v>2</v>
@@ -15160,7 +15178,7 @@
         <v>1.5</v>
       </c>
       <c r="AT74">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU74">
         <v>1.25</v>
@@ -15261,7 +15279,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q75">
         <v>8</v>
@@ -15452,7 +15470,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q76">
         <v>9</v>
@@ -15539,7 +15557,7 @@
         <v>1.25</v>
       </c>
       <c r="AS76">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT76">
         <v>1</v>
@@ -15643,7 +15661,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q77">
         <v>7</v>
@@ -15730,7 +15748,7 @@
         <v>0.75</v>
       </c>
       <c r="AS77">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AT77">
         <v>1.5</v>
@@ -15834,7 +15852,7 @@
         <v>138</v>
       </c>
       <c r="P78" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q78">
         <v>9</v>
@@ -16407,7 +16425,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -16789,7 +16807,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q83">
         <v>0</v>
@@ -16879,7 +16897,7 @@
         <v>1.7</v>
       </c>
       <c r="AT83">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU83">
         <v>1.61</v>
@@ -16980,7 +16998,7 @@
         <v>94</v>
       </c>
       <c r="P84" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -17171,7 +17189,7 @@
         <v>142</v>
       </c>
       <c r="P85" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -17449,7 +17467,7 @@
         <v>1</v>
       </c>
       <c r="AS86">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT86">
         <v>1</v>
@@ -17553,7 +17571,7 @@
         <v>94</v>
       </c>
       <c r="P87" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -17643,7 +17661,7 @@
         <v>0.63</v>
       </c>
       <c r="AT87">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU87">
         <v>1.27</v>
@@ -17744,7 +17762,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q88">
         <v>9</v>
@@ -17831,7 +17849,7 @@
         <v>0.4</v>
       </c>
       <c r="AS88">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT88">
         <v>0.25</v>
@@ -18126,7 +18144,7 @@
         <v>94</v>
       </c>
       <c r="P90" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q90">
         <v>12</v>
@@ -18508,7 +18526,7 @@
         <v>94</v>
       </c>
       <c r="P92" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q92">
         <v>3</v>
@@ -18699,7 +18717,7 @@
         <v>145</v>
       </c>
       <c r="P93" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q93">
         <v>8</v>
@@ -18789,7 +18807,7 @@
         <v>1</v>
       </c>
       <c r="AT93">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU93">
         <v>1.47</v>
@@ -18890,7 +18908,7 @@
         <v>94</v>
       </c>
       <c r="P94" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q94">
         <v>4</v>
@@ -18977,7 +18995,7 @@
         <v>0</v>
       </c>
       <c r="AS94">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT94">
         <v>0.63</v>
@@ -19081,7 +19099,7 @@
         <v>94</v>
       </c>
       <c r="P95" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q95">
         <v>6</v>
@@ -19463,7 +19481,7 @@
         <v>146</v>
       </c>
       <c r="P97" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q97">
         <v>10</v>
@@ -19935,7 +19953,7 @@
         <v>1.75</v>
       </c>
       <c r="AT99">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU99">
         <v>1.73</v>
@@ -20036,7 +20054,7 @@
         <v>148</v>
       </c>
       <c r="P100" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q100">
         <v>7</v>
@@ -20505,10 +20523,10 @@
         <v>2.17</v>
       </c>
       <c r="AS102">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT102">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU102">
         <v>1.64</v>
@@ -20887,7 +20905,7 @@
         <v>1</v>
       </c>
       <c r="AS104">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AT104">
         <v>1</v>
@@ -21078,10 +21096,10 @@
         <v>1.17</v>
       </c>
       <c r="AS105">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT105">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU105">
         <v>1.44</v>
@@ -21182,7 +21200,7 @@
         <v>152</v>
       </c>
       <c r="P106" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q106">
         <v>2</v>
@@ -21269,7 +21287,7 @@
         <v>1.33</v>
       </c>
       <c r="AS106">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AT106">
         <v>1.4</v>
@@ -21373,7 +21391,7 @@
         <v>153</v>
       </c>
       <c r="P107" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q107">
         <v>6</v>
@@ -21460,7 +21478,7 @@
         <v>1.5</v>
       </c>
       <c r="AS107">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT107">
         <v>1.25</v>
@@ -22418,7 +22436,7 @@
         <v>1.7</v>
       </c>
       <c r="AT112">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU112">
         <v>1.39</v>
@@ -22519,7 +22537,7 @@
         <v>158</v>
       </c>
       <c r="P113" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q113">
         <v>9</v>
@@ -22797,7 +22815,7 @@
         <v>1</v>
       </c>
       <c r="AS114">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT114">
         <v>0.88</v>
@@ -22991,7 +23009,7 @@
         <v>1</v>
       </c>
       <c r="AT115">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU115">
         <v>1.68</v>
@@ -23474,7 +23492,7 @@
         <v>161</v>
       </c>
       <c r="P118" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -23564,7 +23582,7 @@
         <v>2.7</v>
       </c>
       <c r="AT118">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU118">
         <v>1.47</v>
@@ -23752,10 +23770,10 @@
         <v>1.57</v>
       </c>
       <c r="AS119">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT119">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU119">
         <v>1.4</v>
@@ -24047,7 +24065,7 @@
         <v>163</v>
       </c>
       <c r="P121" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24134,7 +24152,7 @@
         <v>0.71</v>
       </c>
       <c r="AS121">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT121">
         <v>0.63</v>
@@ -24238,7 +24256,7 @@
         <v>158</v>
       </c>
       <c r="P122" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q122">
         <v>1</v>
@@ -24620,7 +24638,7 @@
         <v>94</v>
       </c>
       <c r="P124" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q124">
         <v>2</v>
@@ -24811,7 +24829,7 @@
         <v>164</v>
       </c>
       <c r="P125" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q125">
         <v>2</v>
@@ -25092,7 +25110,7 @@
         <v>2.2</v>
       </c>
       <c r="AT126">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU126">
         <v>1.5</v>
@@ -25280,7 +25298,7 @@
         <v>0.29</v>
       </c>
       <c r="AS127">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AT127">
         <v>0.25</v>
@@ -25384,7 +25402,7 @@
         <v>166</v>
       </c>
       <c r="P128" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q128">
         <v>9</v>
@@ -25575,7 +25593,7 @@
         <v>167</v>
       </c>
       <c r="P129" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q129">
         <v>10</v>
@@ -25766,7 +25784,7 @@
         <v>168</v>
       </c>
       <c r="P130" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q130">
         <v>5</v>
@@ -25853,10 +25871,10 @@
         <v>1.38</v>
       </c>
       <c r="AS130">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT130">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU130">
         <v>1.58</v>
@@ -26044,10 +26062,10 @@
         <v>1.63</v>
       </c>
       <c r="AS131">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AT131">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU131">
         <v>1.52</v>
@@ -26148,7 +26166,7 @@
         <v>170</v>
       </c>
       <c r="P132" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q132">
         <v>7</v>
@@ -26238,7 +26256,7 @@
         <v>1.5</v>
       </c>
       <c r="AT132">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU132">
         <v>1.63</v>
@@ -26426,7 +26444,7 @@
         <v>1.5</v>
       </c>
       <c r="AS133">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT133">
         <v>1.4</v>
@@ -26530,7 +26548,7 @@
         <v>171</v>
       </c>
       <c r="P134" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q134">
         <v>1</v>
@@ -26721,7 +26739,7 @@
         <v>172</v>
       </c>
       <c r="P135" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q135">
         <v>6</v>
@@ -27190,10 +27208,10 @@
         <v>1.5</v>
       </c>
       <c r="AS137">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT137">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU137">
         <v>1.38</v>
@@ -27384,7 +27402,7 @@
         <v>1.7</v>
       </c>
       <c r="AT138">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU138">
         <v>1.43</v>
@@ -27572,7 +27590,7 @@
         <v>1.11</v>
       </c>
       <c r="AS139">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AT139">
         <v>1</v>
@@ -27676,7 +27694,7 @@
         <v>176</v>
       </c>
       <c r="P140" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q140">
         <v>10</v>
@@ -27867,7 +27885,7 @@
         <v>94</v>
       </c>
       <c r="P141" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q141">
         <v>12</v>
@@ -28148,7 +28166,7 @@
         <v>2.7</v>
       </c>
       <c r="AT142">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU142">
         <v>1.41</v>
@@ -28249,16 +28267,16 @@
         <v>94</v>
       </c>
       <c r="P143" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q143">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R143">
         <v>3</v>
       </c>
       <c r="S143">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T143">
         <v>3.05</v>
@@ -28336,7 +28354,7 @@
         <v>0.78</v>
       </c>
       <c r="AS143">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT143">
         <v>1</v>
@@ -28391,6 +28409,770 @@
       </c>
       <c r="BK143">
         <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:63">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>6151265</v>
+      </c>
+      <c r="C144" t="s">
+        <v>63</v>
+      </c>
+      <c r="D144" t="s">
+        <v>64</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45078.75</v>
+      </c>
+      <c r="F144">
+        <v>20</v>
+      </c>
+      <c r="G144" t="s">
+        <v>68</v>
+      </c>
+      <c r="H144" t="s">
+        <v>66</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
+      </c>
+      <c r="J144">
+        <v>1</v>
+      </c>
+      <c r="K144">
+        <v>2</v>
+      </c>
+      <c r="L144">
+        <v>2</v>
+      </c>
+      <c r="M144">
+        <v>2</v>
+      </c>
+      <c r="N144">
+        <v>4</v>
+      </c>
+      <c r="O144" t="s">
+        <v>177</v>
+      </c>
+      <c r="P144" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q144">
+        <v>2</v>
+      </c>
+      <c r="R144">
+        <v>1</v>
+      </c>
+      <c r="S144">
+        <v>3</v>
+      </c>
+      <c r="T144">
+        <v>2.77</v>
+      </c>
+      <c r="U144">
+        <v>2.02</v>
+      </c>
+      <c r="V144">
+        <v>4.83</v>
+      </c>
+      <c r="W144">
+        <v>1.53</v>
+      </c>
+      <c r="X144">
+        <v>2.48</v>
+      </c>
+      <c r="Y144">
+        <v>3.4</v>
+      </c>
+      <c r="Z144">
+        <v>1.28</v>
+      </c>
+      <c r="AA144">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AB144">
+        <v>1.03</v>
+      </c>
+      <c r="AC144">
+        <v>1.8</v>
+      </c>
+      <c r="AD144">
+        <v>3</v>
+      </c>
+      <c r="AE144">
+        <v>4.8</v>
+      </c>
+      <c r="AF144">
+        <v>1.1</v>
+      </c>
+      <c r="AG144">
+        <v>6.75</v>
+      </c>
+      <c r="AH144">
+        <v>1.5</v>
+      </c>
+      <c r="AI144">
+        <v>2.45</v>
+      </c>
+      <c r="AJ144">
+        <v>2.35</v>
+      </c>
+      <c r="AK144">
+        <v>1.5</v>
+      </c>
+      <c r="AL144">
+        <v>2.2</v>
+      </c>
+      <c r="AM144">
+        <v>1.64</v>
+      </c>
+      <c r="AN144">
+        <v>1.19</v>
+      </c>
+      <c r="AO144">
+        <v>1.34</v>
+      </c>
+      <c r="AP144">
+        <v>1.74</v>
+      </c>
+      <c r="AQ144">
+        <v>2.11</v>
+      </c>
+      <c r="AR144">
+        <v>1.22</v>
+      </c>
+      <c r="AS144">
+        <v>2</v>
+      </c>
+      <c r="AT144">
+        <v>1.2</v>
+      </c>
+      <c r="AU144">
+        <v>1.38</v>
+      </c>
+      <c r="AV144">
+        <v>1.36</v>
+      </c>
+      <c r="AW144">
+        <v>2.74</v>
+      </c>
+      <c r="AX144">
+        <v>1.62</v>
+      </c>
+      <c r="AY144">
+        <v>7.5</v>
+      </c>
+      <c r="AZ144">
+        <v>2.72</v>
+      </c>
+      <c r="BA144">
+        <v>1.56</v>
+      </c>
+      <c r="BB144">
+        <v>1.93</v>
+      </c>
+      <c r="BC144">
+        <v>2.45</v>
+      </c>
+      <c r="BD144">
+        <v>3.34</v>
+      </c>
+      <c r="BE144">
+        <v>0</v>
+      </c>
+      <c r="BF144">
+        <v>4</v>
+      </c>
+      <c r="BG144">
+        <v>4</v>
+      </c>
+      <c r="BH144">
+        <v>5</v>
+      </c>
+      <c r="BI144">
+        <v>1</v>
+      </c>
+      <c r="BJ144">
+        <v>9</v>
+      </c>
+      <c r="BK144">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:63">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>6151266</v>
+      </c>
+      <c r="C145" t="s">
+        <v>63</v>
+      </c>
+      <c r="D145" t="s">
+        <v>64</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45078.75</v>
+      </c>
+      <c r="F145">
+        <v>20</v>
+      </c>
+      <c r="G145" t="s">
+        <v>73</v>
+      </c>
+      <c r="H145" t="s">
+        <v>67</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+      <c r="M145">
+        <v>1</v>
+      </c>
+      <c r="N145">
+        <v>1</v>
+      </c>
+      <c r="O145" t="s">
+        <v>94</v>
+      </c>
+      <c r="P145" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q145">
+        <v>4</v>
+      </c>
+      <c r="R145">
+        <v>4</v>
+      </c>
+      <c r="S145">
+        <v>8</v>
+      </c>
+      <c r="T145">
+        <v>2.95</v>
+      </c>
+      <c r="U145">
+        <v>2.1</v>
+      </c>
+      <c r="V145">
+        <v>3.92</v>
+      </c>
+      <c r="W145">
+        <v>1.48</v>
+      </c>
+      <c r="X145">
+        <v>2.43</v>
+      </c>
+      <c r="Y145">
+        <v>3.4</v>
+      </c>
+      <c r="Z145">
+        <v>1.2</v>
+      </c>
+      <c r="AA145">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AB145">
+        <v>1.05</v>
+      </c>
+      <c r="AC145">
+        <v>2.15</v>
+      </c>
+      <c r="AD145">
+        <v>3.1</v>
+      </c>
+      <c r="AE145">
+        <v>3.3</v>
+      </c>
+      <c r="AF145">
+        <v>1.04</v>
+      </c>
+      <c r="AG145">
+        <v>7.6</v>
+      </c>
+      <c r="AH145">
+        <v>1.36</v>
+      </c>
+      <c r="AI145">
+        <v>2.79</v>
+      </c>
+      <c r="AJ145">
+        <v>2.15</v>
+      </c>
+      <c r="AK145">
+        <v>1.65</v>
+      </c>
+      <c r="AL145">
+        <v>1.88</v>
+      </c>
+      <c r="AM145">
+        <v>1.85</v>
+      </c>
+      <c r="AN145">
+        <v>1.31</v>
+      </c>
+      <c r="AO145">
+        <v>1.34</v>
+      </c>
+      <c r="AP145">
+        <v>1.61</v>
+      </c>
+      <c r="AQ145">
+        <v>1.78</v>
+      </c>
+      <c r="AR145">
+        <v>1.44</v>
+      </c>
+      <c r="AS145">
+        <v>1.6</v>
+      </c>
+      <c r="AT145">
+        <v>1.6</v>
+      </c>
+      <c r="AU145">
+        <v>1.55</v>
+      </c>
+      <c r="AV145">
+        <v>1.4</v>
+      </c>
+      <c r="AW145">
+        <v>2.95</v>
+      </c>
+      <c r="AX145">
+        <v>1.85</v>
+      </c>
+      <c r="AY145">
+        <v>6.9</v>
+      </c>
+      <c r="AZ145">
+        <v>2.31</v>
+      </c>
+      <c r="BA145">
+        <v>1.33</v>
+      </c>
+      <c r="BB145">
+        <v>1.68</v>
+      </c>
+      <c r="BC145">
+        <v>2.1</v>
+      </c>
+      <c r="BD145">
+        <v>2.78</v>
+      </c>
+      <c r="BE145">
+        <v>3.92</v>
+      </c>
+      <c r="BF145">
+        <v>2</v>
+      </c>
+      <c r="BG145">
+        <v>5</v>
+      </c>
+      <c r="BH145">
+        <v>3</v>
+      </c>
+      <c r="BI145">
+        <v>10</v>
+      </c>
+      <c r="BJ145">
+        <v>5</v>
+      </c>
+      <c r="BK145">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="146" spans="1:63">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>6151267</v>
+      </c>
+      <c r="C146" t="s">
+        <v>63</v>
+      </c>
+      <c r="D146" t="s">
+        <v>64</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45080.75</v>
+      </c>
+      <c r="F146">
+        <v>21</v>
+      </c>
+      <c r="G146" t="s">
+        <v>78</v>
+      </c>
+      <c r="H146" t="s">
+        <v>71</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+      <c r="J146">
+        <v>1</v>
+      </c>
+      <c r="K146">
+        <v>2</v>
+      </c>
+      <c r="L146">
+        <v>2</v>
+      </c>
+      <c r="M146">
+        <v>2</v>
+      </c>
+      <c r="N146">
+        <v>4</v>
+      </c>
+      <c r="O146" t="s">
+        <v>178</v>
+      </c>
+      <c r="P146" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q146">
+        <v>8</v>
+      </c>
+      <c r="R146">
+        <v>4</v>
+      </c>
+      <c r="S146">
+        <v>12</v>
+      </c>
+      <c r="T146">
+        <v>2.35</v>
+      </c>
+      <c r="U146">
+        <v>1.9</v>
+      </c>
+      <c r="V146">
+        <v>4</v>
+      </c>
+      <c r="W146">
+        <v>1.41</v>
+      </c>
+      <c r="X146">
+        <v>2.42</v>
+      </c>
+      <c r="Y146">
+        <v>3.33</v>
+      </c>
+      <c r="Z146">
+        <v>1.21</v>
+      </c>
+      <c r="AA146">
+        <v>7.8</v>
+      </c>
+      <c r="AB146">
+        <v>1.05</v>
+      </c>
+      <c r="AC146">
+        <v>1.85</v>
+      </c>
+      <c r="AD146">
+        <v>3.4</v>
+      </c>
+      <c r="AE146">
+        <v>4.1</v>
+      </c>
+      <c r="AF146">
+        <v>1.01</v>
+      </c>
+      <c r="AG146">
+        <v>8.75</v>
+      </c>
+      <c r="AH146">
+        <v>1.29</v>
+      </c>
+      <c r="AI146">
+        <v>2.85</v>
+      </c>
+      <c r="AJ146">
+        <v>2.14</v>
+      </c>
+      <c r="AK146">
+        <v>1.69</v>
+      </c>
+      <c r="AL146">
+        <v>1.83</v>
+      </c>
+      <c r="AM146">
+        <v>1.74</v>
+      </c>
+      <c r="AN146">
+        <v>1.15</v>
+      </c>
+      <c r="AO146">
+        <v>1.23</v>
+      </c>
+      <c r="AP146">
+        <v>1.8</v>
+      </c>
+      <c r="AQ146">
+        <v>2</v>
+      </c>
+      <c r="AR146">
+        <v>1.3</v>
+      </c>
+      <c r="AS146">
+        <v>1.91</v>
+      </c>
+      <c r="AT146">
+        <v>1.27</v>
+      </c>
+      <c r="AU146">
+        <v>1.68</v>
+      </c>
+      <c r="AV146">
+        <v>1.5</v>
+      </c>
+      <c r="AW146">
+        <v>3.18</v>
+      </c>
+      <c r="AX146">
+        <v>1.37</v>
+      </c>
+      <c r="AY146">
+        <v>9.5</v>
+      </c>
+      <c r="AZ146">
+        <v>3.54</v>
+      </c>
+      <c r="BA146">
+        <v>1.26</v>
+      </c>
+      <c r="BB146">
+        <v>1.54</v>
+      </c>
+      <c r="BC146">
+        <v>1.89</v>
+      </c>
+      <c r="BD146">
+        <v>2.35</v>
+      </c>
+      <c r="BE146">
+        <v>3.2</v>
+      </c>
+      <c r="BF146">
+        <v>10</v>
+      </c>
+      <c r="BG146">
+        <v>6</v>
+      </c>
+      <c r="BH146">
+        <v>7</v>
+      </c>
+      <c r="BI146">
+        <v>7</v>
+      </c>
+      <c r="BJ146">
+        <v>17</v>
+      </c>
+      <c r="BK146">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="147" spans="1:63">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>6151268</v>
+      </c>
+      <c r="C147" t="s">
+        <v>63</v>
+      </c>
+      <c r="D147" t="s">
+        <v>64</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45081.75</v>
+      </c>
+      <c r="F147">
+        <v>21</v>
+      </c>
+      <c r="G147" t="s">
+        <v>79</v>
+      </c>
+      <c r="H147" t="s">
+        <v>77</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+      <c r="M147">
+        <v>1</v>
+      </c>
+      <c r="N147">
+        <v>1</v>
+      </c>
+      <c r="O147" t="s">
+        <v>94</v>
+      </c>
+      <c r="P147" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q147">
+        <v>6</v>
+      </c>
+      <c r="R147">
+        <v>4</v>
+      </c>
+      <c r="S147">
+        <v>10</v>
+      </c>
+      <c r="T147">
+        <v>2.4</v>
+      </c>
+      <c r="U147">
+        <v>2</v>
+      </c>
+      <c r="V147">
+        <v>5</v>
+      </c>
+      <c r="W147">
+        <v>1.44</v>
+      </c>
+      <c r="X147">
+        <v>2.62</v>
+      </c>
+      <c r="Y147">
+        <v>3.34</v>
+      </c>
+      <c r="Z147">
+        <v>1.28</v>
+      </c>
+      <c r="AA147">
+        <v>8.9</v>
+      </c>
+      <c r="AB147">
+        <v>1.03</v>
+      </c>
+      <c r="AC147">
+        <v>1.73</v>
+      </c>
+      <c r="AD147">
+        <v>3.2</v>
+      </c>
+      <c r="AE147">
+        <v>4.6</v>
+      </c>
+      <c r="AF147">
+        <v>1.06</v>
+      </c>
+      <c r="AG147">
+        <v>7.5</v>
+      </c>
+      <c r="AH147">
+        <v>1.4</v>
+      </c>
+      <c r="AI147">
+        <v>2.55</v>
+      </c>
+      <c r="AJ147">
+        <v>2.25</v>
+      </c>
+      <c r="AK147">
+        <v>1.57</v>
+      </c>
+      <c r="AL147">
+        <v>2</v>
+      </c>
+      <c r="AM147">
+        <v>1.64</v>
+      </c>
+      <c r="AN147">
+        <v>1.15</v>
+      </c>
+      <c r="AO147">
+        <v>1.33</v>
+      </c>
+      <c r="AP147">
+        <v>1.95</v>
+      </c>
+      <c r="AQ147">
+        <v>2.4</v>
+      </c>
+      <c r="AR147">
+        <v>1.2</v>
+      </c>
+      <c r="AS147">
+        <v>2.18</v>
+      </c>
+      <c r="AT147">
+        <v>1.36</v>
+      </c>
+      <c r="AU147">
+        <v>1.59</v>
+      </c>
+      <c r="AV147">
+        <v>1.09</v>
+      </c>
+      <c r="AW147">
+        <v>2.68</v>
+      </c>
+      <c r="AX147">
+        <v>1.51</v>
+      </c>
+      <c r="AY147">
+        <v>8.6</v>
+      </c>
+      <c r="AZ147">
+        <v>3.06</v>
+      </c>
+      <c r="BA147">
+        <v>1.37</v>
+      </c>
+      <c r="BB147">
+        <v>1.74</v>
+      </c>
+      <c r="BC147">
+        <v>2.18</v>
+      </c>
+      <c r="BD147">
+        <v>2.88</v>
+      </c>
+      <c r="BE147">
+        <v>0</v>
+      </c>
+      <c r="BF147">
+        <v>5</v>
+      </c>
+      <c r="BG147">
+        <v>3</v>
+      </c>
+      <c r="BH147">
+        <v>10</v>
+      </c>
+      <c r="BI147">
+        <v>8</v>
+      </c>
+      <c r="BJ147">
+        <v>15</v>
+      </c>
+      <c r="BK147">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera B_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="240">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -732,6 +732,9 @@
   <si>
     <t>['90+7']</t>
   </si>
+  <si>
+    <t>['69']</t>
+  </si>
 </sst>
 </file>
 
@@ -1092,7 +1095,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK147"/>
+  <dimension ref="A1:BK149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1805,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT4">
         <v>1</v>
@@ -2572,7 +2575,7 @@
         <v>1.7</v>
       </c>
       <c r="AT8">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2951,10 +2954,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT10">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -4479,7 +4482,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT18">
         <v>1</v>
@@ -6965,7 +6968,7 @@
         <v>0.63</v>
       </c>
       <c r="AT31">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU31">
         <v>1.7</v>
@@ -7726,7 +7729,7 @@
         <v>0.5</v>
       </c>
       <c r="AS35">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT35">
         <v>0.75</v>
@@ -8299,7 +8302,7 @@
         <v>1.5</v>
       </c>
       <c r="AS38">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT38">
         <v>1.36</v>
@@ -8493,7 +8496,7 @@
         <v>1</v>
       </c>
       <c r="AT39">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU39">
         <v>1.25</v>
@@ -9257,7 +9260,7 @@
         <v>2.18</v>
       </c>
       <c r="AT43">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU43">
         <v>1.34</v>
@@ -10400,10 +10403,10 @@
         <v>1.67</v>
       </c>
       <c r="AS49">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT49">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU49">
         <v>1.57</v>
@@ -10591,7 +10594,7 @@
         <v>0.33</v>
       </c>
       <c r="AS50">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT50">
         <v>0.25</v>
@@ -11549,7 +11552,7 @@
         <v>1.91</v>
       </c>
       <c r="AT55">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU55">
         <v>1.73</v>
@@ -11737,7 +11740,7 @@
         <v>0.67</v>
       </c>
       <c r="AS56">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT56">
         <v>0.38</v>
@@ -12695,7 +12698,7 @@
         <v>0.63</v>
       </c>
       <c r="AT61">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU61">
         <v>1.62</v>
@@ -14029,7 +14032,7 @@
         <v>1.25</v>
       </c>
       <c r="AS68">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT68">
         <v>1.36</v>
@@ -14414,7 +14417,7 @@
         <v>1.75</v>
       </c>
       <c r="AT70">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU70">
         <v>1.53</v>
@@ -15557,7 +15560,7 @@
         <v>1.25</v>
       </c>
       <c r="AS76">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT76">
         <v>1</v>
@@ -16324,7 +16327,7 @@
         <v>1</v>
       </c>
       <c r="AT80">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU80">
         <v>1.51</v>
@@ -16897,7 +16900,7 @@
         <v>1.7</v>
       </c>
       <c r="AT83">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU83">
         <v>1.61</v>
@@ -17085,7 +17088,7 @@
         <v>0.25</v>
       </c>
       <c r="AS84">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT84">
         <v>1</v>
@@ -18616,7 +18619,7 @@
         <v>1.5</v>
       </c>
       <c r="AT92">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU92">
         <v>1.33</v>
@@ -18995,7 +18998,7 @@
         <v>0</v>
       </c>
       <c r="AS94">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT94">
         <v>0.63</v>
@@ -20714,7 +20717,7 @@
         <v>0.33</v>
       </c>
       <c r="AS103">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT103">
         <v>0.38</v>
@@ -21099,7 +21102,7 @@
         <v>2</v>
       </c>
       <c r="AT105">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU105">
         <v>1.44</v>
@@ -21290,7 +21293,7 @@
         <v>2.18</v>
       </c>
       <c r="AT106">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU106">
         <v>1.6</v>
@@ -21478,7 +21481,7 @@
         <v>1.5</v>
       </c>
       <c r="AS107">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT107">
         <v>1.25</v>
@@ -23009,7 +23012,7 @@
         <v>1</v>
       </c>
       <c r="AT115">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU115">
         <v>1.68</v>
@@ -24152,7 +24155,7 @@
         <v>0.71</v>
       </c>
       <c r="AS121">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT121">
         <v>0.63</v>
@@ -24534,7 +24537,7 @@
         <v>0.57</v>
       </c>
       <c r="AS123">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT123">
         <v>0.63</v>
@@ -24728,7 +24731,7 @@
         <v>1</v>
       </c>
       <c r="AT124">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU124">
         <v>1.47</v>
@@ -26253,10 +26256,10 @@
         <v>1</v>
       </c>
       <c r="AS132">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT132">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU132">
         <v>1.63</v>
@@ -26444,10 +26447,10 @@
         <v>1.5</v>
       </c>
       <c r="AS133">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT133">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU133">
         <v>1.55</v>
@@ -27784,7 +27787,7 @@
         <v>2.2</v>
       </c>
       <c r="AT140">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU140">
         <v>1.56</v>
@@ -27972,7 +27975,7 @@
         <v>0.78</v>
       </c>
       <c r="AS141">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT141">
         <v>1</v>
@@ -28548,7 +28551,7 @@
         <v>2</v>
       </c>
       <c r="AT144">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU144">
         <v>1.38</v>
@@ -28736,7 +28739,7 @@
         <v>1.44</v>
       </c>
       <c r="AS145">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT145">
         <v>1.6</v>
@@ -29172,6 +29175,388 @@
         <v>15</v>
       </c>
       <c r="BK147">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="148" spans="1:63">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>6151270</v>
+      </c>
+      <c r="C148" t="s">
+        <v>63</v>
+      </c>
+      <c r="D148" t="s">
+        <v>64</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45083.83333333334</v>
+      </c>
+      <c r="F148">
+        <v>21</v>
+      </c>
+      <c r="G148" t="s">
+        <v>67</v>
+      </c>
+      <c r="H148" t="s">
+        <v>68</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+      <c r="M148">
+        <v>0</v>
+      </c>
+      <c r="N148">
+        <v>0</v>
+      </c>
+      <c r="O148" t="s">
+        <v>94</v>
+      </c>
+      <c r="P148" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q148">
+        <v>5</v>
+      </c>
+      <c r="R148">
+        <v>4</v>
+      </c>
+      <c r="S148">
+        <v>9</v>
+      </c>
+      <c r="T148">
+        <v>3.83</v>
+      </c>
+      <c r="U148">
+        <v>2.02</v>
+      </c>
+      <c r="V148">
+        <v>3.35</v>
+      </c>
+      <c r="W148">
+        <v>1.51</v>
+      </c>
+      <c r="X148">
+        <v>2.38</v>
+      </c>
+      <c r="Y148">
+        <v>3.42</v>
+      </c>
+      <c r="Z148">
+        <v>1.27</v>
+      </c>
+      <c r="AA148">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AB148">
+        <v>1.03</v>
+      </c>
+      <c r="AC148">
+        <v>2.57</v>
+      </c>
+      <c r="AD148">
+        <v>3.04</v>
+      </c>
+      <c r="AE148">
+        <v>2.72</v>
+      </c>
+      <c r="AF148">
+        <v>1.09</v>
+      </c>
+      <c r="AG148">
+        <v>7.75</v>
+      </c>
+      <c r="AH148">
+        <v>1.43</v>
+      </c>
+      <c r="AI148">
+        <v>2.63</v>
+      </c>
+      <c r="AJ148">
+        <v>2.38</v>
+      </c>
+      <c r="AK148">
+        <v>1.53</v>
+      </c>
+      <c r="AL148">
+        <v>1.98</v>
+      </c>
+      <c r="AM148">
+        <v>1.78</v>
+      </c>
+      <c r="AN148">
+        <v>1.49</v>
+      </c>
+      <c r="AO148">
+        <v>1.33</v>
+      </c>
+      <c r="AP148">
+        <v>1.35</v>
+      </c>
+      <c r="AQ148">
+        <v>1.5</v>
+      </c>
+      <c r="AR148">
+        <v>1.4</v>
+      </c>
+      <c r="AS148">
+        <v>1.45</v>
+      </c>
+      <c r="AT148">
+        <v>1.36</v>
+      </c>
+      <c r="AU148">
+        <v>1.88</v>
+      </c>
+      <c r="AV148">
+        <v>1.17</v>
+      </c>
+      <c r="AW148">
+        <v>3.05</v>
+      </c>
+      <c r="AX148">
+        <v>1.96</v>
+      </c>
+      <c r="AY148">
+        <v>8</v>
+      </c>
+      <c r="AZ148">
+        <v>2.07</v>
+      </c>
+      <c r="BA148">
+        <v>1.36</v>
+      </c>
+      <c r="BB148">
+        <v>1.71</v>
+      </c>
+      <c r="BC148">
+        <v>2.14</v>
+      </c>
+      <c r="BD148">
+        <v>2.84</v>
+      </c>
+      <c r="BE148">
+        <v>0</v>
+      </c>
+      <c r="BF148">
+        <v>4</v>
+      </c>
+      <c r="BG148">
+        <v>7</v>
+      </c>
+      <c r="BH148">
+        <v>1</v>
+      </c>
+      <c r="BI148">
+        <v>2</v>
+      </c>
+      <c r="BJ148">
+        <v>5</v>
+      </c>
+      <c r="BK148">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" spans="1:63">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>6151269</v>
+      </c>
+      <c r="C149" t="s">
+        <v>63</v>
+      </c>
+      <c r="D149" t="s">
+        <v>64</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45083.92013888889</v>
+      </c>
+      <c r="F149">
+        <v>21</v>
+      </c>
+      <c r="G149" t="s">
+        <v>73</v>
+      </c>
+      <c r="H149" t="s">
+        <v>66</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>1</v>
+      </c>
+      <c r="M149">
+        <v>1</v>
+      </c>
+      <c r="N149">
+        <v>2</v>
+      </c>
+      <c r="O149" t="s">
+        <v>92</v>
+      </c>
+      <c r="P149" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q149">
+        <v>2</v>
+      </c>
+      <c r="R149">
+        <v>8</v>
+      </c>
+      <c r="S149">
+        <v>10</v>
+      </c>
+      <c r="T149">
+        <v>3.58</v>
+      </c>
+      <c r="U149">
+        <v>1.92</v>
+      </c>
+      <c r="V149">
+        <v>3.16</v>
+      </c>
+      <c r="W149">
+        <v>1.5</v>
+      </c>
+      <c r="X149">
+        <v>2.42</v>
+      </c>
+      <c r="Y149">
+        <v>3.34</v>
+      </c>
+      <c r="Z149">
+        <v>1.28</v>
+      </c>
+      <c r="AA149">
+        <v>9</v>
+      </c>
+      <c r="AB149">
+        <v>1.03</v>
+      </c>
+      <c r="AC149">
+        <v>3.25</v>
+      </c>
+      <c r="AD149">
+        <v>3.12</v>
+      </c>
+      <c r="AE149">
+        <v>2.18</v>
+      </c>
+      <c r="AF149">
+        <v>1.05</v>
+      </c>
+      <c r="AG149">
+        <v>6.9</v>
+      </c>
+      <c r="AH149">
+        <v>1.42</v>
+      </c>
+      <c r="AI149">
+        <v>2.57</v>
+      </c>
+      <c r="AJ149">
+        <v>2.4</v>
+      </c>
+      <c r="AK149">
+        <v>1.53</v>
+      </c>
+      <c r="AL149">
+        <v>1.95</v>
+      </c>
+      <c r="AM149">
+        <v>1.72</v>
+      </c>
+      <c r="AN149">
+        <v>1.47</v>
+      </c>
+      <c r="AO149">
+        <v>1.32</v>
+      </c>
+      <c r="AP149">
+        <v>1.38</v>
+      </c>
+      <c r="AQ149">
+        <v>1.6</v>
+      </c>
+      <c r="AR149">
+        <v>1.2</v>
+      </c>
+      <c r="AS149">
+        <v>1.55</v>
+      </c>
+      <c r="AT149">
+        <v>1.18</v>
+      </c>
+      <c r="AU149">
+        <v>1.49</v>
+      </c>
+      <c r="AV149">
+        <v>1.32</v>
+      </c>
+      <c r="AW149">
+        <v>2.81</v>
+      </c>
+      <c r="AX149">
+        <v>2.36</v>
+      </c>
+      <c r="AY149">
+        <v>7.8</v>
+      </c>
+      <c r="AZ149">
+        <v>1.81</v>
+      </c>
+      <c r="BA149">
+        <v>1.6</v>
+      </c>
+      <c r="BB149">
+        <v>2.03</v>
+      </c>
+      <c r="BC149">
+        <v>2.36</v>
+      </c>
+      <c r="BD149">
+        <v>3.64</v>
+      </c>
+      <c r="BE149">
+        <v>0</v>
+      </c>
+      <c r="BF149">
+        <v>4</v>
+      </c>
+      <c r="BG149">
+        <v>5</v>
+      </c>
+      <c r="BH149">
+        <v>4</v>
+      </c>
+      <c r="BI149">
+        <v>6</v>
+      </c>
+      <c r="BJ149">
+        <v>8</v>
+      </c>
+      <c r="BK149">
         <v>11</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera B_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="243">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -553,6 +553,12 @@
     <t>['16', '78']</t>
   </si>
   <si>
+    <t>['25', '38']</t>
+  </si>
+  <si>
+    <t>['18', '60']</t>
+  </si>
+  <si>
     <t>['47', '90+7']</t>
   </si>
   <si>
@@ -734,6 +740,9 @@
   </si>
   <si>
     <t>['69']</t>
+  </si>
+  <si>
+    <t>['11', '72']</t>
   </si>
 </sst>
 </file>
@@ -1095,7 +1104,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK149"/>
+  <dimension ref="A1:BK151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1339,7 +1348,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1617,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT3">
         <v>0.63</v>
@@ -1811,7 +1820,7 @@
         <v>1.45</v>
       </c>
       <c r="AT4">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1999,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT5">
         <v>1.36</v>
@@ -2103,7 +2112,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2294,7 +2303,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2485,7 +2494,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -2867,7 +2876,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -3631,7 +3640,7 @@
         <v>93</v>
       </c>
       <c r="P14" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3721,7 +3730,7 @@
         <v>2.7</v>
       </c>
       <c r="AT14">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3822,7 +3831,7 @@
         <v>94</v>
       </c>
       <c r="P15" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q15">
         <v>9</v>
@@ -4204,7 +4213,7 @@
         <v>96</v>
       </c>
       <c r="P17" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4395,7 +4404,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4864,7 +4873,7 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT20">
         <v>0.88</v>
@@ -5055,7 +5064,7 @@
         <v>1</v>
       </c>
       <c r="AS21">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT21">
         <v>0.75</v>
@@ -5631,7 +5640,7 @@
         <v>1</v>
       </c>
       <c r="AT24">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU24">
         <v>1.43</v>
@@ -5923,7 +5932,7 @@
         <v>103</v>
       </c>
       <c r="P26" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q26">
         <v>7</v>
@@ -6201,7 +6210,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT27">
         <v>0.63</v>
@@ -6305,7 +6314,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6586,7 +6595,7 @@
         <v>1.7</v>
       </c>
       <c r="AT29">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU29">
         <v>1.64</v>
@@ -6687,7 +6696,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -6878,7 +6887,7 @@
         <v>94</v>
       </c>
       <c r="P31" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -7451,7 +7460,7 @@
         <v>94</v>
       </c>
       <c r="P34" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q34">
         <v>1</v>
@@ -7833,7 +7842,7 @@
         <v>111</v>
       </c>
       <c r="P36" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -7920,7 +7929,7 @@
         <v>0.5</v>
       </c>
       <c r="AS36">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT36">
         <v>0.25</v>
@@ -8788,7 +8797,7 @@
         <v>94</v>
       </c>
       <c r="P41" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q41">
         <v>10</v>
@@ -8979,7 +8988,7 @@
         <v>94</v>
       </c>
       <c r="P42" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q42">
         <v>7</v>
@@ -9069,7 +9078,7 @@
         <v>0.63</v>
       </c>
       <c r="AT42">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU42">
         <v>1.66</v>
@@ -9170,7 +9179,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9361,7 +9370,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q44">
         <v>7</v>
@@ -9639,7 +9648,7 @@
         <v>1</v>
       </c>
       <c r="AS45">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT45">
         <v>0.38</v>
@@ -10024,7 +10033,7 @@
         <v>1</v>
       </c>
       <c r="AT47">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU47">
         <v>1.42</v>
@@ -10316,7 +10325,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10889,7 +10898,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -12226,7 +12235,7 @@
         <v>94</v>
       </c>
       <c r="P59" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -12608,7 +12617,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q61">
         <v>2</v>
@@ -12886,7 +12895,7 @@
         <v>1.33</v>
       </c>
       <c r="AS62">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT62">
         <v>1</v>
@@ -12990,7 +12999,7 @@
         <v>129</v>
       </c>
       <c r="P63" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q63">
         <v>6</v>
@@ -13080,7 +13089,7 @@
         <v>1</v>
       </c>
       <c r="AT63">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU63">
         <v>1.38</v>
@@ -13181,7 +13190,7 @@
         <v>94</v>
       </c>
       <c r="P64" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -13271,7 +13280,7 @@
         <v>1</v>
       </c>
       <c r="AT64">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU64">
         <v>1.31</v>
@@ -13459,7 +13468,7 @@
         <v>0.33</v>
       </c>
       <c r="AS65">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT65">
         <v>1</v>
@@ -13563,7 +13572,7 @@
         <v>131</v>
       </c>
       <c r="P66" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q66">
         <v>9</v>
@@ -13945,7 +13954,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -14136,7 +14145,7 @@
         <v>94</v>
       </c>
       <c r="P69" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q69">
         <v>12</v>
@@ -14518,7 +14527,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q71">
         <v>1</v>
@@ -14799,7 +14808,7 @@
         <v>0.63</v>
       </c>
       <c r="AT72">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU72">
         <v>1.4</v>
@@ -14900,7 +14909,7 @@
         <v>94</v>
       </c>
       <c r="P73" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q73">
         <v>8</v>
@@ -15091,7 +15100,7 @@
         <v>94</v>
       </c>
       <c r="P74" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q74">
         <v>2</v>
@@ -15181,7 +15190,7 @@
         <v>1.5</v>
       </c>
       <c r="AT74">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU74">
         <v>1.25</v>
@@ -15282,7 +15291,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q75">
         <v>8</v>
@@ -15473,7 +15482,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q76">
         <v>9</v>
@@ -15664,7 +15673,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q77">
         <v>7</v>
@@ -15855,7 +15864,7 @@
         <v>138</v>
       </c>
       <c r="P78" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q78">
         <v>9</v>
@@ -16133,7 +16142,7 @@
         <v>0</v>
       </c>
       <c r="AS79">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT79">
         <v>0.63</v>
@@ -16428,7 +16437,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -16810,7 +16819,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q83">
         <v>0</v>
@@ -17001,7 +17010,7 @@
         <v>94</v>
       </c>
       <c r="P84" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -17192,7 +17201,7 @@
         <v>142</v>
       </c>
       <c r="P85" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -17470,10 +17479,10 @@
         <v>1</v>
       </c>
       <c r="AS86">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT86">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU86">
         <v>1.43</v>
@@ -17574,7 +17583,7 @@
         <v>94</v>
       </c>
       <c r="P87" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -17765,7 +17774,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q88">
         <v>9</v>
@@ -18147,7 +18156,7 @@
         <v>94</v>
       </c>
       <c r="P90" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q90">
         <v>12</v>
@@ -18529,7 +18538,7 @@
         <v>94</v>
       </c>
       <c r="P92" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q92">
         <v>3</v>
@@ -18720,7 +18729,7 @@
         <v>145</v>
       </c>
       <c r="P93" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q93">
         <v>8</v>
@@ -18810,7 +18819,7 @@
         <v>1</v>
       </c>
       <c r="AT93">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU93">
         <v>1.47</v>
@@ -18911,7 +18920,7 @@
         <v>94</v>
       </c>
       <c r="P94" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q94">
         <v>4</v>
@@ -19102,7 +19111,7 @@
         <v>94</v>
       </c>
       <c r="P95" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q95">
         <v>6</v>
@@ -19484,7 +19493,7 @@
         <v>146</v>
       </c>
       <c r="P97" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q97">
         <v>10</v>
@@ -19571,7 +19580,7 @@
         <v>0.4</v>
       </c>
       <c r="AS97">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT97">
         <v>0.38</v>
@@ -20057,7 +20066,7 @@
         <v>148</v>
       </c>
       <c r="P100" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q100">
         <v>7</v>
@@ -20911,7 +20920,7 @@
         <v>2.18</v>
       </c>
       <c r="AT104">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU104">
         <v>1.43</v>
@@ -21099,7 +21108,7 @@
         <v>1.17</v>
       </c>
       <c r="AS105">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT105">
         <v>1.18</v>
@@ -21203,7 +21212,7 @@
         <v>152</v>
       </c>
       <c r="P106" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q106">
         <v>2</v>
@@ -21394,7 +21403,7 @@
         <v>153</v>
       </c>
       <c r="P107" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q107">
         <v>6</v>
@@ -21672,7 +21681,7 @@
         <v>1</v>
       </c>
       <c r="AS108">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT108">
         <v>0.75</v>
@@ -22439,7 +22448,7 @@
         <v>1.7</v>
       </c>
       <c r="AT112">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU112">
         <v>1.39</v>
@@ -22540,7 +22549,7 @@
         <v>158</v>
       </c>
       <c r="P113" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q113">
         <v>9</v>
@@ -23495,7 +23504,7 @@
         <v>161</v>
       </c>
       <c r="P118" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -23773,10 +23782,10 @@
         <v>1.57</v>
       </c>
       <c r="AS119">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT119">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU119">
         <v>1.4</v>
@@ -24068,7 +24077,7 @@
         <v>163</v>
       </c>
       <c r="P121" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24259,7 +24268,7 @@
         <v>158</v>
       </c>
       <c r="P122" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q122">
         <v>1</v>
@@ -24641,7 +24650,7 @@
         <v>94</v>
       </c>
       <c r="P124" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q124">
         <v>2</v>
@@ -24832,7 +24841,7 @@
         <v>164</v>
       </c>
       <c r="P125" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q125">
         <v>2</v>
@@ -25110,7 +25119,7 @@
         <v>1.43</v>
       </c>
       <c r="AS126">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT126">
         <v>1.36</v>
@@ -25405,7 +25414,7 @@
         <v>166</v>
       </c>
       <c r="P128" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q128">
         <v>9</v>
@@ -25596,7 +25605,7 @@
         <v>167</v>
       </c>
       <c r="P129" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q129">
         <v>10</v>
@@ -25686,7 +25695,7 @@
         <v>1.75</v>
       </c>
       <c r="AT129">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU129">
         <v>1.73</v>
@@ -25787,7 +25796,7 @@
         <v>168</v>
       </c>
       <c r="P130" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q130">
         <v>5</v>
@@ -26169,7 +26178,7 @@
         <v>170</v>
       </c>
       <c r="P132" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q132">
         <v>7</v>
@@ -26551,7 +26560,7 @@
         <v>171</v>
       </c>
       <c r="P134" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q134">
         <v>1</v>
@@ -26742,7 +26751,7 @@
         <v>172</v>
       </c>
       <c r="P135" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q135">
         <v>6</v>
@@ -27020,10 +27029,10 @@
         <v>0.75</v>
       </c>
       <c r="AS136">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT136">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU136">
         <v>1.49</v>
@@ -27211,10 +27220,10 @@
         <v>1.5</v>
       </c>
       <c r="AS137">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT137">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU137">
         <v>1.38</v>
@@ -27697,7 +27706,7 @@
         <v>176</v>
       </c>
       <c r="P140" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q140">
         <v>10</v>
@@ -27784,7 +27793,7 @@
         <v>1.44</v>
       </c>
       <c r="AS140">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AT140">
         <v>1.36</v>
@@ -27888,7 +27897,7 @@
         <v>94</v>
       </c>
       <c r="P141" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q141">
         <v>12</v>
@@ -27978,7 +27987,7 @@
         <v>1.45</v>
       </c>
       <c r="AT141">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU141">
         <v>1.8</v>
@@ -28270,7 +28279,7 @@
         <v>94</v>
       </c>
       <c r="P143" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q143">
         <v>5</v>
@@ -28461,7 +28470,7 @@
         <v>177</v>
       </c>
       <c r="P144" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q144">
         <v>2</v>
@@ -28548,7 +28557,7 @@
         <v>1.22</v>
       </c>
       <c r="AS144">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT144">
         <v>1.18</v>
@@ -28652,7 +28661,7 @@
         <v>94</v>
       </c>
       <c r="P145" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q145">
         <v>4</v>
@@ -28742,7 +28751,7 @@
         <v>1.55</v>
       </c>
       <c r="AT145">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU145">
         <v>1.55</v>
@@ -28843,7 +28852,7 @@
         <v>178</v>
       </c>
       <c r="P146" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q146">
         <v>8</v>
@@ -29034,7 +29043,7 @@
         <v>94</v>
       </c>
       <c r="P147" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q147">
         <v>6</v>
@@ -29416,7 +29425,7 @@
         <v>92</v>
       </c>
       <c r="P149" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q149">
         <v>2</v>
@@ -29558,6 +29567,388 @@
       </c>
       <c r="BK149">
         <v>11</v>
+      </c>
+    </row>
+    <row r="150" spans="1:63">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>6151273</v>
+      </c>
+      <c r="C150" t="s">
+        <v>63</v>
+      </c>
+      <c r="D150" t="s">
+        <v>64</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45087.75</v>
+      </c>
+      <c r="F150">
+        <v>22</v>
+      </c>
+      <c r="G150" t="s">
+        <v>66</v>
+      </c>
+      <c r="H150" t="s">
+        <v>67</v>
+      </c>
+      <c r="I150">
+        <v>2</v>
+      </c>
+      <c r="J150">
+        <v>1</v>
+      </c>
+      <c r="K150">
+        <v>3</v>
+      </c>
+      <c r="L150">
+        <v>2</v>
+      </c>
+      <c r="M150">
+        <v>2</v>
+      </c>
+      <c r="N150">
+        <v>4</v>
+      </c>
+      <c r="O150" t="s">
+        <v>179</v>
+      </c>
+      <c r="P150" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q150">
+        <v>6</v>
+      </c>
+      <c r="R150">
+        <v>9</v>
+      </c>
+      <c r="S150">
+        <v>15</v>
+      </c>
+      <c r="T150">
+        <v>2.15</v>
+      </c>
+      <c r="U150">
+        <v>2.11</v>
+      </c>
+      <c r="V150">
+        <v>5.6</v>
+      </c>
+      <c r="W150">
+        <v>1.41</v>
+      </c>
+      <c r="X150">
+        <v>2.69</v>
+      </c>
+      <c r="Y150">
+        <v>2.94</v>
+      </c>
+      <c r="Z150">
+        <v>1.35</v>
+      </c>
+      <c r="AA150">
+        <v>7.5</v>
+      </c>
+      <c r="AB150">
+        <v>1.06</v>
+      </c>
+      <c r="AC150">
+        <v>1.57</v>
+      </c>
+      <c r="AD150">
+        <v>3.6</v>
+      </c>
+      <c r="AE150">
+        <v>5</v>
+      </c>
+      <c r="AF150">
+        <v>1.03</v>
+      </c>
+      <c r="AG150">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AH150">
+        <v>1.32</v>
+      </c>
+      <c r="AI150">
+        <v>2.98</v>
+      </c>
+      <c r="AJ150">
+        <v>2.14</v>
+      </c>
+      <c r="AK150">
+        <v>1.65</v>
+      </c>
+      <c r="AL150">
+        <v>1.97</v>
+      </c>
+      <c r="AM150">
+        <v>1.71</v>
+      </c>
+      <c r="AN150">
+        <v>1.12</v>
+      </c>
+      <c r="AO150">
+        <v>1.23</v>
+      </c>
+      <c r="AP150">
+        <v>2.16</v>
+      </c>
+      <c r="AQ150">
+        <v>2.2</v>
+      </c>
+      <c r="AR150">
+        <v>1.6</v>
+      </c>
+      <c r="AS150">
+        <v>2.09</v>
+      </c>
+      <c r="AT150">
+        <v>1.55</v>
+      </c>
+      <c r="AU150">
+        <v>1.62</v>
+      </c>
+      <c r="AV150">
+        <v>1.46</v>
+      </c>
+      <c r="AW150">
+        <v>3.08</v>
+      </c>
+      <c r="AX150">
+        <v>1.41</v>
+      </c>
+      <c r="AY150">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ150">
+        <v>3.4</v>
+      </c>
+      <c r="BA150">
+        <v>1.51</v>
+      </c>
+      <c r="BB150">
+        <v>1.87</v>
+      </c>
+      <c r="BC150">
+        <v>2.34</v>
+      </c>
+      <c r="BD150">
+        <v>3.28</v>
+      </c>
+      <c r="BE150">
+        <v>0</v>
+      </c>
+      <c r="BF150">
+        <v>5</v>
+      </c>
+      <c r="BG150">
+        <v>7</v>
+      </c>
+      <c r="BH150">
+        <v>1</v>
+      </c>
+      <c r="BI150">
+        <v>4</v>
+      </c>
+      <c r="BJ150">
+        <v>6</v>
+      </c>
+      <c r="BK150">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="151" spans="1:63">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>6151274</v>
+      </c>
+      <c r="C151" t="s">
+        <v>63</v>
+      </c>
+      <c r="D151" t="s">
+        <v>64</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45087.75</v>
+      </c>
+      <c r="F151">
+        <v>22</v>
+      </c>
+      <c r="G151" t="s">
+        <v>68</v>
+      </c>
+      <c r="H151" t="s">
+        <v>73</v>
+      </c>
+      <c r="I151">
+        <v>1</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>1</v>
+      </c>
+      <c r="L151">
+        <v>2</v>
+      </c>
+      <c r="M151">
+        <v>0</v>
+      </c>
+      <c r="N151">
+        <v>2</v>
+      </c>
+      <c r="O151" t="s">
+        <v>180</v>
+      </c>
+      <c r="P151" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q151">
+        <v>2</v>
+      </c>
+      <c r="R151">
+        <v>6</v>
+      </c>
+      <c r="S151">
+        <v>8</v>
+      </c>
+      <c r="T151">
+        <v>2.07</v>
+      </c>
+      <c r="U151">
+        <v>2.12</v>
+      </c>
+      <c r="V151">
+        <v>6.15</v>
+      </c>
+      <c r="W151">
+        <v>1.43</v>
+      </c>
+      <c r="X151">
+        <v>2.62</v>
+      </c>
+      <c r="Y151">
+        <v>3.04</v>
+      </c>
+      <c r="Z151">
+        <v>1.33</v>
+      </c>
+      <c r="AA151">
+        <v>7.8</v>
+      </c>
+      <c r="AB151">
+        <v>1.05</v>
+      </c>
+      <c r="AC151">
+        <v>1.44</v>
+      </c>
+      <c r="AD151">
+        <v>3.75</v>
+      </c>
+      <c r="AE151">
+        <v>6.5</v>
+      </c>
+      <c r="AF151">
+        <v>1.03</v>
+      </c>
+      <c r="AG151">
+        <v>8.1</v>
+      </c>
+      <c r="AH151">
+        <v>1.33</v>
+      </c>
+      <c r="AI151">
+        <v>2.93</v>
+      </c>
+      <c r="AJ151">
+        <v>2.05</v>
+      </c>
+      <c r="AK151">
+        <v>1.7</v>
+      </c>
+      <c r="AL151">
+        <v>2.14</v>
+      </c>
+      <c r="AM151">
+        <v>1.6</v>
+      </c>
+      <c r="AN151">
+        <v>1.08</v>
+      </c>
+      <c r="AO151">
+        <v>1.22</v>
+      </c>
+      <c r="AP151">
+        <v>2.39</v>
+      </c>
+      <c r="AQ151">
+        <v>2</v>
+      </c>
+      <c r="AR151">
+        <v>1</v>
+      </c>
+      <c r="AS151">
+        <v>2.09</v>
+      </c>
+      <c r="AT151">
+        <v>0.91</v>
+      </c>
+      <c r="AU151">
+        <v>1.37</v>
+      </c>
+      <c r="AV151">
+        <v>1.2</v>
+      </c>
+      <c r="AW151">
+        <v>2.57</v>
+      </c>
+      <c r="AX151">
+        <v>1.29</v>
+      </c>
+      <c r="AY151">
+        <v>9.6</v>
+      </c>
+      <c r="AZ151">
+        <v>4.25</v>
+      </c>
+      <c r="BA151">
+        <v>1.35</v>
+      </c>
+      <c r="BB151">
+        <v>1.73</v>
+      </c>
+      <c r="BC151">
+        <v>2.15</v>
+      </c>
+      <c r="BD151">
+        <v>2.79</v>
+      </c>
+      <c r="BE151">
+        <v>3.9</v>
+      </c>
+      <c r="BF151">
+        <v>3</v>
+      </c>
+      <c r="BG151">
+        <v>3</v>
+      </c>
+      <c r="BH151">
+        <v>4</v>
+      </c>
+      <c r="BI151">
+        <v>4</v>
+      </c>
+      <c r="BJ151">
+        <v>7</v>
+      </c>
+      <c r="BK151">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera B_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="245">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -508,16 +508,16 @@
     <t>['44', '86', '88']</t>
   </si>
   <si>
-    <t>['24']</t>
+    <t>['74', '78']</t>
+  </si>
+  <si>
+    <t>['70', '72', '79']</t>
   </si>
   <si>
     <t>['23', '90']</t>
   </si>
   <si>
-    <t>['74', '78']</t>
-  </si>
-  <si>
-    <t>['70', '72', '79']</t>
+    <t>['24']</t>
   </si>
   <si>
     <t>['21', '59']</t>
@@ -556,7 +556,10 @@
     <t>['25', '38']</t>
   </si>
   <si>
-    <t>['18', '60']</t>
+    <t>['18', '61']</t>
+  </si>
+  <si>
+    <t>['33', '86']</t>
   </si>
   <si>
     <t>['47', '90+7']</t>
@@ -703,13 +706,13 @@
     <t>['21', '57', '79']</t>
   </si>
   <si>
-    <t>['38', '48']</t>
+    <t>['12', '42']</t>
   </si>
   <si>
     <t>['44', '90+3']</t>
   </si>
   <si>
-    <t>['12', '42']</t>
+    <t>['38', '48']</t>
   </si>
   <si>
     <t>['8', '53']</t>
@@ -743,6 +746,9 @@
   </si>
   <si>
     <t>['11', '72']</t>
+  </si>
+  <si>
+    <t>['63']</t>
   </si>
 </sst>
 </file>
@@ -1104,7 +1110,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK151"/>
+  <dimension ref="A1:BK153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1348,7 +1354,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -2112,7 +2118,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2303,7 +2309,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2494,7 +2500,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -2581,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT8">
         <v>1.36</v>
@@ -2775,7 +2781,7 @@
         <v>1.75</v>
       </c>
       <c r="AT9">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2876,7 +2882,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -3640,7 +3646,7 @@
         <v>93</v>
       </c>
       <c r="P14" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3727,7 +3733,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AT14">
         <v>1.55</v>
@@ -3831,7 +3837,7 @@
         <v>94</v>
       </c>
       <c r="P15" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q15">
         <v>9</v>
@@ -4213,7 +4219,7 @@
         <v>96</v>
       </c>
       <c r="P17" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4404,7 +4410,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4494,7 +4500,7 @@
         <v>1.45</v>
       </c>
       <c r="AT18">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU18">
         <v>0.96</v>
@@ -5449,7 +5455,7 @@
         <v>1.5</v>
       </c>
       <c r="AT23">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU23">
         <v>1.34</v>
@@ -5831,7 +5837,7 @@
         <v>1.91</v>
       </c>
       <c r="AT25">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU25">
         <v>2.14</v>
@@ -5932,7 +5938,7 @@
         <v>103</v>
       </c>
       <c r="P26" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q26">
         <v>7</v>
@@ -6019,7 +6025,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AT26">
         <v>0.63</v>
@@ -6314,7 +6320,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6592,7 +6598,7 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT29">
         <v>0.91</v>
@@ -6696,7 +6702,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -6887,7 +6893,7 @@
         <v>94</v>
       </c>
       <c r="P31" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -7460,7 +7466,7 @@
         <v>94</v>
       </c>
       <c r="P34" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q34">
         <v>1</v>
@@ -7842,7 +7848,7 @@
         <v>111</v>
       </c>
       <c r="P36" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8693,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AT40">
         <v>0.63</v>
@@ -8797,7 +8803,7 @@
         <v>94</v>
       </c>
       <c r="P41" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q41">
         <v>10</v>
@@ -8887,7 +8893,7 @@
         <v>1.75</v>
       </c>
       <c r="AT41">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU41">
         <v>1.75</v>
@@ -8988,7 +8994,7 @@
         <v>94</v>
       </c>
       <c r="P42" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q42">
         <v>7</v>
@@ -9179,7 +9185,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9370,7 +9376,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q44">
         <v>7</v>
@@ -10325,7 +10331,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10794,7 +10800,7 @@
         <v>0</v>
       </c>
       <c r="AS51">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AT51">
         <v>0.88</v>
@@ -10898,7 +10904,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -10988,7 +10994,7 @@
         <v>1</v>
       </c>
       <c r="AT52">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU52">
         <v>1.29</v>
@@ -11176,7 +11182,7 @@
         <v>0.33</v>
       </c>
       <c r="AS53">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT53">
         <v>0.75</v>
@@ -12235,7 +12241,7 @@
         <v>94</v>
       </c>
       <c r="P59" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -12617,7 +12623,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q61">
         <v>2</v>
@@ -12898,7 +12904,7 @@
         <v>2.09</v>
       </c>
       <c r="AT62">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU62">
         <v>1.26</v>
@@ -12999,7 +13005,7 @@
         <v>129</v>
       </c>
       <c r="P63" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q63">
         <v>6</v>
@@ -13190,7 +13196,7 @@
         <v>94</v>
       </c>
       <c r="P64" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -13471,7 +13477,7 @@
         <v>2.09</v>
       </c>
       <c r="AT65">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU65">
         <v>1.45</v>
@@ -13572,7 +13578,7 @@
         <v>131</v>
       </c>
       <c r="P66" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q66">
         <v>9</v>
@@ -13954,7 +13960,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -14145,7 +14151,7 @@
         <v>94</v>
       </c>
       <c r="P69" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q69">
         <v>12</v>
@@ -14232,7 +14238,7 @@
         <v>0</v>
       </c>
       <c r="AS69">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT69">
         <v>1.5</v>
@@ -14527,7 +14533,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q71">
         <v>1</v>
@@ -14909,7 +14915,7 @@
         <v>94</v>
       </c>
       <c r="P73" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q73">
         <v>8</v>
@@ -15100,7 +15106,7 @@
         <v>94</v>
       </c>
       <c r="P74" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q74">
         <v>2</v>
@@ -15291,7 +15297,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q75">
         <v>8</v>
@@ -15482,7 +15488,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q76">
         <v>9</v>
@@ -15572,7 +15578,7 @@
         <v>1.55</v>
       </c>
       <c r="AT76">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU76">
         <v>1.13</v>
@@ -15673,7 +15679,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q77">
         <v>7</v>
@@ -15864,7 +15870,7 @@
         <v>138</v>
       </c>
       <c r="P78" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q78">
         <v>9</v>
@@ -15951,7 +15957,7 @@
         <v>0.5</v>
       </c>
       <c r="AS78">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AT78">
         <v>0.38</v>
@@ -16437,7 +16443,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -16819,7 +16825,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q83">
         <v>0</v>
@@ -16906,7 +16912,7 @@
         <v>1.2</v>
       </c>
       <c r="AS83">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT83">
         <v>1.18</v>
@@ -17010,7 +17016,7 @@
         <v>94</v>
       </c>
       <c r="P84" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -17100,7 +17106,7 @@
         <v>1.45</v>
       </c>
       <c r="AT84">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU84">
         <v>1.75</v>
@@ -17201,7 +17207,7 @@
         <v>142</v>
       </c>
       <c r="P85" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -17583,7 +17589,7 @@
         <v>94</v>
       </c>
       <c r="P87" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -17774,7 +17780,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q88">
         <v>9</v>
@@ -18055,7 +18061,7 @@
         <v>1.13</v>
       </c>
       <c r="AT89">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU89">
         <v>1.27</v>
@@ -18156,7 +18162,7 @@
         <v>94</v>
       </c>
       <c r="P90" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q90">
         <v>12</v>
@@ -18434,10 +18440,10 @@
         <v>1.2</v>
       </c>
       <c r="AS91">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AT91">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU91">
         <v>1.41</v>
@@ -18538,7 +18544,7 @@
         <v>94</v>
       </c>
       <c r="P92" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q92">
         <v>3</v>
@@ -18729,7 +18735,7 @@
         <v>145</v>
       </c>
       <c r="P93" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q93">
         <v>8</v>
@@ -18920,7 +18926,7 @@
         <v>94</v>
       </c>
       <c r="P94" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q94">
         <v>4</v>
@@ -19111,7 +19117,7 @@
         <v>94</v>
       </c>
       <c r="P95" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q95">
         <v>6</v>
@@ -19389,10 +19395,10 @@
         <v>0.83</v>
       </c>
       <c r="AS96">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT96">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU96">
         <v>1.42</v>
@@ -19493,7 +19499,7 @@
         <v>146</v>
       </c>
       <c r="P97" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q97">
         <v>10</v>
@@ -19833,7 +19839,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>5139176</v>
+        <v>5139177</v>
       </c>
       <c r="C99" t="s">
         <v>63</v>
@@ -19848,175 +19854,175 @@
         <v>13</v>
       </c>
       <c r="G99" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="H99" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K99">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M99">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N99">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O99" t="s">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c r="P99" t="s">
-        <v>94</v>
+        <v>223</v>
       </c>
       <c r="Q99">
         <v>7</v>
       </c>
       <c r="R99">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="S99">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="T99">
-        <v>3.1</v>
+        <v>3.86</v>
       </c>
       <c r="U99">
+        <v>2.1</v>
+      </c>
+      <c r="V99">
+        <v>3.11</v>
+      </c>
+      <c r="W99">
+        <v>1.44</v>
+      </c>
+      <c r="X99">
+        <v>2.52</v>
+      </c>
+      <c r="Y99">
+        <v>3.25</v>
+      </c>
+      <c r="Z99">
+        <v>1.22</v>
+      </c>
+      <c r="AA99">
+        <v>7.9</v>
+      </c>
+      <c r="AB99">
+        <v>1.05</v>
+      </c>
+      <c r="AC99">
+        <v>2.91</v>
+      </c>
+      <c r="AD99">
+        <v>3.15</v>
+      </c>
+      <c r="AE99">
+        <v>2.25</v>
+      </c>
+      <c r="AF99">
+        <v>1.06</v>
+      </c>
+      <c r="AG99">
+        <v>9.5</v>
+      </c>
+      <c r="AH99">
+        <v>1.33</v>
+      </c>
+      <c r="AI99">
+        <v>3.03</v>
+      </c>
+      <c r="AJ99">
+        <v>2.06</v>
+      </c>
+      <c r="AK99">
+        <v>1.68</v>
+      </c>
+      <c r="AL99">
         <v>1.85</v>
       </c>
-      <c r="V99">
-        <v>4</v>
-      </c>
-      <c r="W99">
-        <v>1.52</v>
-      </c>
-      <c r="X99">
-        <v>2.11</v>
-      </c>
-      <c r="Y99">
-        <v>3.74</v>
-      </c>
-      <c r="Z99">
-        <v>1.23</v>
-      </c>
-      <c r="AA99">
-        <v>10</v>
-      </c>
-      <c r="AB99">
-        <v>1.02</v>
-      </c>
-      <c r="AC99">
-        <v>2.25</v>
-      </c>
-      <c r="AD99">
-        <v>2.85</v>
-      </c>
-      <c r="AE99">
-        <v>3.23</v>
-      </c>
-      <c r="AF99">
-        <v>1.12</v>
-      </c>
-      <c r="AG99">
-        <v>5.75</v>
-      </c>
-      <c r="AH99">
-        <v>1.5</v>
-      </c>
-      <c r="AI99">
-        <v>2.3</v>
-      </c>
-      <c r="AJ99">
-        <v>2.73</v>
-      </c>
-      <c r="AK99">
-        <v>1.4</v>
-      </c>
-      <c r="AL99">
-        <v>2</v>
-      </c>
       <c r="AM99">
-        <v>1.62</v>
+        <v>1.91</v>
       </c>
       <c r="AN99">
-        <v>1.32</v>
+        <v>1.56</v>
       </c>
       <c r="AO99">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="AP99">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="AQ99">
-        <v>1.67</v>
+        <v>0.33</v>
       </c>
       <c r="AR99">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AS99">
-        <v>1.75</v>
+        <v>0.63</v>
       </c>
       <c r="AT99">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU99">
-        <v>1.73</v>
+        <v>1.24</v>
       </c>
       <c r="AV99">
-        <v>1.06</v>
+        <v>1.6</v>
       </c>
       <c r="AW99">
-        <v>2.79</v>
+        <v>2.84</v>
       </c>
       <c r="AX99">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="AY99">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AZ99">
-        <v>2.36</v>
+        <v>0</v>
       </c>
       <c r="BA99">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="BB99">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="BC99">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="BD99">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="BE99">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="BF99">
+        <v>5</v>
+      </c>
+      <c r="BG99">
+        <v>12</v>
+      </c>
+      <c r="BH99">
         <v>7</v>
       </c>
-      <c r="BG99">
-        <v>0</v>
-      </c>
-      <c r="BH99">
-        <v>5</v>
-      </c>
       <c r="BI99">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="BJ99">
         <v>12</v>
       </c>
       <c r="BK99">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100" spans="1:63">
@@ -20024,7 +20030,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>5139177</v>
+        <v>5139176</v>
       </c>
       <c r="C100" t="s">
         <v>63</v>
@@ -20039,175 +20045,175 @@
         <v>13</v>
       </c>
       <c r="G100" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="H100" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="I100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K100">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M100">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N100">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O100" t="s">
-        <v>148</v>
+        <v>94</v>
       </c>
       <c r="P100" t="s">
-        <v>222</v>
+        <v>94</v>
       </c>
       <c r="Q100">
         <v>7</v>
       </c>
       <c r="R100">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="S100">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="T100">
-        <v>3.86</v>
+        <v>3.1</v>
       </c>
       <c r="U100">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="V100">
-        <v>3.11</v>
+        <v>4</v>
       </c>
       <c r="W100">
+        <v>1.52</v>
+      </c>
+      <c r="X100">
+        <v>2.11</v>
+      </c>
+      <c r="Y100">
+        <v>3.74</v>
+      </c>
+      <c r="Z100">
+        <v>1.23</v>
+      </c>
+      <c r="AA100">
+        <v>10</v>
+      </c>
+      <c r="AB100">
+        <v>1.02</v>
+      </c>
+      <c r="AC100">
+        <v>2.25</v>
+      </c>
+      <c r="AD100">
+        <v>2.85</v>
+      </c>
+      <c r="AE100">
+        <v>3.23</v>
+      </c>
+      <c r="AF100">
+        <v>1.12</v>
+      </c>
+      <c r="AG100">
+        <v>5.75</v>
+      </c>
+      <c r="AH100">
+        <v>1.5</v>
+      </c>
+      <c r="AI100">
+        <v>2.3</v>
+      </c>
+      <c r="AJ100">
+        <v>2.73</v>
+      </c>
+      <c r="AK100">
+        <v>1.4</v>
+      </c>
+      <c r="AL100">
+        <v>2</v>
+      </c>
+      <c r="AM100">
+        <v>1.62</v>
+      </c>
+      <c r="AN100">
+        <v>1.32</v>
+      </c>
+      <c r="AO100">
+        <v>1.31</v>
+      </c>
+      <c r="AP100">
         <v>1.44</v>
       </c>
-      <c r="X100">
-        <v>2.52</v>
-      </c>
-      <c r="Y100">
-        <v>3.25</v>
-      </c>
-      <c r="Z100">
-        <v>1.22</v>
-      </c>
-      <c r="AA100">
-        <v>7.9</v>
-      </c>
-      <c r="AB100">
-        <v>1.05</v>
-      </c>
-      <c r="AC100">
-        <v>2.91</v>
-      </c>
-      <c r="AD100">
-        <v>3.15</v>
-      </c>
-      <c r="AE100">
+      <c r="AQ100">
+        <v>1.67</v>
+      </c>
+      <c r="AR100">
+        <v>1.5</v>
+      </c>
+      <c r="AS100">
+        <v>1.75</v>
+      </c>
+      <c r="AT100">
+        <v>1.36</v>
+      </c>
+      <c r="AU100">
+        <v>1.73</v>
+      </c>
+      <c r="AV100">
+        <v>1.06</v>
+      </c>
+      <c r="AW100">
+        <v>2.79</v>
+      </c>
+      <c r="AX100">
+        <v>1.75</v>
+      </c>
+      <c r="AY100">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ100">
+        <v>2.36</v>
+      </c>
+      <c r="BA100">
+        <v>1.41</v>
+      </c>
+      <c r="BB100">
+        <v>1.74</v>
+      </c>
+      <c r="BC100">
         <v>2.25</v>
       </c>
-      <c r="AF100">
-        <v>1.06</v>
-      </c>
-      <c r="AG100">
-        <v>9.5</v>
-      </c>
-      <c r="AH100">
-        <v>1.33</v>
-      </c>
-      <c r="AI100">
-        <v>3.03</v>
-      </c>
-      <c r="AJ100">
-        <v>2.06</v>
-      </c>
-      <c r="AK100">
-        <v>1.68</v>
-      </c>
-      <c r="AL100">
-        <v>1.85</v>
-      </c>
-      <c r="AM100">
-        <v>1.91</v>
-      </c>
-      <c r="AN100">
-        <v>1.56</v>
-      </c>
-      <c r="AO100">
-        <v>1.3</v>
-      </c>
-      <c r="AP100">
-        <v>1.33</v>
-      </c>
-      <c r="AQ100">
-        <v>0.33</v>
-      </c>
-      <c r="AR100">
-        <v>1.2</v>
-      </c>
-      <c r="AS100">
-        <v>0.63</v>
-      </c>
-      <c r="AT100">
-        <v>1.25</v>
-      </c>
-      <c r="AU100">
-        <v>1.24</v>
-      </c>
-      <c r="AV100">
-        <v>1.6</v>
-      </c>
-      <c r="AW100">
-        <v>2.84</v>
-      </c>
-      <c r="AX100">
-        <v>0</v>
-      </c>
-      <c r="AY100">
-        <v>0</v>
-      </c>
-      <c r="AZ100">
-        <v>0</v>
-      </c>
-      <c r="BA100">
-        <v>0</v>
-      </c>
-      <c r="BB100">
-        <v>0</v>
-      </c>
-      <c r="BC100">
-        <v>0</v>
-      </c>
       <c r="BD100">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="BE100">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="BF100">
+        <v>7</v>
+      </c>
+      <c r="BG100">
+        <v>0</v>
+      </c>
+      <c r="BH100">
         <v>5</v>
       </c>
-      <c r="BG100">
-        <v>12</v>
-      </c>
-      <c r="BH100">
-        <v>7</v>
-      </c>
       <c r="BI100">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="BJ100">
         <v>12</v>
       </c>
       <c r="BK100">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:63">
@@ -21212,7 +21218,7 @@
         <v>152</v>
       </c>
       <c r="P106" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q106">
         <v>2</v>
@@ -21403,7 +21409,7 @@
         <v>153</v>
       </c>
       <c r="P107" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q107">
         <v>6</v>
@@ -22066,7 +22072,7 @@
         <v>1.5</v>
       </c>
       <c r="AT110">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU110">
         <v>1.3</v>
@@ -22254,7 +22260,7 @@
         <v>0.33</v>
       </c>
       <c r="AS111">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AT111">
         <v>0.25</v>
@@ -22445,7 +22451,7 @@
         <v>1.83</v>
       </c>
       <c r="AS112">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT112">
         <v>1.55</v>
@@ -22549,7 +22555,7 @@
         <v>158</v>
       </c>
       <c r="P113" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q113">
         <v>9</v>
@@ -23212,7 +23218,7 @@
         <v>1.5</v>
       </c>
       <c r="AT116">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU116">
         <v>1.62</v>
@@ -23504,7 +23510,7 @@
         <v>161</v>
       </c>
       <c r="P118" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -23591,7 +23597,7 @@
         <v>1.86</v>
       </c>
       <c r="AS118">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AT118">
         <v>1.27</v>
@@ -24077,7 +24083,7 @@
         <v>163</v>
       </c>
       <c r="P121" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24268,7 +24274,7 @@
         <v>158</v>
       </c>
       <c r="P122" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q122">
         <v>1</v>
@@ -24417,7 +24423,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>5139197</v>
+        <v>5139203</v>
       </c>
       <c r="C123" t="s">
         <v>63</v>
@@ -24432,172 +24438,172 @@
         <v>16</v>
       </c>
       <c r="G123" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H123" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="I123">
         <v>0</v>
       </c>
       <c r="J123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N123">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O123" t="s">
-        <v>94</v>
+        <v>164</v>
       </c>
       <c r="P123" t="s">
-        <v>94</v>
+        <v>230</v>
       </c>
       <c r="Q123">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="R123">
         <v>4</v>
       </c>
       <c r="S123">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="T123">
-        <v>2.37</v>
+        <v>2.5</v>
       </c>
       <c r="U123">
-        <v>1.99</v>
+        <v>2.15</v>
       </c>
       <c r="V123">
-        <v>5.55</v>
+        <v>4.2</v>
       </c>
       <c r="W123">
-        <v>1.48</v>
+        <v>1.36</v>
       </c>
       <c r="X123">
+        <v>2.88</v>
+      </c>
+      <c r="Y123">
+        <v>2.62</v>
+      </c>
+      <c r="Z123">
+        <v>1.42</v>
+      </c>
+      <c r="AA123">
+        <v>6.6</v>
+      </c>
+      <c r="AB123">
+        <v>1.08</v>
+      </c>
+      <c r="AC123">
+        <v>1.95</v>
+      </c>
+      <c r="AD123">
+        <v>3.3</v>
+      </c>
+      <c r="AE123">
+        <v>3.5</v>
+      </c>
+      <c r="AF123">
+        <v>1.03</v>
+      </c>
+      <c r="AG123">
+        <v>14.75</v>
+      </c>
+      <c r="AH123">
+        <v>1.29</v>
+      </c>
+      <c r="AI123">
+        <v>3.4</v>
+      </c>
+      <c r="AJ123">
+        <v>1.86</v>
+      </c>
+      <c r="AK123">
+        <v>1.9</v>
+      </c>
+      <c r="AL123">
+        <v>1.73</v>
+      </c>
+      <c r="AM123">
+        <v>2</v>
+      </c>
+      <c r="AN123">
+        <v>1.29</v>
+      </c>
+      <c r="AO123">
+        <v>1.29</v>
+      </c>
+      <c r="AP123">
+        <v>1.85</v>
+      </c>
+      <c r="AQ123">
+        <v>1.71</v>
+      </c>
+      <c r="AR123">
+        <v>1.29</v>
+      </c>
+      <c r="AS123">
+        <v>1.55</v>
+      </c>
+      <c r="AT123">
+        <v>1.25</v>
+      </c>
+      <c r="AU123">
+        <v>1.31</v>
+      </c>
+      <c r="AV123">
+        <v>1.84</v>
+      </c>
+      <c r="AW123">
+        <v>3.15</v>
+      </c>
+      <c r="AX123">
+        <v>1.67</v>
+      </c>
+      <c r="AY123">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ123">
         <v>2.47</v>
       </c>
-      <c r="Y123">
-        <v>3.28</v>
-      </c>
-      <c r="Z123">
-        <v>1.29</v>
-      </c>
-      <c r="AA123">
-        <v>8.5</v>
-      </c>
-      <c r="AB123">
-        <v>1.05</v>
-      </c>
-      <c r="AC123">
-        <v>1.67</v>
-      </c>
-      <c r="AD123">
-        <v>3.5</v>
-      </c>
-      <c r="AE123">
-        <v>4.75</v>
-      </c>
-      <c r="AF123">
-        <v>1.08</v>
-      </c>
-      <c r="AG123">
-        <v>6.5</v>
-      </c>
-      <c r="AH123">
-        <v>1.41</v>
-      </c>
-      <c r="AI123">
-        <v>2.7</v>
-      </c>
-      <c r="AJ123">
-        <v>2.48</v>
-      </c>
-      <c r="AK123">
-        <v>1.5</v>
-      </c>
-      <c r="AL123">
-        <v>2.09</v>
-      </c>
-      <c r="AM123">
-        <v>1.7</v>
-      </c>
-      <c r="AN123">
-        <v>1.15</v>
-      </c>
-      <c r="AO123">
+      <c r="BA123">
         <v>1.27</v>
       </c>
-      <c r="AP123">
-        <v>1.96</v>
-      </c>
-      <c r="AQ123">
-        <v>2</v>
-      </c>
-      <c r="AR123">
-        <v>0.57</v>
-      </c>
-      <c r="AS123">
-        <v>1.45</v>
-      </c>
-      <c r="AT123">
-        <v>0.63</v>
-      </c>
-      <c r="AU123">
-        <v>1.63</v>
-      </c>
-      <c r="AV123">
-        <v>1</v>
-      </c>
-      <c r="AW123">
-        <v>2.63</v>
-      </c>
-      <c r="AX123">
-        <v>1.69</v>
-      </c>
-      <c r="AY123">
+      <c r="BB123">
+        <v>1.44</v>
+      </c>
+      <c r="BC123">
+        <v>1.78</v>
+      </c>
+      <c r="BD123">
+        <v>2.28</v>
+      </c>
+      <c r="BE123">
+        <v>3</v>
+      </c>
+      <c r="BF123">
+        <v>10</v>
+      </c>
+      <c r="BG123">
         <v>8</v>
       </c>
-      <c r="AZ123">
-        <v>2.49</v>
-      </c>
-      <c r="BA123">
-        <v>1.52</v>
-      </c>
-      <c r="BB123">
-        <v>1.87</v>
-      </c>
-      <c r="BC123">
-        <v>2.35</v>
-      </c>
-      <c r="BD123">
-        <v>0</v>
-      </c>
-      <c r="BE123">
-        <v>0</v>
-      </c>
-      <c r="BF123">
-        <v>5</v>
-      </c>
-      <c r="BG123">
+      <c r="BH123">
+        <v>15</v>
+      </c>
+      <c r="BI123">
         <v>3</v>
       </c>
-      <c r="BH123">
-        <v>7</v>
-      </c>
-      <c r="BI123">
-        <v>8</v>
-      </c>
       <c r="BJ123">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="BK123">
         <v>11</v>
@@ -24608,7 +24614,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>5139199</v>
+        <v>5139204</v>
       </c>
       <c r="C124" t="s">
         <v>63</v>
@@ -24623,10 +24629,10 @@
         <v>16</v>
       </c>
       <c r="G124" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H124" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="I124">
         <v>0</v>
@@ -24638,160 +24644,160 @@
         <v>1</v>
       </c>
       <c r="L124">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N124">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O124" t="s">
-        <v>94</v>
+        <v>165</v>
       </c>
       <c r="P124" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="Q124">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="R124">
         <v>2</v>
       </c>
       <c r="S124">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="T124">
-        <v>3.8</v>
+        <v>2.66</v>
       </c>
       <c r="U124">
-        <v>1.8</v>
+        <v>2.01</v>
       </c>
       <c r="V124">
-        <v>3.5</v>
+        <v>5.23</v>
       </c>
       <c r="W124">
-        <v>1.66</v>
+        <v>1.54</v>
       </c>
       <c r="X124">
+        <v>2.44</v>
+      </c>
+      <c r="Y124">
+        <v>3.56</v>
+      </c>
+      <c r="Z124">
+        <v>1.25</v>
+      </c>
+      <c r="AA124">
+        <v>9.5</v>
+      </c>
+      <c r="AB124">
+        <v>1.03</v>
+      </c>
+      <c r="AC124">
+        <v>1.87</v>
+      </c>
+      <c r="AD124">
+        <v>3.2</v>
+      </c>
+      <c r="AE124">
+        <v>4.1</v>
+      </c>
+      <c r="AF124">
+        <v>1.1</v>
+      </c>
+      <c r="AG124">
+        <v>6.25</v>
+      </c>
+      <c r="AH124">
+        <v>1.47</v>
+      </c>
+      <c r="AI124">
+        <v>2.45</v>
+      </c>
+      <c r="AJ124">
+        <v>2.55</v>
+      </c>
+      <c r="AK124">
+        <v>1.48</v>
+      </c>
+      <c r="AL124">
+        <v>2.22</v>
+      </c>
+      <c r="AM124">
+        <v>1.64</v>
+      </c>
+      <c r="AN124">
+        <v>1.19</v>
+      </c>
+      <c r="AO124">
+        <v>1.32</v>
+      </c>
+      <c r="AP124">
+        <v>1.97</v>
+      </c>
+      <c r="AQ124">
+        <v>1.57</v>
+      </c>
+      <c r="AR124">
+        <v>0.86</v>
+      </c>
+      <c r="AS124">
+        <v>1.75</v>
+      </c>
+      <c r="AT124">
+        <v>0.91</v>
+      </c>
+      <c r="AU124">
+        <v>1.73</v>
+      </c>
+      <c r="AV124">
+        <v>1.24</v>
+      </c>
+      <c r="AW124">
+        <v>2.97</v>
+      </c>
+      <c r="AX124">
+        <v>1.53</v>
+      </c>
+      <c r="AY124">
+        <v>8.6</v>
+      </c>
+      <c r="AZ124">
+        <v>2.88</v>
+      </c>
+      <c r="BA124">
+        <v>0</v>
+      </c>
+      <c r="BB124">
+        <v>1.69</v>
+      </c>
+      <c r="BC124">
         <v>2.1</v>
       </c>
-      <c r="Y124">
-        <v>4.1</v>
-      </c>
-      <c r="Z124">
-        <v>1.2</v>
-      </c>
-      <c r="AA124">
-        <v>11</v>
-      </c>
-      <c r="AB124">
-        <v>1.02</v>
-      </c>
-      <c r="AC124">
-        <v>2.9</v>
-      </c>
-      <c r="AD124">
-        <v>2.7</v>
-      </c>
-      <c r="AE124">
+      <c r="BD124">
         <v>2.63</v>
       </c>
-      <c r="AF124">
-        <v>1.13</v>
-      </c>
-      <c r="AG124">
-        <v>5.25</v>
-      </c>
-      <c r="AH124">
-        <v>1.6</v>
-      </c>
-      <c r="AI124">
-        <v>2.25</v>
-      </c>
-      <c r="AJ124">
-        <v>2.75</v>
-      </c>
-      <c r="AK124">
-        <v>1.42</v>
-      </c>
-      <c r="AL124">
-        <v>2.25</v>
-      </c>
-      <c r="AM124">
-        <v>1.57</v>
-      </c>
-      <c r="AN124">
-        <v>1.48</v>
-      </c>
-      <c r="AO124">
-        <v>1.44</v>
-      </c>
-      <c r="AP124">
-        <v>1.38</v>
-      </c>
-      <c r="AQ124">
-        <v>1.14</v>
-      </c>
-      <c r="AR124">
-        <v>1.29</v>
-      </c>
-      <c r="AS124">
-        <v>1</v>
-      </c>
-      <c r="AT124">
-        <v>1.36</v>
-      </c>
-      <c r="AU124">
-        <v>1.47</v>
-      </c>
-      <c r="AV124">
-        <v>1.26</v>
-      </c>
-      <c r="AW124">
-        <v>2.73</v>
-      </c>
-      <c r="AX124">
-        <v>2.03</v>
-      </c>
-      <c r="AY124">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AZ124">
-        <v>1.99</v>
-      </c>
-      <c r="BA124">
-        <v>1.3</v>
-      </c>
-      <c r="BB124">
-        <v>1.68</v>
-      </c>
-      <c r="BC124">
-        <v>2.11</v>
-      </c>
-      <c r="BD124">
-        <v>2.33</v>
-      </c>
       <c r="BE124">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="BF124">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="BG124">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BH124">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="BI124">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BJ124">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="BK124">
-        <v>7</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:63">
@@ -24799,7 +24805,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>5139200</v>
+        <v>5139202</v>
       </c>
       <c r="C125" t="s">
         <v>63</v>
@@ -24814,175 +24820,175 @@
         <v>16</v>
       </c>
       <c r="G125" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H125" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I125">
         <v>1</v>
       </c>
       <c r="J125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N125">
         <v>3</v>
       </c>
       <c r="O125" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P125" t="s">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="Q125">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R125">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="S125">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="T125">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U125">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="V125">
+        <v>6.25</v>
+      </c>
+      <c r="W125">
+        <v>1.35</v>
+      </c>
+      <c r="X125">
         <v>2.9</v>
       </c>
-      <c r="W125">
-        <v>1.48</v>
-      </c>
-      <c r="X125">
-        <v>2.45</v>
-      </c>
       <c r="Y125">
-        <v>3.1</v>
+        <v>2.65</v>
       </c>
       <c r="Z125">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="AA125">
-        <v>7.25</v>
+        <v>6</v>
       </c>
       <c r="AB125">
         <v>1.06</v>
       </c>
       <c r="AC125">
-        <v>3.76</v>
+        <v>1.44</v>
       </c>
       <c r="AD125">
-        <v>3.18</v>
+        <v>4.2</v>
       </c>
       <c r="AE125">
-        <v>2.15</v>
+        <v>6.5</v>
       </c>
       <c r="AF125">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="AG125">
-        <v>8.699999999999999</v>
+        <v>12.5</v>
       </c>
       <c r="AH125">
-        <v>1.43</v>
+        <v>1.26</v>
       </c>
       <c r="AI125">
-        <v>2.6</v>
+        <v>3.53</v>
       </c>
       <c r="AJ125">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="AK125">
-        <v>1.55</v>
+        <v>1.68</v>
       </c>
       <c r="AL125">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="AM125">
         <v>1.72</v>
       </c>
       <c r="AN125">
-        <v>1.62</v>
+        <v>1.11</v>
       </c>
       <c r="AO125">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="AP125">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ125">
-        <v>1.29</v>
+        <v>2.14</v>
       </c>
       <c r="AR125">
-        <v>0.86</v>
+        <v>0.29</v>
       </c>
       <c r="AS125">
-        <v>1.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT125">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="AU125">
-        <v>1.35</v>
+        <v>1.61</v>
       </c>
       <c r="AV125">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="AW125">
-        <v>2.47</v>
+        <v>2.62</v>
       </c>
       <c r="AX125">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="AY125">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="AZ125">
         <v>0</v>
       </c>
       <c r="BA125">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="BB125">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="BC125">
-        <v>1.65</v>
+        <v>1.98</v>
       </c>
       <c r="BD125">
-        <v>1.95</v>
+        <v>2.27</v>
       </c>
       <c r="BE125">
-        <v>2.46</v>
+        <v>0</v>
       </c>
       <c r="BF125">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BG125">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BH125">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BI125">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BJ125">
+        <v>6</v>
+      </c>
+      <c r="BK125">
         <v>8</v>
-      </c>
-      <c r="BK125">
-        <v>9</v>
       </c>
     </row>
     <row r="126" spans="1:63">
@@ -24990,7 +24996,7 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>5139201</v>
+        <v>5139197</v>
       </c>
       <c r="C126" t="s">
         <v>63</v>
@@ -25005,151 +25011,151 @@
         <v>16</v>
       </c>
       <c r="G126" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H126" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K126">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N126">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O126" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="P126" t="s">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c r="Q126">
+        <v>5</v>
+      </c>
+      <c r="R126">
         <v>4</v>
       </c>
-      <c r="R126">
-        <v>2</v>
-      </c>
       <c r="S126">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="T126">
-        <v>2.55</v>
+        <v>2.37</v>
       </c>
       <c r="U126">
-        <v>2.05</v>
+        <v>1.99</v>
       </c>
       <c r="V126">
-        <v>4.4</v>
+        <v>5.55</v>
       </c>
       <c r="W126">
+        <v>1.48</v>
+      </c>
+      <c r="X126">
+        <v>2.47</v>
+      </c>
+      <c r="Y126">
+        <v>3.28</v>
+      </c>
+      <c r="Z126">
+        <v>1.29</v>
+      </c>
+      <c r="AA126">
+        <v>8.5</v>
+      </c>
+      <c r="AB126">
+        <v>1.05</v>
+      </c>
+      <c r="AC126">
+        <v>1.67</v>
+      </c>
+      <c r="AD126">
+        <v>3.5</v>
+      </c>
+      <c r="AE126">
+        <v>4.75</v>
+      </c>
+      <c r="AF126">
+        <v>1.08</v>
+      </c>
+      <c r="AG126">
+        <v>6.5</v>
+      </c>
+      <c r="AH126">
+        <v>1.41</v>
+      </c>
+      <c r="AI126">
+        <v>2.7</v>
+      </c>
+      <c r="AJ126">
+        <v>2.48</v>
+      </c>
+      <c r="AK126">
+        <v>1.5</v>
+      </c>
+      <c r="AL126">
+        <v>2.09</v>
+      </c>
+      <c r="AM126">
+        <v>1.7</v>
+      </c>
+      <c r="AN126">
+        <v>1.15</v>
+      </c>
+      <c r="AO126">
+        <v>1.27</v>
+      </c>
+      <c r="AP126">
+        <v>1.96</v>
+      </c>
+      <c r="AQ126">
+        <v>2</v>
+      </c>
+      <c r="AR126">
+        <v>0.57</v>
+      </c>
+      <c r="AS126">
         <v>1.45</v>
       </c>
-      <c r="X126">
-        <v>2.6</v>
-      </c>
-      <c r="Y126">
-        <v>2.95</v>
-      </c>
-      <c r="Z126">
-        <v>1.35</v>
-      </c>
-      <c r="AA126">
-        <v>7</v>
-      </c>
-      <c r="AB126">
-        <v>1.07</v>
-      </c>
-      <c r="AC126">
+      <c r="AT126">
+        <v>0.63</v>
+      </c>
+      <c r="AU126">
+        <v>1.63</v>
+      </c>
+      <c r="AV126">
+        <v>1</v>
+      </c>
+      <c r="AW126">
+        <v>2.63</v>
+      </c>
+      <c r="AX126">
+        <v>1.69</v>
+      </c>
+      <c r="AY126">
+        <v>8</v>
+      </c>
+      <c r="AZ126">
+        <v>2.49</v>
+      </c>
+      <c r="BA126">
+        <v>1.52</v>
+      </c>
+      <c r="BB126">
         <v>1.87</v>
       </c>
-      <c r="AD126">
-        <v>3.1</v>
-      </c>
-      <c r="AE126">
-        <v>4.2</v>
-      </c>
-      <c r="AF126">
-        <v>1.06</v>
-      </c>
-      <c r="AG126">
-        <v>9.5</v>
-      </c>
-      <c r="AH126">
-        <v>1.5</v>
-      </c>
-      <c r="AI126">
-        <v>2.5</v>
-      </c>
-      <c r="AJ126">
-        <v>2.4</v>
-      </c>
-      <c r="AK126">
-        <v>1.53</v>
-      </c>
-      <c r="AL126">
-        <v>2.1</v>
-      </c>
-      <c r="AM126">
-        <v>1.63</v>
-      </c>
-      <c r="AN126">
-        <v>1.24</v>
-      </c>
-      <c r="AO126">
-        <v>1.33</v>
-      </c>
-      <c r="AP126">
-        <v>1.77</v>
-      </c>
-      <c r="AQ126">
-        <v>2.71</v>
-      </c>
-      <c r="AR126">
-        <v>1.43</v>
-      </c>
-      <c r="AS126">
-        <v>2.09</v>
-      </c>
-      <c r="AT126">
-        <v>1.36</v>
-      </c>
-      <c r="AU126">
-        <v>1.5</v>
-      </c>
-      <c r="AV126">
-        <v>0.97</v>
-      </c>
-      <c r="AW126">
-        <v>2.47</v>
-      </c>
-      <c r="AX126">
-        <v>0</v>
-      </c>
-      <c r="AY126">
-        <v>0</v>
-      </c>
-      <c r="AZ126">
-        <v>0</v>
-      </c>
-      <c r="BA126">
-        <v>1.51</v>
-      </c>
-      <c r="BB126">
-        <v>1.85</v>
-      </c>
       <c r="BC126">
-        <v>2.33</v>
+        <v>2.35</v>
       </c>
       <c r="BD126">
         <v>0</v>
@@ -25161,19 +25167,19 @@
         <v>5</v>
       </c>
       <c r="BG126">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BH126">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BI126">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BJ126">
+        <v>12</v>
+      </c>
+      <c r="BK126">
         <v>11</v>
-      </c>
-      <c r="BK126">
-        <v>7</v>
       </c>
     </row>
     <row r="127" spans="1:63">
@@ -25181,7 +25187,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>5139202</v>
+        <v>5139200</v>
       </c>
       <c r="C127" t="s">
         <v>63</v>
@@ -25196,175 +25202,175 @@
         <v>16</v>
       </c>
       <c r="G127" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H127" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="I127">
         <v>1</v>
       </c>
       <c r="J127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N127">
         <v>3</v>
       </c>
       <c r="O127" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P127" t="s">
-        <v>160</v>
+        <v>231</v>
       </c>
       <c r="Q127">
+        <v>2</v>
+      </c>
+      <c r="R127">
+        <v>7</v>
+      </c>
+      <c r="S127">
+        <v>9</v>
+      </c>
+      <c r="T127">
         <v>4</v>
       </c>
-      <c r="R127">
-        <v>1</v>
-      </c>
-      <c r="S127">
-        <v>5</v>
-      </c>
-      <c r="T127">
-        <v>2</v>
-      </c>
       <c r="U127">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="V127">
-        <v>6.25</v>
+        <v>2.9</v>
       </c>
       <c r="W127">
-        <v>1.35</v>
+        <v>1.48</v>
       </c>
       <c r="X127">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="Y127">
-        <v>2.65</v>
+        <v>3.1</v>
       </c>
       <c r="Z127">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="AA127">
-        <v>6</v>
+        <v>7.25</v>
       </c>
       <c r="AB127">
         <v>1.06</v>
       </c>
       <c r="AC127">
-        <v>1.44</v>
+        <v>3.76</v>
       </c>
       <c r="AD127">
-        <v>4.2</v>
+        <v>3.18</v>
       </c>
       <c r="AE127">
-        <v>6.5</v>
+        <v>2.15</v>
       </c>
       <c r="AF127">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="AG127">
-        <v>12.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AH127">
-        <v>1.26</v>
+        <v>1.43</v>
       </c>
       <c r="AI127">
-        <v>3.53</v>
+        <v>2.6</v>
       </c>
       <c r="AJ127">
-        <v>2.12</v>
+        <v>2.19</v>
       </c>
       <c r="AK127">
-        <v>1.68</v>
+        <v>1.55</v>
       </c>
       <c r="AL127">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="AM127">
         <v>1.72</v>
       </c>
       <c r="AN127">
-        <v>1.11</v>
+        <v>1.62</v>
       </c>
       <c r="AO127">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AP127">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="AQ127">
-        <v>2.14</v>
+        <v>1.29</v>
       </c>
       <c r="AR127">
-        <v>0.29</v>
+        <v>0.86</v>
       </c>
       <c r="AS127">
-        <v>2.18</v>
+        <v>1.13</v>
       </c>
       <c r="AT127">
-        <v>0.25</v>
+        <v>0.91</v>
       </c>
       <c r="AU127">
-        <v>1.61</v>
+        <v>1.35</v>
       </c>
       <c r="AV127">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="AW127">
-        <v>2.62</v>
+        <v>2.47</v>
       </c>
       <c r="AX127">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AY127">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AZ127">
         <v>0</v>
       </c>
       <c r="BA127">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="BB127">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="BC127">
-        <v>1.98</v>
+        <v>1.65</v>
       </c>
       <c r="BD127">
-        <v>2.27</v>
+        <v>1.95</v>
       </c>
       <c r="BE127">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="BF127">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG127">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BH127">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BI127">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BJ127">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BK127">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128" spans="1:63">
@@ -25372,7 +25378,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>5139203</v>
+        <v>5139199</v>
       </c>
       <c r="C128" t="s">
         <v>63</v>
@@ -25387,175 +25393,175 @@
         <v>16</v>
       </c>
       <c r="G128" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H128" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I128">
         <v>0</v>
       </c>
       <c r="J128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L128">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M128">
         <v>2</v>
       </c>
       <c r="N128">
+        <v>2</v>
+      </c>
+      <c r="O128" t="s">
+        <v>94</v>
+      </c>
+      <c r="P128" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q128">
+        <v>2</v>
+      </c>
+      <c r="R128">
+        <v>2</v>
+      </c>
+      <c r="S128">
         <v>4</v>
       </c>
-      <c r="O128" t="s">
-        <v>166</v>
-      </c>
-      <c r="P128" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q128">
-        <v>9</v>
-      </c>
-      <c r="R128">
-        <v>4</v>
-      </c>
-      <c r="S128">
-        <v>13</v>
-      </c>
       <c r="T128">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="U128">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="V128">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="W128">
-        <v>1.36</v>
+        <v>1.66</v>
       </c>
       <c r="X128">
-        <v>2.88</v>
+        <v>2.1</v>
       </c>
       <c r="Y128">
-        <v>2.62</v>
+        <v>4.1</v>
       </c>
       <c r="Z128">
+        <v>1.2</v>
+      </c>
+      <c r="AA128">
+        <v>11</v>
+      </c>
+      <c r="AB128">
+        <v>1.02</v>
+      </c>
+      <c r="AC128">
+        <v>2.9</v>
+      </c>
+      <c r="AD128">
+        <v>2.7</v>
+      </c>
+      <c r="AE128">
+        <v>2.63</v>
+      </c>
+      <c r="AF128">
+        <v>1.13</v>
+      </c>
+      <c r="AG128">
+        <v>5.25</v>
+      </c>
+      <c r="AH128">
+        <v>1.6</v>
+      </c>
+      <c r="AI128">
+        <v>2.25</v>
+      </c>
+      <c r="AJ128">
+        <v>2.75</v>
+      </c>
+      <c r="AK128">
         <v>1.42</v>
       </c>
-      <c r="AA128">
-        <v>6.6</v>
-      </c>
-      <c r="AB128">
-        <v>1.08</v>
-      </c>
-      <c r="AC128">
-        <v>1.95</v>
-      </c>
-      <c r="AD128">
-        <v>3.3</v>
-      </c>
-      <c r="AE128">
-        <v>3.5</v>
-      </c>
-      <c r="AF128">
-        <v>1.03</v>
-      </c>
-      <c r="AG128">
-        <v>14.75</v>
-      </c>
-      <c r="AH128">
-        <v>1.29</v>
-      </c>
-      <c r="AI128">
-        <v>3.4</v>
-      </c>
-      <c r="AJ128">
-        <v>1.86</v>
-      </c>
-      <c r="AK128">
-        <v>1.9</v>
-      </c>
       <c r="AL128">
-        <v>1.73</v>
+        <v>2.25</v>
       </c>
       <c r="AM128">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="AN128">
-        <v>1.29</v>
+        <v>1.48</v>
       </c>
       <c r="AO128">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="AP128">
-        <v>1.85</v>
+        <v>1.38</v>
       </c>
       <c r="AQ128">
-        <v>1.71</v>
+        <v>1.14</v>
       </c>
       <c r="AR128">
         <v>1.29</v>
       </c>
       <c r="AS128">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="AT128">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="AU128">
-        <v>1.31</v>
+        <v>1.47</v>
       </c>
       <c r="AV128">
-        <v>1.84</v>
+        <v>1.26</v>
       </c>
       <c r="AW128">
-        <v>3.15</v>
+        <v>2.73</v>
       </c>
       <c r="AX128">
-        <v>1.67</v>
+        <v>2.03</v>
       </c>
       <c r="AY128">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AZ128">
-        <v>2.47</v>
+        <v>1.99</v>
       </c>
       <c r="BA128">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="BB128">
-        <v>1.44</v>
+        <v>1.68</v>
       </c>
       <c r="BC128">
-        <v>1.78</v>
+        <v>2.11</v>
       </c>
       <c r="BD128">
-        <v>2.28</v>
+        <v>2.33</v>
       </c>
       <c r="BE128">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="BF128">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="BG128">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BH128">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BI128">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BJ128">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="BK128">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129" spans="1:63">
@@ -25563,7 +25569,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>5139204</v>
+        <v>5139201</v>
       </c>
       <c r="C129" t="s">
         <v>63</v>
@@ -25578,175 +25584,175 @@
         <v>16</v>
       </c>
       <c r="G129" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H129" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129">
         <v>1</v>
       </c>
       <c r="K129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L129">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M129">
         <v>1</v>
       </c>
       <c r="N129">
+        <v>2</v>
+      </c>
+      <c r="O129" t="s">
+        <v>129</v>
+      </c>
+      <c r="P129" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q129">
         <v>4</v>
       </c>
-      <c r="O129" t="s">
-        <v>167</v>
-      </c>
-      <c r="P129" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q129">
-        <v>10</v>
-      </c>
       <c r="R129">
         <v>2</v>
       </c>
       <c r="S129">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="T129">
-        <v>2.66</v>
+        <v>2.55</v>
       </c>
       <c r="U129">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="V129">
-        <v>5.23</v>
+        <v>4.4</v>
       </c>
       <c r="W129">
-        <v>1.54</v>
+        <v>1.45</v>
       </c>
       <c r="X129">
-        <v>2.44</v>
+        <v>2.6</v>
       </c>
       <c r="Y129">
-        <v>3.56</v>
+        <v>2.95</v>
       </c>
       <c r="Z129">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="AA129">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="AB129">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="AC129">
         <v>1.87</v>
       </c>
       <c r="AD129">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AE129">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AF129">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="AG129">
-        <v>6.25</v>
+        <v>9.5</v>
       </c>
       <c r="AH129">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="AI129">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AJ129">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="AK129">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="AL129">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AM129">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="AN129">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="AO129">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="AP129">
-        <v>1.97</v>
+        <v>1.77</v>
       </c>
       <c r="AQ129">
-        <v>1.57</v>
+        <v>2.71</v>
       </c>
       <c r="AR129">
-        <v>0.86</v>
+        <v>1.43</v>
       </c>
       <c r="AS129">
-        <v>1.75</v>
+        <v>2.09</v>
       </c>
       <c r="AT129">
-        <v>0.91</v>
+        <v>1.36</v>
       </c>
       <c r="AU129">
-        <v>1.73</v>
+        <v>1.5</v>
       </c>
       <c r="AV129">
-        <v>1.24</v>
+        <v>0.97</v>
       </c>
       <c r="AW129">
-        <v>2.97</v>
+        <v>2.47</v>
       </c>
       <c r="AX129">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="AY129">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="AZ129">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="BA129">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="BB129">
-        <v>1.69</v>
+        <v>1.85</v>
       </c>
       <c r="BC129">
-        <v>2.1</v>
+        <v>2.33</v>
       </c>
       <c r="BD129">
-        <v>2.63</v>
+        <v>0</v>
       </c>
       <c r="BE129">
         <v>0</v>
       </c>
       <c r="BF129">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BG129">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BH129">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BI129">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BJ129">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BK129">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="130" spans="1:63">
@@ -25796,7 +25802,7 @@
         <v>168</v>
       </c>
       <c r="P130" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q130">
         <v>5</v>
@@ -26178,7 +26184,7 @@
         <v>170</v>
       </c>
       <c r="P132" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q132">
         <v>7</v>
@@ -26560,7 +26566,7 @@
         <v>171</v>
       </c>
       <c r="P134" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q134">
         <v>1</v>
@@ -26647,10 +26653,10 @@
         <v>0.88</v>
       </c>
       <c r="AS134">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AT134">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU134">
         <v>1.46</v>
@@ -26751,7 +26757,7 @@
         <v>172</v>
       </c>
       <c r="P135" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q135">
         <v>6</v>
@@ -26838,10 +26844,10 @@
         <v>1.13</v>
       </c>
       <c r="AS135">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT135">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU135">
         <v>1.48</v>
@@ -27411,7 +27417,7 @@
         <v>1.33</v>
       </c>
       <c r="AS138">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT138">
         <v>1.36</v>
@@ -27605,7 +27611,7 @@
         <v>2.18</v>
       </c>
       <c r="AT139">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU139">
         <v>1.54</v>
@@ -27706,7 +27712,7 @@
         <v>176</v>
       </c>
       <c r="P140" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q140">
         <v>10</v>
@@ -27897,7 +27903,7 @@
         <v>94</v>
       </c>
       <c r="P141" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q141">
         <v>12</v>
@@ -28175,7 +28181,7 @@
         <v>1.44</v>
       </c>
       <c r="AS142">
-        <v>2.7</v>
+        <v>2.73</v>
       </c>
       <c r="AT142">
         <v>1.27</v>
@@ -28279,7 +28285,7 @@
         <v>94</v>
       </c>
       <c r="P143" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q143">
         <v>5</v>
@@ -28369,7 +28375,7 @@
         <v>1.91</v>
       </c>
       <c r="AT143">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AU143">
         <v>1.57</v>
@@ -28470,7 +28476,7 @@
         <v>177</v>
       </c>
       <c r="P144" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q144">
         <v>2</v>
@@ -28661,7 +28667,7 @@
         <v>94</v>
       </c>
       <c r="P145" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q145">
         <v>4</v>
@@ -28852,7 +28858,7 @@
         <v>178</v>
       </c>
       <c r="P146" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q146">
         <v>8</v>
@@ -29043,7 +29049,7 @@
         <v>94</v>
       </c>
       <c r="P147" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q147">
         <v>6</v>
@@ -29425,7 +29431,7 @@
         <v>92</v>
       </c>
       <c r="P149" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q149">
         <v>2</v>
@@ -29616,7 +29622,7 @@
         <v>179</v>
       </c>
       <c r="P150" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q150">
         <v>6</v>
@@ -29949,6 +29955,388 @@
       </c>
       <c r="BK151">
         <v>7</v>
+      </c>
+    </row>
+    <row r="152" spans="1:63">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>6151271</v>
+      </c>
+      <c r="C152" t="s">
+        <v>63</v>
+      </c>
+      <c r="D152" t="s">
+        <v>64</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45088.75</v>
+      </c>
+      <c r="F152">
+        <v>22</v>
+      </c>
+      <c r="G152" t="s">
+        <v>71</v>
+      </c>
+      <c r="H152" t="s">
+        <v>79</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>0</v>
+      </c>
+      <c r="M152">
+        <v>1</v>
+      </c>
+      <c r="N152">
+        <v>1</v>
+      </c>
+      <c r="O152" t="s">
+        <v>94</v>
+      </c>
+      <c r="P152" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q152">
+        <v>4</v>
+      </c>
+      <c r="R152">
+        <v>6</v>
+      </c>
+      <c r="S152">
+        <v>10</v>
+      </c>
+      <c r="T152">
+        <v>3.7</v>
+      </c>
+      <c r="U152">
+        <v>1.92</v>
+      </c>
+      <c r="V152">
+        <v>3.06</v>
+      </c>
+      <c r="W152">
+        <v>1.48</v>
+      </c>
+      <c r="X152">
+        <v>2.5</v>
+      </c>
+      <c r="Y152">
+        <v>3.22</v>
+      </c>
+      <c r="Z152">
+        <v>1.3</v>
+      </c>
+      <c r="AA152">
+        <v>8.4</v>
+      </c>
+      <c r="AB152">
+        <v>1.04</v>
+      </c>
+      <c r="AC152">
+        <v>3.2</v>
+      </c>
+      <c r="AD152">
+        <v>2.92</v>
+      </c>
+      <c r="AE152">
+        <v>2.2</v>
+      </c>
+      <c r="AF152">
+        <v>1.05</v>
+      </c>
+      <c r="AG152">
+        <v>7.1</v>
+      </c>
+      <c r="AH152">
+        <v>1.42</v>
+      </c>
+      <c r="AI152">
+        <v>2.75</v>
+      </c>
+      <c r="AJ152">
+        <v>2.16</v>
+      </c>
+      <c r="AK152">
+        <v>1.62</v>
+      </c>
+      <c r="AL152">
+        <v>1.88</v>
+      </c>
+      <c r="AM152">
+        <v>1.78</v>
+      </c>
+      <c r="AN152">
+        <v>1.5</v>
+      </c>
+      <c r="AO152">
+        <v>1.33</v>
+      </c>
+      <c r="AP152">
+        <v>1.34</v>
+      </c>
+      <c r="AQ152">
+        <v>1.7</v>
+      </c>
+      <c r="AR152">
+        <v>1</v>
+      </c>
+      <c r="AS152">
+        <v>1.55</v>
+      </c>
+      <c r="AT152">
+        <v>1.18</v>
+      </c>
+      <c r="AU152">
+        <v>1.43</v>
+      </c>
+      <c r="AV152">
+        <v>1.24</v>
+      </c>
+      <c r="AW152">
+        <v>2.67</v>
+      </c>
+      <c r="AX152">
+        <v>1.83</v>
+      </c>
+      <c r="AY152">
+        <v>8</v>
+      </c>
+      <c r="AZ152">
+        <v>2.24</v>
+      </c>
+      <c r="BA152">
+        <v>1.49</v>
+      </c>
+      <c r="BB152">
+        <v>1.83</v>
+      </c>
+      <c r="BC152">
+        <v>2.29</v>
+      </c>
+      <c r="BD152">
+        <v>3.2</v>
+      </c>
+      <c r="BE152">
+        <v>0</v>
+      </c>
+      <c r="BF152">
+        <v>3</v>
+      </c>
+      <c r="BG152">
+        <v>4</v>
+      </c>
+      <c r="BH152">
+        <v>10</v>
+      </c>
+      <c r="BI152">
+        <v>4</v>
+      </c>
+      <c r="BJ152">
+        <v>13</v>
+      </c>
+      <c r="BK152">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:63">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>6151272</v>
+      </c>
+      <c r="C153" t="s">
+        <v>63</v>
+      </c>
+      <c r="D153" t="s">
+        <v>64</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45088.75</v>
+      </c>
+      <c r="F153">
+        <v>22</v>
+      </c>
+      <c r="G153" t="s">
+        <v>77</v>
+      </c>
+      <c r="H153" t="s">
+        <v>78</v>
+      </c>
+      <c r="I153">
+        <v>1</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>1</v>
+      </c>
+      <c r="L153">
+        <v>2</v>
+      </c>
+      <c r="M153">
+        <v>0</v>
+      </c>
+      <c r="N153">
+        <v>2</v>
+      </c>
+      <c r="O153" t="s">
+        <v>181</v>
+      </c>
+      <c r="P153" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q153">
+        <v>11</v>
+      </c>
+      <c r="R153">
+        <v>4</v>
+      </c>
+      <c r="S153">
+        <v>15</v>
+      </c>
+      <c r="T153">
+        <v>2.27</v>
+      </c>
+      <c r="U153">
+        <v>2</v>
+      </c>
+      <c r="V153">
+        <v>5.7</v>
+      </c>
+      <c r="W153">
+        <v>1.5</v>
+      </c>
+      <c r="X153">
+        <v>2.4</v>
+      </c>
+      <c r="Y153">
+        <v>3.32</v>
+      </c>
+      <c r="Z153">
+        <v>1.29</v>
+      </c>
+      <c r="AA153">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AB153">
+        <v>1.04</v>
+      </c>
+      <c r="AC153">
+        <v>1.9</v>
+      </c>
+      <c r="AD153">
+        <v>3.1</v>
+      </c>
+      <c r="AE153">
+        <v>3.85</v>
+      </c>
+      <c r="AF153">
+        <v>1.05</v>
+      </c>
+      <c r="AG153">
+        <v>7.2</v>
+      </c>
+      <c r="AH153">
+        <v>1.42</v>
+      </c>
+      <c r="AI153">
+        <v>2.75</v>
+      </c>
+      <c r="AJ153">
+        <v>2.4</v>
+      </c>
+      <c r="AK153">
+        <v>1.51</v>
+      </c>
+      <c r="AL153">
+        <v>2.14</v>
+      </c>
+      <c r="AM153">
+        <v>1.6</v>
+      </c>
+      <c r="AN153">
+        <v>1.13</v>
+      </c>
+      <c r="AO153">
+        <v>1.26</v>
+      </c>
+      <c r="AP153">
+        <v>2.06</v>
+      </c>
+      <c r="AQ153">
+        <v>2.7</v>
+      </c>
+      <c r="AR153">
+        <v>1</v>
+      </c>
+      <c r="AS153">
+        <v>2.73</v>
+      </c>
+      <c r="AT153">
+        <v>0.91</v>
+      </c>
+      <c r="AU153">
+        <v>1.38</v>
+      </c>
+      <c r="AV153">
+        <v>1.19</v>
+      </c>
+      <c r="AW153">
+        <v>2.57</v>
+      </c>
+      <c r="AX153">
+        <v>1.67</v>
+      </c>
+      <c r="AY153">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ153">
+        <v>2.48</v>
+      </c>
+      <c r="BA153">
+        <v>1.24</v>
+      </c>
+      <c r="BB153">
+        <v>1.52</v>
+      </c>
+      <c r="BC153">
+        <v>1.86</v>
+      </c>
+      <c r="BD153">
+        <v>2.31</v>
+      </c>
+      <c r="BE153">
+        <v>3.14</v>
+      </c>
+      <c r="BF153">
+        <v>3</v>
+      </c>
+      <c r="BG153">
+        <v>4</v>
+      </c>
+      <c r="BH153">
+        <v>0</v>
+      </c>
+      <c r="BI153">
+        <v>1</v>
+      </c>
+      <c r="BJ153">
+        <v>3</v>
+      </c>
+      <c r="BK153">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera B_2023.xlsx
@@ -29819,10 +29819,10 @@
         <v>2</v>
       </c>
       <c r="R151">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S151">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T151">
         <v>2.07</v>

--- a/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera B_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="245">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -562,6 +562,9 @@
     <t>['33', '86']</t>
   </si>
   <si>
+    <t>['78']</t>
+  </si>
+  <si>
     <t>['47', '90+7']</t>
   </si>
   <si>
@@ -647,9 +650,6 @@
   </si>
   <si>
     <t>['82']</t>
-  </si>
-  <si>
-    <t>['78']</t>
   </si>
   <si>
     <t>['25']</t>
@@ -1110,7 +1110,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK153"/>
+  <dimension ref="A1:BK154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1354,7 +1354,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT5">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2309,7 +2309,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2500,7 +2500,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -2882,7 +2882,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -3646,7 +3646,7 @@
         <v>93</v>
       </c>
       <c r="P14" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3837,7 +3837,7 @@
         <v>94</v>
       </c>
       <c r="P15" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q15">
         <v>9</v>
@@ -4219,7 +4219,7 @@
         <v>96</v>
       </c>
       <c r="P17" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4410,7 +4410,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -5070,7 +5070,7 @@
         <v>1</v>
       </c>
       <c r="AS21">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT21">
         <v>0.75</v>
@@ -5264,7 +5264,7 @@
         <v>1</v>
       </c>
       <c r="AT22">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU22">
         <v>1.77</v>
@@ -5938,7 +5938,7 @@
         <v>103</v>
       </c>
       <c r="P26" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q26">
         <v>7</v>
@@ -6216,7 +6216,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT27">
         <v>0.63</v>
@@ -6320,7 +6320,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6702,7 +6702,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -6893,7 +6893,7 @@
         <v>94</v>
       </c>
       <c r="P31" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -7466,7 +7466,7 @@
         <v>94</v>
       </c>
       <c r="P34" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q34">
         <v>1</v>
@@ -7848,7 +7848,7 @@
         <v>111</v>
       </c>
       <c r="P36" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8320,7 +8320,7 @@
         <v>1.55</v>
       </c>
       <c r="AT38">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU38">
         <v>0.32</v>
@@ -8803,7 +8803,7 @@
         <v>94</v>
       </c>
       <c r="P41" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q41">
         <v>10</v>
@@ -8994,7 +8994,7 @@
         <v>94</v>
       </c>
       <c r="P42" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q42">
         <v>7</v>
@@ -9185,7 +9185,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9376,7 +9376,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q44">
         <v>7</v>
@@ -9654,7 +9654,7 @@
         <v>1</v>
       </c>
       <c r="AS45">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT45">
         <v>0.38</v>
@@ -10331,7 +10331,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10904,7 +10904,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -12241,7 +12241,7 @@
         <v>94</v>
       </c>
       <c r="P59" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -12522,7 +12522,7 @@
         <v>2.18</v>
       </c>
       <c r="AT60">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU60">
         <v>1.49</v>
@@ -12623,7 +12623,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q61">
         <v>2</v>
@@ -13005,7 +13005,7 @@
         <v>129</v>
       </c>
       <c r="P63" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q63">
         <v>6</v>
@@ -13196,7 +13196,7 @@
         <v>94</v>
       </c>
       <c r="P64" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -13474,7 +13474,7 @@
         <v>0.33</v>
       </c>
       <c r="AS65">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT65">
         <v>1.18</v>
@@ -13578,7 +13578,7 @@
         <v>131</v>
       </c>
       <c r="P66" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q66">
         <v>9</v>
@@ -13960,7 +13960,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -14050,7 +14050,7 @@
         <v>1.45</v>
       </c>
       <c r="AT68">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU68">
         <v>1.76</v>
@@ -14151,7 +14151,7 @@
         <v>94</v>
       </c>
       <c r="P69" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q69">
         <v>12</v>
@@ -14533,7 +14533,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q71">
         <v>1</v>
@@ -14915,7 +14915,7 @@
         <v>94</v>
       </c>
       <c r="P73" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q73">
         <v>8</v>
@@ -15106,7 +15106,7 @@
         <v>94</v>
       </c>
       <c r="P74" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q74">
         <v>2</v>
@@ -15297,7 +15297,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q75">
         <v>8</v>
@@ -15488,7 +15488,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>211</v>
+        <v>182</v>
       </c>
       <c r="Q76">
         <v>9</v>
@@ -17485,7 +17485,7 @@
         <v>1</v>
       </c>
       <c r="AS86">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT86">
         <v>0.91</v>
@@ -17589,7 +17589,7 @@
         <v>94</v>
       </c>
       <c r="P87" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -17679,7 +17679,7 @@
         <v>0.63</v>
       </c>
       <c r="AT87">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU87">
         <v>1.27</v>
@@ -18162,7 +18162,7 @@
         <v>94</v>
       </c>
       <c r="P90" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q90">
         <v>12</v>
@@ -19499,7 +19499,7 @@
         <v>146</v>
       </c>
       <c r="P97" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q97">
         <v>10</v>
@@ -20162,7 +20162,7 @@
         <v>1.75</v>
       </c>
       <c r="AT100">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU100">
         <v>1.73</v>
@@ -21114,7 +21114,7 @@
         <v>1.17</v>
       </c>
       <c r="AS105">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT105">
         <v>1.18</v>
@@ -23788,7 +23788,7 @@
         <v>1.57</v>
       </c>
       <c r="AS119">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT119">
         <v>1.55</v>
@@ -25701,7 +25701,7 @@
         <v>2.09</v>
       </c>
       <c r="AT129">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU129">
         <v>1.5</v>
@@ -25892,7 +25892,7 @@
         <v>1.91</v>
       </c>
       <c r="AT130">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU130">
         <v>1.58</v>
@@ -26757,7 +26757,7 @@
         <v>172</v>
       </c>
       <c r="P135" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q135">
         <v>6</v>
@@ -27226,7 +27226,7 @@
         <v>1.5</v>
       </c>
       <c r="AS137">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT137">
         <v>1.55</v>
@@ -27420,7 +27420,7 @@
         <v>1.55</v>
       </c>
       <c r="AT138">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU138">
         <v>1.43</v>
@@ -28563,7 +28563,7 @@
         <v>1.22</v>
       </c>
       <c r="AS144">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT144">
         <v>1.18</v>
@@ -29139,7 +29139,7 @@
         <v>2.18</v>
       </c>
       <c r="AT147">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU147">
         <v>1.59</v>
@@ -29900,7 +29900,7 @@
         <v>1</v>
       </c>
       <c r="AS151">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT151">
         <v>0.91</v>
@@ -30337,6 +30337,197 @@
       </c>
       <c r="BK153">
         <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:63">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>6423296</v>
+      </c>
+      <c r="C154" t="s">
+        <v>63</v>
+      </c>
+      <c r="D154" t="s">
+        <v>64</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45095.83333333334</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+      <c r="G154" t="s">
+        <v>68</v>
+      </c>
+      <c r="H154" t="s">
+        <v>77</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+      <c r="L154">
+        <v>1</v>
+      </c>
+      <c r="M154">
+        <v>0</v>
+      </c>
+      <c r="N154">
+        <v>1</v>
+      </c>
+      <c r="O154" t="s">
+        <v>182</v>
+      </c>
+      <c r="P154" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q154">
+        <v>10</v>
+      </c>
+      <c r="R154">
+        <v>1</v>
+      </c>
+      <c r="S154">
+        <v>11</v>
+      </c>
+      <c r="T154">
+        <v>2.63</v>
+      </c>
+      <c r="U154">
+        <v>1.95</v>
+      </c>
+      <c r="V154">
+        <v>4.33</v>
+      </c>
+      <c r="W154">
+        <v>1.56</v>
+      </c>
+      <c r="X154">
+        <v>2.31</v>
+      </c>
+      <c r="Y154">
+        <v>3.65</v>
+      </c>
+      <c r="Z154">
+        <v>1.24</v>
+      </c>
+      <c r="AA154">
+        <v>10</v>
+      </c>
+      <c r="AB154">
+        <v>1.02</v>
+      </c>
+      <c r="AC154">
+        <v>1.95</v>
+      </c>
+      <c r="AD154">
+        <v>3.25</v>
+      </c>
+      <c r="AE154">
+        <v>3.5</v>
+      </c>
+      <c r="AF154">
+        <v>1.09</v>
+      </c>
+      <c r="AG154">
+        <v>6.5</v>
+      </c>
+      <c r="AH154">
+        <v>1.53</v>
+      </c>
+      <c r="AI154">
+        <v>2.25</v>
+      </c>
+      <c r="AJ154">
+        <v>2.3</v>
+      </c>
+      <c r="AK154">
+        <v>1.6</v>
+      </c>
+      <c r="AL154">
+        <v>2.25</v>
+      </c>
+      <c r="AM154">
+        <v>1.57</v>
+      </c>
+      <c r="AN154">
+        <v>1.24</v>
+      </c>
+      <c r="AO154">
+        <v>1.34</v>
+      </c>
+      <c r="AP154">
+        <v>1.75</v>
+      </c>
+      <c r="AQ154">
+        <v>1.73</v>
+      </c>
+      <c r="AR154">
+        <v>2.05</v>
+      </c>
+      <c r="AS154">
+        <v>1.78</v>
+      </c>
+      <c r="AT154">
+        <v>1.96</v>
+      </c>
+      <c r="AU154">
+        <v>1.35</v>
+      </c>
+      <c r="AV154">
+        <v>1.13</v>
+      </c>
+      <c r="AW154">
+        <v>2.48</v>
+      </c>
+      <c r="AX154">
+        <v>1.65</v>
+      </c>
+      <c r="AY154">
+        <v>8.4</v>
+      </c>
+      <c r="AZ154">
+        <v>2.55</v>
+      </c>
+      <c r="BA154">
+        <v>1.36</v>
+      </c>
+      <c r="BB154">
+        <v>1.65</v>
+      </c>
+      <c r="BC154">
+        <v>2.1</v>
+      </c>
+      <c r="BD154">
+        <v>2.84</v>
+      </c>
+      <c r="BE154">
+        <v>3.5</v>
+      </c>
+      <c r="BF154">
+        <v>7</v>
+      </c>
+      <c r="BG154">
+        <v>3</v>
+      </c>
+      <c r="BH154">
+        <v>10</v>
+      </c>
+      <c r="BI154">
+        <v>6</v>
+      </c>
+      <c r="BJ154">
+        <v>17</v>
+      </c>
+      <c r="BK154">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Colombia Categoria Primera B_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="245">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1110,7 +1110,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK154"/>
+  <dimension ref="A1:BK155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2590,7 +2590,7 @@
         <v>1.55</v>
       </c>
       <c r="AT8">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -3733,7 +3733,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2.73</v>
+        <v>2.58</v>
       </c>
       <c r="AT14">
         <v>1.55</v>
@@ -6025,7 +6025,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>2.73</v>
+        <v>2.58</v>
       </c>
       <c r="AT26">
         <v>0.63</v>
@@ -8511,7 +8511,7 @@
         <v>1</v>
       </c>
       <c r="AT39">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU39">
         <v>1.25</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>2.73</v>
+        <v>2.58</v>
       </c>
       <c r="AT40">
         <v>0.63</v>
@@ -10800,7 +10800,7 @@
         <v>0</v>
       </c>
       <c r="AS51">
-        <v>2.73</v>
+        <v>2.58</v>
       </c>
       <c r="AT51">
         <v>0.88</v>
@@ -11567,7 +11567,7 @@
         <v>1.91</v>
       </c>
       <c r="AT55">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU55">
         <v>1.73</v>
@@ -12713,7 +12713,7 @@
         <v>0.63</v>
       </c>
       <c r="AT61">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU61">
         <v>1.62</v>
@@ -15957,7 +15957,7 @@
         <v>0.5</v>
       </c>
       <c r="AS78">
-        <v>2.73</v>
+        <v>2.58</v>
       </c>
       <c r="AT78">
         <v>0.38</v>
@@ -16342,7 +16342,7 @@
         <v>1</v>
       </c>
       <c r="AT80">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU80">
         <v>1.51</v>
@@ -18440,7 +18440,7 @@
         <v>1.2</v>
       </c>
       <c r="AS91">
-        <v>2.73</v>
+        <v>2.58</v>
       </c>
       <c r="AT91">
         <v>0.91</v>
@@ -18634,7 +18634,7 @@
         <v>1.5</v>
       </c>
       <c r="AT92">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU92">
         <v>1.33</v>
@@ -21308,7 +21308,7 @@
         <v>2.18</v>
       </c>
       <c r="AT106">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU106">
         <v>1.6</v>
@@ -22260,7 +22260,7 @@
         <v>0.33</v>
       </c>
       <c r="AS111">
-        <v>2.73</v>
+        <v>2.58</v>
       </c>
       <c r="AT111">
         <v>0.25</v>
@@ -23597,7 +23597,7 @@
         <v>1.86</v>
       </c>
       <c r="AS118">
-        <v>2.73</v>
+        <v>2.58</v>
       </c>
       <c r="AT118">
         <v>1.27</v>
@@ -25510,7 +25510,7 @@
         <v>1</v>
       </c>
       <c r="AT128">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU128">
         <v>1.47</v>
@@ -26465,7 +26465,7 @@
         <v>1.55</v>
       </c>
       <c r="AT133">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU133">
         <v>1.55</v>
@@ -26653,7 +26653,7 @@
         <v>0.88</v>
       </c>
       <c r="AS134">
-        <v>2.73</v>
+        <v>2.58</v>
       </c>
       <c r="AT134">
         <v>1.18</v>
@@ -27802,7 +27802,7 @@
         <v>2.09</v>
       </c>
       <c r="AT140">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU140">
         <v>1.56</v>
@@ -28181,7 +28181,7 @@
         <v>1.44</v>
       </c>
       <c r="AS142">
-        <v>2.73</v>
+        <v>2.58</v>
       </c>
       <c r="AT142">
         <v>1.27</v>
@@ -29330,7 +29330,7 @@
         <v>1.45</v>
       </c>
       <c r="AT148">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU148">
         <v>1.88</v>
@@ -30282,7 +30282,7 @@
         <v>1</v>
       </c>
       <c r="AS153">
-        <v>2.73</v>
+        <v>2.58</v>
       </c>
       <c r="AT153">
         <v>0.91</v>
@@ -30473,10 +30473,10 @@
         <v>2.05</v>
       </c>
       <c r="AS154">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="AT154">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="AU154">
         <v>1.35</v>
@@ -30528,6 +30528,197 @@
       </c>
       <c r="BK154">
         <v>9</v>
+      </c>
+    </row>
+    <row r="155" spans="1:63">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>6423297</v>
+      </c>
+      <c r="C155" t="s">
+        <v>63</v>
+      </c>
+      <c r="D155" t="s">
+        <v>64</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45100.91666666666</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155" t="s">
+        <v>77</v>
+      </c>
+      <c r="H155" t="s">
+        <v>68</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155">
+        <v>0</v>
+      </c>
+      <c r="M155">
+        <v>0</v>
+      </c>
+      <c r="N155">
+        <v>0</v>
+      </c>
+      <c r="O155" t="s">
+        <v>94</v>
+      </c>
+      <c r="P155" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q155">
+        <v>4</v>
+      </c>
+      <c r="R155">
+        <v>1</v>
+      </c>
+      <c r="S155">
+        <v>5</v>
+      </c>
+      <c r="T155">
+        <v>3.16</v>
+      </c>
+      <c r="U155">
+        <v>1.9</v>
+      </c>
+      <c r="V155">
+        <v>4.53</v>
+      </c>
+      <c r="W155">
+        <v>1.63</v>
+      </c>
+      <c r="X155">
+        <v>2.26</v>
+      </c>
+      <c r="Y155">
+        <v>3.84</v>
+      </c>
+      <c r="Z155">
+        <v>1.22</v>
+      </c>
+      <c r="AA155">
+        <v>10.75</v>
+      </c>
+      <c r="AB155">
+        <v>1.01</v>
+      </c>
+      <c r="AC155">
+        <v>2.2</v>
+      </c>
+      <c r="AD155">
+        <v>3</v>
+      </c>
+      <c r="AE155">
+        <v>3.5</v>
+      </c>
+      <c r="AF155">
+        <v>1.13</v>
+      </c>
+      <c r="AG155">
+        <v>5.88</v>
+      </c>
+      <c r="AH155">
+        <v>1.58</v>
+      </c>
+      <c r="AI155">
+        <v>2.3</v>
+      </c>
+      <c r="AJ155">
+        <v>2.8</v>
+      </c>
+      <c r="AK155">
+        <v>1.33</v>
+      </c>
+      <c r="AL155">
+        <v>2.23</v>
+      </c>
+      <c r="AM155">
+        <v>1.55</v>
+      </c>
+      <c r="AN155">
+        <v>1.26</v>
+      </c>
+      <c r="AO155">
+        <v>1.34</v>
+      </c>
+      <c r="AP155">
+        <v>1.6</v>
+      </c>
+      <c r="AQ155">
+        <v>1.96</v>
+      </c>
+      <c r="AR155">
+        <v>1.78</v>
+      </c>
+      <c r="AS155">
+        <v>1.92</v>
+      </c>
+      <c r="AT155">
+        <v>1.75</v>
+      </c>
+      <c r="AU155">
+        <v>1.33</v>
+      </c>
+      <c r="AV155">
+        <v>1.21</v>
+      </c>
+      <c r="AW155">
+        <v>2.54</v>
+      </c>
+      <c r="AX155">
+        <v>1.66</v>
+      </c>
+      <c r="AY155">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ155">
+        <v>2.53</v>
+      </c>
+      <c r="BA155">
+        <v>1.34</v>
+      </c>
+      <c r="BB155">
+        <v>1.71</v>
+      </c>
+      <c r="BC155">
+        <v>2.14</v>
+      </c>
+      <c r="BD155">
+        <v>2.85</v>
+      </c>
+      <c r="BE155">
+        <v>0</v>
+      </c>
+      <c r="BF155">
+        <v>0</v>
+      </c>
+      <c r="BG155">
+        <v>0</v>
+      </c>
+      <c r="BH155">
+        <v>6</v>
+      </c>
+      <c r="BI155">
+        <v>4</v>
+      </c>
+      <c r="BJ155">
+        <v>6</v>
+      </c>
+      <c r="BK155">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
